--- a/src/CloudFormation/TableData.xlsx
+++ b/src/CloudFormation/TableData.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelpotocar/Developer/Bloomtech/bd-team-project-project-kitty/project_documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelpotocar/Developer/Bloomtech/bd-team-project-project-kitty/src/CloudFormation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{64107E53-BF00-994D-8C97-309543F61416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1CC1A22-9F56-2349-9EFD-2D875A74AE29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7380" yWindow="880" windowWidth="28620" windowHeight="22500"/>
+    <workbookView xWindow="7380" yWindow="880" windowWidth="28620" windowHeight="22500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Last year (2022)-2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -443,7 +456,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -921,10 +934,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1283,10 +1295,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
@@ -1297,13 +1309,13 @@
     <col min="3" max="3" width="59.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="59.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="201.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.83203125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
@@ -1322,13 +1334,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>128</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>129</v>
       </c>
       <c r="J1" t="s">
@@ -1337,10 +1349,10 @@
       <c r="K1" t="s">
         <v>131</v>
       </c>
-      <c r="L1" s="4"/>
-      <c r="N1" s="3">
+      <c r="L1" s="3"/>
+      <c r="N1" s="2">
         <f ca="1">_xlfn.FLOOR.MATH((RAND()*0.9+0.1)*10^12)</f>
-        <v>399061551780</v>
+        <v>583736154011</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -1356,15 +1368,15 @@
       <c r="D2">
         <v>59.99</v>
       </c>
-      <c r="G2" s="3" cm="1">
+      <c r="G2" s="2" cm="1">
         <f t="array" aca="1" ref="G2" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>598917005925</v>
-      </c>
-      <c r="H2" s="2">
+        <v>663912409988</v>
+      </c>
+      <c r="H2">
         <f ca="1">_xlfn.FLOOR.MATH((B2-DATE(1970,1,1)+RAND())*86400)</f>
-        <v>1641071836</v>
-      </c>
-      <c r="I2" s="2">
+        <v>1641000228</v>
+      </c>
+      <c r="I2">
         <f>_xlfn.FLOOR.MATH((B2-DATE(1970,1,1)+1)*86400)</f>
         <v>1641081600</v>
       </c>
@@ -1378,11 +1390,11 @@
       </c>
       <c r="L2" t="str">
         <f ca="1">"{ "&amp;CHAR(34)&amp; "PutRequest"&amp;CHAR(34)&amp;": { "&amp;CHAR(34)&amp;"Item"&amp;CHAR(34)&amp;": { "&amp;CHAR(34) &amp;G$1&amp;CHAR(34) &amp;": "&amp;G2&amp; ", "&amp;CHAR(34) &amp;H$1&amp;CHAR(34) &amp;": "&amp;H2&amp; ", "&amp;CHAR(34) &amp;I$1&amp;CHAR(34) &amp;": "&amp;I2&amp; ", "&amp;CHAR(34) &amp;J$1&amp;CHAR(34) &amp;": "&amp;J2&amp; ", "&amp;CHAR(34) &amp;K$1&amp;CHAR(34) &amp;": "&amp;CHAR(34)&amp;K2&amp;CHAR(34) &amp;" }}},"</f>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 598917005925, "submittedDateTime": 1641071836, "completedDateTime": 1641081600, "amount": 59.99, "memo": "Microsoft Redmond WA null XXXXXXXXXXXX6681" }}},</v>
-      </c>
-      <c r="N2" s="3">
+        <v>{ "PutRequest": { "Item": { "accountNumber": 663912409988, "submittedDateTime": 1641000228, "completedDateTime": 1641081600, "amount": 59.99, "memo": "Microsoft Redmond WA null XXXXXXXXXXXX6681" }}},</v>
+      </c>
+      <c r="N2" s="2">
         <f t="shared" ref="N2:N12" ca="1" si="0">_xlfn.FLOOR.MATH((RAND()*0.9+0.1)*10^12)</f>
-        <v>669914345717</v>
+        <v>129025537739</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -1398,15 +1410,15 @@
       <c r="D3">
         <v>13.88</v>
       </c>
-      <c r="G3" s="3" cm="1">
+      <c r="G3" s="2" cm="1">
         <f t="array" aca="1" ref="G3" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>359991678203</v>
-      </c>
-      <c r="H3" s="2">
+        <v>129025537739</v>
+      </c>
+      <c r="H3">
         <f t="shared" ref="H3:H66" ca="1" si="1">_xlfn.FLOOR.MATH((B3-DATE(1970,1,1)+RAND())*86400)</f>
-        <v>1641133660</v>
-      </c>
-      <c r="I3" s="2">
+        <v>1641167328</v>
+      </c>
+      <c r="I3">
         <f t="shared" ref="I3:I66" si="2">_xlfn.FLOOR.MATH((B3-DATE(1970,1,1)+1)*86400)</f>
         <v>1641168000</v>
       </c>
@@ -1420,11 +1432,11 @@
       </c>
       <c r="L3" t="str">
         <f t="shared" ref="L3:L66" ca="1" si="5">"{ "&amp;CHAR(34)&amp; "PutRequest"&amp;CHAR(34)&amp;": { "&amp;CHAR(34)&amp;"Item"&amp;CHAR(34)&amp;": { "&amp;CHAR(34) &amp;G$1&amp;CHAR(34) &amp;": "&amp;G3&amp; ", "&amp;CHAR(34) &amp;H$1&amp;CHAR(34) &amp;": "&amp;H3&amp; ", "&amp;CHAR(34) &amp;I$1&amp;CHAR(34) &amp;": "&amp;I3&amp; ", "&amp;CHAR(34) &amp;J$1&amp;CHAR(34) &amp;": "&amp;J3&amp; ", "&amp;CHAR(34) &amp;K$1&amp;CHAR(34) &amp;": "&amp;CHAR(34)&amp;K3&amp;CHAR(34) &amp;" }}},"</f>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 359991678203, "submittedDateTime": 1641133660, "completedDateTime": 1641168000, "amount": 13.88, "memo": "PENN STATION 10 CINCINNATI OH" }}},</v>
-      </c>
-      <c r="N3" s="3">
+        <v>{ "PutRequest": { "Item": { "accountNumber": 129025537739, "submittedDateTime": 1641167328, "completedDateTime": 1641168000, "amount": 13.88, "memo": "PENN STATION 10 CINCINNATI OH" }}},</v>
+      </c>
+      <c r="N3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>594392737621</v>
+        <v>342768608852</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -1440,15 +1452,15 @@
       <c r="D4">
         <v>20.38</v>
       </c>
-      <c r="G4" s="3" cm="1">
+      <c r="G4" s="2" cm="1">
         <f t="array" aca="1" ref="G4" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>598917005925</v>
-      </c>
-      <c r="H4" s="2">
+        <v>663912409988</v>
+      </c>
+      <c r="H4">
         <f t="shared" ca="1" si="1"/>
-        <v>1641167662</v>
-      </c>
-      <c r="I4" s="2">
+        <v>1641086632</v>
+      </c>
+      <c r="I4">
         <f t="shared" si="2"/>
         <v>1641168000</v>
       </c>
@@ -1462,11 +1474,11 @@
       </c>
       <c r="L4" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 598917005925, "submittedDateTime": 1641167662, "completedDateTime": 1641168000, "amount": 20.38, "memo": "DOUBLE DRAGON II CINCINNATI OH" }}},</v>
-      </c>
-      <c r="N4" s="3">
+        <v>{ "PutRequest": { "Item": { "accountNumber": 663912409988, "submittedDateTime": 1641086632, "completedDateTime": 1641168000, "amount": 20.38, "memo": "DOUBLE DRAGON II CINCINNATI OH" }}},</v>
+      </c>
+      <c r="N4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>749596570472</v>
+        <v>985663880614</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -1482,15 +1494,15 @@
       <c r="D5">
         <v>11.64</v>
       </c>
-      <c r="G5" s="3" cm="1">
+      <c r="G5" s="2" cm="1">
         <f t="array" aca="1" ref="G5" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>732504662515</v>
-      </c>
-      <c r="H5" s="2">
+        <v>985663880614</v>
+      </c>
+      <c r="H5">
         <f t="shared" ca="1" si="1"/>
-        <v>1641310152</v>
-      </c>
-      <c r="I5" s="2">
+        <v>1641306149</v>
+      </c>
+      <c r="I5">
         <f t="shared" si="2"/>
         <v>1641340800</v>
       </c>
@@ -1504,11 +1516,11 @@
       </c>
       <c r="L5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 732504662515, "submittedDateTime": 1641310152, "completedDateTime": 1641340800, "amount": 11.64, "memo": "35 PIADA FLORENCE FLORENCE KY" }}},</v>
-      </c>
-      <c r="N5" s="3">
+        <v>{ "PutRequest": { "Item": { "accountNumber": 985663880614, "submittedDateTime": 1641306149, "completedDateTime": 1641340800, "amount": 11.64, "memo": "35 PIADA FLORENCE FLORENCE KY" }}},</v>
+      </c>
+      <c r="N5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>598917005925</v>
+        <v>334321869864</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -1524,15 +1536,15 @@
       <c r="D6">
         <v>240.43</v>
       </c>
-      <c r="G6" s="3" cm="1">
+      <c r="G6" s="2" cm="1">
         <f t="array" aca="1" ref="G6" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>826711618850</v>
-      </c>
-      <c r="H6" s="2">
+        <v>513319807340</v>
+      </c>
+      <c r="H6">
         <f t="shared" ca="1" si="1"/>
-        <v>1641325329</v>
-      </c>
-      <c r="I6" s="2">
+        <v>1641289836</v>
+      </c>
+      <c r="I6">
         <f t="shared" si="2"/>
         <v>1641340800</v>
       </c>
@@ -1546,11 +1558,11 @@
       </c>
       <c r="L6" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 826711618850, "submittedDateTime": 1641325329, "completedDateTime": 1641340800, "amount": 240.43, "memo": "SPI*DUKE-ENERGY 800-777-9898 NC" }}},</v>
-      </c>
-      <c r="N6" s="3">
+        <v>{ "PutRequest": { "Item": { "accountNumber": 513319807340, "submittedDateTime": 1641289836, "completedDateTime": 1641340800, "amount": 240.43, "memo": "SPI*DUKE-ENERGY 800-777-9898 NC" }}},</v>
+      </c>
+      <c r="N6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>498511217783</v>
+        <v>195664351857</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -1566,15 +1578,15 @@
       <c r="E7">
         <v>-49.53</v>
       </c>
-      <c r="G7" s="3" cm="1">
+      <c r="G7" s="2" cm="1">
         <f t="array" aca="1" ref="G7" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>399061551780</v>
-      </c>
-      <c r="H7" s="2">
+        <v>663912409988</v>
+      </c>
+      <c r="H7">
         <f t="shared" ca="1" si="1"/>
-        <v>1641402893</v>
-      </c>
-      <c r="I7" s="2">
+        <v>1641350887</v>
+      </c>
+      <c r="I7">
         <f t="shared" si="2"/>
         <v>1641427200</v>
       </c>
@@ -1588,11 +1600,11 @@
       </c>
       <c r="L7" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 399061551780, "submittedDateTime": 1641402893, "completedDateTime": 1641427200, "amount": -49.53, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" }}},</v>
-      </c>
-      <c r="N7" s="3">
+        <v>{ "PutRequest": { "Item": { "accountNumber": 663912409988, "submittedDateTime": 1641350887, "completedDateTime": 1641427200, "amount": -49.53, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" }}},</v>
+      </c>
+      <c r="N7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>402123746805</v>
+        <v>422657850099</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -1608,15 +1620,15 @@
       <c r="E8">
         <v>-59.44</v>
       </c>
-      <c r="G8" s="3" cm="1">
+      <c r="G8" s="2" cm="1">
         <f t="array" aca="1" ref="G8" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>826711618850</v>
-      </c>
-      <c r="H8" s="2">
+        <v>342768608852</v>
+      </c>
+      <c r="H8">
         <f t="shared" ca="1" si="1"/>
-        <v>1641393180</v>
-      </c>
-      <c r="I8" s="2">
+        <v>1641349522</v>
+      </c>
+      <c r="I8">
         <f t="shared" si="2"/>
         <v>1641427200</v>
       </c>
@@ -1630,11 +1642,11 @@
       </c>
       <c r="L8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 826711618850, "submittedDateTime": 1641393180, "completedDateTime": 1641427200, "amount": -59.44, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" }}},</v>
-      </c>
-      <c r="N8" s="3">
+        <v>{ "PutRequest": { "Item": { "accountNumber": 342768608852, "submittedDateTime": 1641349522, "completedDateTime": 1641427200, "amount": -59.44, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" }}},</v>
+      </c>
+      <c r="N8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>732504662515</v>
+        <v>663912409988</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -1650,15 +1662,15 @@
       <c r="D9">
         <v>65.91</v>
       </c>
-      <c r="G9" s="3" cm="1">
+      <c r="G9" s="2" cm="1">
         <f t="array" aca="1" ref="G9" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>498511217783</v>
-      </c>
-      <c r="H9" s="2">
+        <v>663912409988</v>
+      </c>
+      <c r="H9">
         <f t="shared" ca="1" si="1"/>
-        <v>1641378656</v>
-      </c>
-      <c r="I9" s="2">
+        <v>1641381318</v>
+      </c>
+      <c r="I9">
         <f t="shared" si="2"/>
         <v>1641427200</v>
       </c>
@@ -1672,11 +1684,11 @@
       </c>
       <c r="L9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 498511217783, "submittedDateTime": 1641378656, "completedDateTime": 1641427200, "amount": 65.91, "memo": "CIN BELL ELEC PAY 513-5652210 OH" }}},</v>
-      </c>
-      <c r="N9" s="3">
+        <v>{ "PutRequest": { "Item": { "accountNumber": 663912409988, "submittedDateTime": 1641381318, "completedDateTime": 1641427200, "amount": 65.91, "memo": "CIN BELL ELEC PAY 513-5652210 OH" }}},</v>
+      </c>
+      <c r="N9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>359991678203</v>
+        <v>140032156448</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -1692,15 +1704,15 @@
       <c r="D10">
         <v>452.49</v>
       </c>
-      <c r="G10" s="3" cm="1">
+      <c r="G10" s="2" cm="1">
         <f t="array" aca="1" ref="G10" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>826711618850</v>
-      </c>
-      <c r="H10" s="2">
+        <v>513319807340</v>
+      </c>
+      <c r="H10">
         <f t="shared" ca="1" si="1"/>
-        <v>1641344705</v>
-      </c>
-      <c r="I10" s="2">
+        <v>1641381350</v>
+      </c>
+      <c r="I10">
         <f t="shared" si="2"/>
         <v>1641427200</v>
       </c>
@@ -1714,11 +1726,11 @@
       </c>
       <c r="L10" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 826711618850, "submittedDateTime": 1641344705, "completedDateTime": 1641427200, "amount": 452.49, "memo": "CAPITAL GRILLE 0138052 CINCINNATI OH" }}},</v>
-      </c>
-      <c r="N10" s="3">
+        <v>{ "PutRequest": { "Item": { "accountNumber": 513319807340, "submittedDateTime": 1641381350, "completedDateTime": 1641427200, "amount": 452.49, "memo": "CAPITAL GRILLE 0138052 CINCINNATI OH" }}},</v>
+      </c>
+      <c r="N10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>826711618850</v>
+        <v>513319807340</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -1734,15 +1746,15 @@
       <c r="E11">
         <v>-2418.36</v>
       </c>
-      <c r="G11" s="3" cm="1">
+      <c r="G11" s="2" cm="1">
         <f t="array" aca="1" ref="G11" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>669914345717</v>
-      </c>
-      <c r="H11" s="2">
+        <v>985663880614</v>
+      </c>
+      <c r="H11">
         <f t="shared" ca="1" si="1"/>
-        <v>1641477555</v>
-      </c>
-      <c r="I11" s="2">
+        <v>1641435538</v>
+      </c>
+      <c r="I11">
         <f t="shared" si="2"/>
         <v>1641513600</v>
       </c>
@@ -1756,11 +1768,11 @@
       </c>
       <c r="L11" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 669914345717, "submittedDateTime": 1641477555, "completedDateTime": 1641513600, "amount": -2418.36, "memo": "ONLINE PAYMENT, THANK YOU" }}},</v>
-      </c>
-      <c r="N11" s="3">
+        <v>{ "PutRequest": { "Item": { "accountNumber": 985663880614, "submittedDateTime": 1641435538, "completedDateTime": 1641513600, "amount": -2418.36, "memo": "ONLINE PAYMENT, THANK YOU" }}},</v>
+      </c>
+      <c r="N11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>304160714309</v>
+        <v>852888074021</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -1776,15 +1788,15 @@
       <c r="D12">
         <v>30</v>
       </c>
-      <c r="G12" s="3" cm="1">
+      <c r="G12" s="2" cm="1">
         <f t="array" aca="1" ref="G12" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>669914345717</v>
-      </c>
-      <c r="H12" s="2">
+        <v>195664351857</v>
+      </c>
+      <c r="H12">
         <f t="shared" ca="1" si="1"/>
-        <v>1641655165</v>
-      </c>
-      <c r="I12" s="2">
+        <v>1641657653</v>
+      </c>
+      <c r="I12">
         <f t="shared" si="2"/>
         <v>1641686400</v>
       </c>
@@ -1798,11 +1810,11 @@
       </c>
       <c r="L12" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 669914345717, "submittedDateTime": 1641655165, "completedDateTime": 1641686400, "amount": 30, "memo": "VISIBLE 8663313527 CO" }}},</v>
-      </c>
-      <c r="N12" s="3">
+        <v>{ "PutRequest": { "Item": { "accountNumber": 195664351857, "submittedDateTime": 1641657653, "completedDateTime": 1641686400, "amount": 30, "memo": "VISIBLE 8663313527 CO" }}},</v>
+      </c>
+      <c r="N12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>861239476106</v>
+        <v>602716875113</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -1818,15 +1830,15 @@
       <c r="D13">
         <v>21.95</v>
       </c>
-      <c r="G13" s="3" cm="1">
+      <c r="G13" s="2" cm="1">
         <f t="array" aca="1" ref="G13" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>359991678203</v>
-      </c>
-      <c r="H13" s="2">
+        <v>195664351857</v>
+      </c>
+      <c r="H13">
         <f t="shared" ca="1" si="1"/>
-        <v>1642047436</v>
-      </c>
-      <c r="I13" s="2">
+        <v>1642048513</v>
+      </c>
+      <c r="I13">
         <f t="shared" si="2"/>
         <v>1642118400</v>
       </c>
@@ -1840,7 +1852,7 @@
       </c>
       <c r="L13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 359991678203, "submittedDateTime": 1642047436, "completedDateTime": 1642118400, "amount": 21.95, "memo": "DOUBLE DRAGON II CINCINNATI OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 195664351857, "submittedDateTime": 1642048513, "completedDateTime": 1642118400, "amount": 21.95, "memo": "DOUBLE DRAGON II CINCINNATI OH" }}},</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -1856,15 +1868,15 @@
       <c r="D14">
         <v>48.08</v>
       </c>
-      <c r="G14" s="3" cm="1">
+      <c r="G14" s="2" cm="1">
         <f t="array" aca="1" ref="G14" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>594392737621</v>
-      </c>
-      <c r="H14" s="2">
+        <v>602716875113</v>
+      </c>
+      <c r="H14">
         <f t="shared" ca="1" si="1"/>
-        <v>1642591661</v>
-      </c>
-      <c r="I14" s="2">
+        <v>1642608012</v>
+      </c>
+      <c r="I14">
         <f t="shared" si="2"/>
         <v>1642636800</v>
       </c>
@@ -1878,7 +1890,7 @@
       </c>
       <c r="L14" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 594392737621, "submittedDateTime": 1642591661, "completedDateTime": 1642636800, "amount": 48.08, "memo": "WM SUPERCENTER #2250 CINCINNATI OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 602716875113, "submittedDateTime": 1642608012, "completedDateTime": 1642636800, "amount": 48.08, "memo": "WM SUPERCENTER #2250 CINCINNATI OH" }}},</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -1894,15 +1906,15 @@
       <c r="D15">
         <v>16.100000000000001</v>
       </c>
-      <c r="G15" s="3" cm="1">
+      <c r="G15" s="2" cm="1">
         <f t="array" aca="1" ref="G15" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>669914345717</v>
-      </c>
-      <c r="H15" s="2">
+        <v>140032156448</v>
+      </c>
+      <c r="H15">
         <f t="shared" ca="1" si="1"/>
-        <v>1642870963</v>
-      </c>
-      <c r="I15" s="2">
+        <v>1642876405</v>
+      </c>
+      <c r="I15">
         <f t="shared" si="2"/>
         <v>1642896000</v>
       </c>
@@ -1916,7 +1928,7 @@
       </c>
       <c r="L15" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 669914345717, "submittedDateTime": 1642870963, "completedDateTime": 1642896000, "amount": 16.1, "memo": "CANCUN MEXICAN BAR AND NORWOOD OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 140032156448, "submittedDateTime": 1642876405, "completedDateTime": 1642896000, "amount": 16.1, "memo": "CANCUN MEXICAN BAR AND NORWOOD OH" }}},</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -1932,15 +1944,15 @@
       <c r="D16">
         <v>17.14</v>
       </c>
-      <c r="G16" s="3" cm="1">
+      <c r="G16" s="2" cm="1">
         <f t="array" aca="1" ref="G16" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>749596570472</v>
-      </c>
-      <c r="H16" s="2">
+        <v>583736154011</v>
+      </c>
+      <c r="H16">
         <f t="shared" ca="1" si="1"/>
-        <v>1643182863</v>
-      </c>
-      <c r="I16" s="2">
+        <v>1643200233</v>
+      </c>
+      <c r="I16">
         <f t="shared" si="2"/>
         <v>1643241600</v>
       </c>
@@ -1954,7 +1966,7 @@
       </c>
       <c r="L16" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 749596570472, "submittedDateTime": 1643182863, "completedDateTime": 1643241600, "amount": 17.14, "memo": "FIVE GUYS OH 1056 QSR CINCINNATI OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 583736154011, "submittedDateTime": 1643200233, "completedDateTime": 1643241600, "amount": 17.14, "memo": "FIVE GUYS OH 1056 QSR CINCINNATI OH" }}},</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -1970,15 +1982,15 @@
       <c r="D17">
         <v>30.92</v>
       </c>
-      <c r="G17" s="3" cm="1">
+      <c r="G17" s="2" cm="1">
         <f t="array" aca="1" ref="G17" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>598917005925</v>
-      </c>
-      <c r="H17" s="2">
+        <v>583736154011</v>
+      </c>
+      <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>1643347665</v>
-      </c>
-      <c r="I17" s="2">
+        <v>1643353568</v>
+      </c>
+      <c r="I17">
         <f t="shared" si="2"/>
         <v>1643414400</v>
       </c>
@@ -1992,7 +2004,7 @@
       </c>
       <c r="L17" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 598917005925, "submittedDateTime": 1643347665, "completedDateTime": 1643414400, "amount": 30.92, "memo": "DOUBLE DRAGON II CINCINNATI OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 583736154011, "submittedDateTime": 1643353568, "completedDateTime": 1643414400, "amount": 30.92, "memo": "DOUBLE DRAGON II CINCINNATI OH" }}},</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -2008,15 +2020,15 @@
       <c r="D18">
         <v>2.78</v>
       </c>
-      <c r="G18" s="3" cm="1">
+      <c r="G18" s="2" cm="1">
         <f t="array" aca="1" ref="G18" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>826711618850</v>
-      </c>
-      <c r="H18" s="2">
+        <v>195664351857</v>
+      </c>
+      <c r="H18">
         <f t="shared" ca="1" si="1"/>
-        <v>1643801286</v>
-      </c>
-      <c r="I18" s="2">
+        <v>1643825817</v>
+      </c>
+      <c r="I18">
         <f t="shared" si="2"/>
         <v>1643846400</v>
       </c>
@@ -2030,7 +2042,7 @@
       </c>
       <c r="L18" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 826711618850, "submittedDateTime": 1643801286, "completedDateTime": 1643846400, "amount": 2.78, "memo": "LOWES #01585* CINCINNATI OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 195664351857, "submittedDateTime": 1643825817, "completedDateTime": 1643846400, "amount": 2.78, "memo": "LOWES #01585* CINCINNATI OH" }}},</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -2046,15 +2058,15 @@
       <c r="E19">
         <v>-1132.5</v>
       </c>
-      <c r="G19" s="3" cm="1">
+      <c r="G19" s="2" cm="1">
         <f t="array" aca="1" ref="G19" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>826711618850</v>
-      </c>
-      <c r="H19" s="2">
+        <v>334321869864</v>
+      </c>
+      <c r="H19">
         <f t="shared" ca="1" si="1"/>
-        <v>1643969578</v>
-      </c>
-      <c r="I19" s="2">
+        <v>1643956107</v>
+      </c>
+      <c r="I19">
         <f t="shared" si="2"/>
         <v>1644019200</v>
       </c>
@@ -2068,7 +2080,7 @@
       </c>
       <c r="L19" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 826711618850, "submittedDateTime": 1643969578, "completedDateTime": 1644019200, "amount": -1132.5, "memo": "ONLINE PAYMENT, THANK YOU" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 334321869864, "submittedDateTime": 1643956107, "completedDateTime": 1644019200, "amount": -1132.5, "memo": "ONLINE PAYMENT, THANK YOU" }}},</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -2084,15 +2096,15 @@
       <c r="D20">
         <v>16.100000000000001</v>
       </c>
-      <c r="G20" s="3" cm="1">
+      <c r="G20" s="2" cm="1">
         <f t="array" aca="1" ref="G20" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>304160714309</v>
-      </c>
-      <c r="H20" s="2">
+        <v>663912409988</v>
+      </c>
+      <c r="H20">
         <f t="shared" ca="1" si="1"/>
-        <v>1644004807</v>
-      </c>
-      <c r="I20" s="2">
+        <v>1643961500</v>
+      </c>
+      <c r="I20">
         <f t="shared" si="2"/>
         <v>1644019200</v>
       </c>
@@ -2106,7 +2118,7 @@
       </c>
       <c r="L20" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 304160714309, "submittedDateTime": 1644004807, "completedDateTime": 1644019200, "amount": 16.1, "memo": "CANCUN MEXICAN BAR AND NORWOOD OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 663912409988, "submittedDateTime": 1643961500, "completedDateTime": 1644019200, "amount": 16.1, "memo": "CANCUN MEXICAN BAR AND NORWOOD OH" }}},</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -2122,15 +2134,15 @@
       <c r="D21">
         <v>11.99</v>
       </c>
-      <c r="G21" s="3" cm="1">
+      <c r="G21" s="2" cm="1">
         <f t="array" aca="1" ref="G21" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>598917005925</v>
-      </c>
-      <c r="H21" s="2">
+        <v>602716875113</v>
+      </c>
+      <c r="H21">
         <f t="shared" ca="1" si="1"/>
-        <v>1644086128</v>
-      </c>
-      <c r="I21" s="2">
+        <v>1644055138</v>
+      </c>
+      <c r="I21">
         <f t="shared" si="2"/>
         <v>1644105600</v>
       </c>
@@ -2144,7 +2156,7 @@
       </c>
       <c r="L21" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 598917005925, "submittedDateTime": 1644086128, "completedDateTime": 1644105600, "amount": 11.99, "memo": "PENN STATION 10 CINCINNATI OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 602716875113, "submittedDateTime": 1644055138, "completedDateTime": 1644105600, "amount": 11.99, "memo": "PENN STATION 10 CINCINNATI OH" }}},</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -2160,15 +2172,15 @@
       <c r="D22">
         <v>39.549999999999997</v>
       </c>
-      <c r="G22" s="3" cm="1">
+      <c r="G22" s="2" cm="1">
         <f t="array" aca="1" ref="G22" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>399061551780</v>
-      </c>
-      <c r="H22" s="2">
+        <v>985663880614</v>
+      </c>
+      <c r="H22">
         <f t="shared" ca="1" si="1"/>
-        <v>1644211714</v>
-      </c>
-      <c r="I22" s="2">
+        <v>1644262904</v>
+      </c>
+      <c r="I22">
         <f t="shared" si="2"/>
         <v>1644278400</v>
       </c>
@@ -2182,7 +2194,7 @@
       </c>
       <c r="L22" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 399061551780, "submittedDateTime": 1644211714, "completedDateTime": 1644278400, "amount": 39.55, "memo": "HOMEDEPOT.COM 800-430-3376 GA" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 985663880614, "submittedDateTime": 1644262904, "completedDateTime": 1644278400, "amount": 39.55, "memo": "HOMEDEPOT.COM 800-430-3376 GA" }}},</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -2198,15 +2210,15 @@
       <c r="D23">
         <v>11.56</v>
       </c>
-      <c r="G23" s="3" cm="1">
+      <c r="G23" s="2" cm="1">
         <f t="array" aca="1" ref="G23" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>359991678203</v>
-      </c>
-      <c r="H23" s="2">
+        <v>663912409988</v>
+      </c>
+      <c r="H23">
         <f t="shared" ca="1" si="1"/>
-        <v>1644257108</v>
-      </c>
-      <c r="I23" s="2">
+        <v>1644259799</v>
+      </c>
+      <c r="I23">
         <f t="shared" si="2"/>
         <v>1644278400</v>
       </c>
@@ -2220,7 +2232,7 @@
       </c>
       <c r="L23" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 359991678203, "submittedDateTime": 1644257108, "completedDateTime": 1644278400, "amount": 11.56, "memo": "TVP INC/LA ROSA S NORW 513-984-3870 OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 663912409988, "submittedDateTime": 1644259799, "completedDateTime": 1644278400, "amount": 11.56, "memo": "TVP INC/LA ROSA S NORW 513-984-3870 OH" }}},</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -2236,15 +2248,15 @@
       <c r="D24">
         <v>30</v>
       </c>
-      <c r="G24" s="3" cm="1">
+      <c r="G24" s="2" cm="1">
         <f t="array" aca="1" ref="G24" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>402123746805</v>
-      </c>
-      <c r="H24" s="2">
+        <v>602716875113</v>
+      </c>
+      <c r="H24">
         <f t="shared" ca="1" si="1"/>
-        <v>1644293929</v>
-      </c>
-      <c r="I24" s="2">
+        <v>1644292150</v>
+      </c>
+      <c r="I24">
         <f t="shared" si="2"/>
         <v>1644364800</v>
       </c>
@@ -2258,7 +2270,7 @@
       </c>
       <c r="L24" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 402123746805, "submittedDateTime": 1644293929, "completedDateTime": 1644364800, "amount": 30, "memo": "VISIBLE 8663313527 CO" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 602716875113, "submittedDateTime": 1644292150, "completedDateTime": 1644364800, "amount": 30, "memo": "VISIBLE 8663313527 CO" }}},</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -2274,15 +2286,15 @@
       <c r="D25">
         <v>281.99</v>
       </c>
-      <c r="G25" s="3" cm="1">
+      <c r="G25" s="2" cm="1">
         <f t="array" aca="1" ref="G25" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>594392737621</v>
-      </c>
-      <c r="H25" s="2">
+        <v>342768608852</v>
+      </c>
+      <c r="H25">
         <f t="shared" ca="1" si="1"/>
-        <v>1644589256</v>
-      </c>
-      <c r="I25" s="2">
+        <v>1644622562</v>
+      </c>
+      <c r="I25">
         <f t="shared" si="2"/>
         <v>1644624000</v>
       </c>
@@ -2296,7 +2308,7 @@
       </c>
       <c r="L25" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 594392737621, "submittedDateTime": 1644589256, "completedDateTime": 1644624000, "amount": 281.99, "memo": "HOMEDEPOT.COM 800-430-3376 GA" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 342768608852, "submittedDateTime": 1644622562, "completedDateTime": 1644624000, "amount": 281.99, "memo": "HOMEDEPOT.COM 800-430-3376 GA" }}},</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -2312,15 +2324,15 @@
       <c r="D26">
         <v>156.75</v>
       </c>
-      <c r="G26" s="3" cm="1">
+      <c r="G26" s="2" cm="1">
         <f t="array" aca="1" ref="G26" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>732504662515</v>
-      </c>
-      <c r="H26" s="2">
+        <v>140032156448</v>
+      </c>
+      <c r="H26">
         <f t="shared" ca="1" si="1"/>
-        <v>1644539884</v>
-      </c>
-      <c r="I26" s="2">
+        <v>1644617494</v>
+      </c>
+      <c r="I26">
         <f t="shared" si="2"/>
         <v>1644624000</v>
       </c>
@@ -2334,7 +2346,7 @@
       </c>
       <c r="L26" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 732504662515, "submittedDateTime": 1644539884, "completedDateTime": 1644624000, "amount": 156.75, "memo": "HOMEDEPOT.COM 800-430-3376 GA" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 140032156448, "submittedDateTime": 1644617494, "completedDateTime": 1644624000, "amount": 156.75, "memo": "HOMEDEPOT.COM 800-430-3376 GA" }}},</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -2350,15 +2362,15 @@
       <c r="E27">
         <v>-39.549999999999997</v>
       </c>
-      <c r="G27" s="3" cm="1">
+      <c r="G27" s="2" cm="1">
         <f t="array" aca="1" ref="G27" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>399061551780</v>
-      </c>
-      <c r="H27" s="2">
+        <v>602716875113</v>
+      </c>
+      <c r="H27">
         <f t="shared" ca="1" si="1"/>
-        <v>1645030546</v>
-      </c>
-      <c r="I27" s="2">
+        <v>1645002892</v>
+      </c>
+      <c r="I27">
         <f t="shared" si="2"/>
         <v>1645056000</v>
       </c>
@@ -2372,7 +2384,7 @@
       </c>
       <c r="L27" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 399061551780, "submittedDateTime": 1645030546, "completedDateTime": 1645056000, "amount": -39.55, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 602716875113, "submittedDateTime": 1645002892, "completedDateTime": 1645056000, "amount": -39.55, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" }}},</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -2388,15 +2400,15 @@
       <c r="E28">
         <v>-109.49</v>
       </c>
-      <c r="G28" s="3" cm="1">
+      <c r="G28" s="2" cm="1">
         <f t="array" aca="1" ref="G28" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>826711618850</v>
-      </c>
-      <c r="H28" s="2">
+        <v>852888074021</v>
+      </c>
+      <c r="H28">
         <f t="shared" ca="1" si="1"/>
-        <v>1645007405</v>
-      </c>
-      <c r="I28" s="2">
+        <v>1645034890</v>
+      </c>
+      <c r="I28">
         <f t="shared" si="2"/>
         <v>1645056000</v>
       </c>
@@ -2410,7 +2422,7 @@
       </c>
       <c r="L28" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 826711618850, "submittedDateTime": 1645007405, "completedDateTime": 1645056000, "amount": -109.49, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 852888074021, "submittedDateTime": 1645034890, "completedDateTime": 1645056000, "amount": -109.49, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" }}},</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -2426,15 +2438,15 @@
       <c r="E29">
         <v>-57.58</v>
       </c>
-      <c r="G29" s="3" cm="1">
+      <c r="G29" s="2" cm="1">
         <f t="array" aca="1" ref="G29" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>732504662515</v>
-      </c>
-      <c r="H29" s="2">
+        <v>334321869864</v>
+      </c>
+      <c r="H29">
         <f t="shared" ca="1" si="1"/>
-        <v>1646432359</v>
-      </c>
-      <c r="I29" s="2">
+        <v>1646402850</v>
+      </c>
+      <c r="I29">
         <f t="shared" si="2"/>
         <v>1646438400</v>
       </c>
@@ -2448,7 +2460,7 @@
       </c>
       <c r="L29" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 732504662515, "submittedDateTime": 1646432359, "completedDateTime": 1646438400, "amount": -57.58, "memo": "ONLINE PAYMENT, THANK YOU" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 334321869864, "submittedDateTime": 1646402850, "completedDateTime": 1646438400, "amount": -57.58, "memo": "ONLINE PAYMENT, THANK YOU" }}},</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -2464,15 +2476,15 @@
       <c r="D30">
         <v>12.93</v>
       </c>
-      <c r="G30" s="3" cm="1">
+      <c r="G30" s="2" cm="1">
         <f t="array" aca="1" ref="G30" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>861239476106</v>
-      </c>
-      <c r="H30" s="2">
+        <v>195664351857</v>
+      </c>
+      <c r="H30">
         <f t="shared" ca="1" si="1"/>
-        <v>1646473439</v>
-      </c>
-      <c r="I30" s="2">
+        <v>1646465503</v>
+      </c>
+      <c r="I30">
         <f t="shared" si="2"/>
         <v>1646524800</v>
       </c>
@@ -2486,7 +2498,7 @@
       </c>
       <c r="L30" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 861239476106, "submittedDateTime": 1646473439, "completedDateTime": 1646524800, "amount": 12.93, "memo": "GOOGLE *YouTubePremium g.co/helppay# CA" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 195664351857, "submittedDateTime": 1646465503, "completedDateTime": 1646524800, "amount": 12.93, "memo": "GOOGLE *YouTubePremium g.co/helppay# CA" }}},</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -2502,15 +2514,15 @@
       <c r="D31">
         <v>48.33</v>
       </c>
-      <c r="G31" s="3" cm="1">
+      <c r="G31" s="2" cm="1">
         <f t="array" aca="1" ref="G31" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>669914345717</v>
-      </c>
-      <c r="H31" s="2">
+        <v>602716875113</v>
+      </c>
+      <c r="H31">
         <f t="shared" ca="1" si="1"/>
-        <v>1646608575</v>
-      </c>
-      <c r="I31" s="2">
+        <v>1646588176</v>
+      </c>
+      <c r="I31">
         <f t="shared" si="2"/>
         <v>1646611200</v>
       </c>
@@ -2524,7 +2536,7 @@
       </c>
       <c r="L31" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 669914345717, "submittedDateTime": 1646608575, "completedDateTime": 1646611200, "amount": 48.33, "memo": "TST* FIFTY WEST BREWIN CINCINNATI OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 602716875113, "submittedDateTime": 1646588176, "completedDateTime": 1646611200, "amount": 48.33, "memo": "TST* FIFTY WEST BREWIN CINCINNATI OH" }}},</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -2540,15 +2552,15 @@
       <c r="D32">
         <v>30.93</v>
       </c>
-      <c r="G32" s="3" cm="1">
+      <c r="G32" s="2" cm="1">
         <f t="array" aca="1" ref="G32" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>669914345717</v>
-      </c>
-      <c r="H32" s="2">
+        <v>602716875113</v>
+      </c>
+      <c r="H32">
         <f t="shared" ca="1" si="1"/>
-        <v>1646558181</v>
-      </c>
-      <c r="I32" s="2">
+        <v>1646548356</v>
+      </c>
+      <c r="I32">
         <f t="shared" si="2"/>
         <v>1646611200</v>
       </c>
@@ -2562,7 +2574,7 @@
       </c>
       <c r="L32" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 669914345717, "submittedDateTime": 1646558181, "completedDateTime": 1646611200, "amount": 30.93, "memo": "DOUBLE DRAGON II CINCINNATI OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 602716875113, "submittedDateTime": 1646548356, "completedDateTime": 1646611200, "amount": 30.93, "memo": "DOUBLE DRAGON II CINCINNATI OH" }}},</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -2578,15 +2590,15 @@
       <c r="D33">
         <v>30</v>
       </c>
-      <c r="G33" s="3" cm="1">
+      <c r="G33" s="2" cm="1">
         <f t="array" aca="1" ref="G33" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>304160714309</v>
-      </c>
-      <c r="H33" s="2">
+        <v>334321869864</v>
+      </c>
+      <c r="H33">
         <f t="shared" ca="1" si="1"/>
-        <v>1646712478</v>
-      </c>
-      <c r="I33" s="2">
+        <v>1646722649</v>
+      </c>
+      <c r="I33">
         <f t="shared" si="2"/>
         <v>1646784000</v>
       </c>
@@ -2600,7 +2612,7 @@
       </c>
       <c r="L33" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 304160714309, "submittedDateTime": 1646712478, "completedDateTime": 1646784000, "amount": 30, "memo": "VISIBLE 8663313527 CO" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 334321869864, "submittedDateTime": 1646722649, "completedDateTime": 1646784000, "amount": 30, "memo": "VISIBLE 8663313527 CO" }}},</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -2616,15 +2628,15 @@
       <c r="D34">
         <v>269.87</v>
       </c>
-      <c r="G34" s="3" cm="1">
+      <c r="G34" s="2" cm="1">
         <f t="array" aca="1" ref="G34" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>594392737621</v>
-      </c>
-      <c r="H34" s="2">
+        <v>852888074021</v>
+      </c>
+      <c r="H34">
         <f t="shared" ca="1" si="1"/>
-        <v>1646966304</v>
-      </c>
-      <c r="I34" s="2">
+        <v>1646973543</v>
+      </c>
+      <c r="I34">
         <f t="shared" si="2"/>
         <v>1647043200</v>
       </c>
@@ -2638,7 +2650,7 @@
       </c>
       <c r="L34" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 594392737621, "submittedDateTime": 1646966304, "completedDateTime": 1647043200, "amount": 269.87, "memo": "SPI*DUKE-ENERGY 800-777-9898 NC" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 852888074021, "submittedDateTime": 1646973543, "completedDateTime": 1647043200, "amount": 269.87, "memo": "SPI*DUKE-ENERGY 800-777-9898 NC" }}},</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -2654,15 +2666,15 @@
       <c r="D35">
         <v>34.659999999999997</v>
       </c>
-      <c r="G35" s="3" cm="1">
+      <c r="G35" s="2" cm="1">
         <f t="array" aca="1" ref="G35" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>598917005925</v>
-      </c>
-      <c r="H35" s="2">
+        <v>602716875113</v>
+      </c>
+      <c r="H35">
         <f t="shared" ca="1" si="1"/>
-        <v>1646980899</v>
-      </c>
-      <c r="I35" s="2">
+        <v>1647035736</v>
+      </c>
+      <c r="I35">
         <f t="shared" si="2"/>
         <v>1647043200</v>
       </c>
@@ -2676,7 +2688,7 @@
       </c>
       <c r="L35" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 598917005925, "submittedDateTime": 1646980899, "completedDateTime": 1647043200, "amount": 34.66, "memo": "DAVE &amp; BUSTERS #96 FLORENCE KY" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 602716875113, "submittedDateTime": 1647035736, "completedDateTime": 1647043200, "amount": 34.66, "memo": "DAVE &amp; BUSTERS #96 FLORENCE KY" }}},</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -2692,15 +2704,15 @@
       <c r="D36">
         <v>9.64</v>
       </c>
-      <c r="G36" s="3" cm="1">
+      <c r="G36" s="2" cm="1">
         <f t="array" aca="1" ref="G36" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>598917005925</v>
-      </c>
-      <c r="H36" s="2">
+        <v>985663880614</v>
+      </c>
+      <c r="H36">
         <f t="shared" ca="1" si="1"/>
-        <v>1647163868</v>
-      </c>
-      <c r="I36" s="2">
+        <v>1647154444</v>
+      </c>
+      <c r="I36">
         <f t="shared" si="2"/>
         <v>1647216000</v>
       </c>
@@ -2714,7 +2726,7 @@
       </c>
       <c r="L36" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 598917005925, "submittedDateTime": 1647163868, "completedDateTime": 1647216000, "amount": 9.64, "memo": "WM SUPERCENTER #2250 CINCINNATI OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 985663880614, "submittedDateTime": 1647154444, "completedDateTime": 1647216000, "amount": 9.64, "memo": "WM SUPERCENTER #2250 CINCINNATI OH" }}},</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -2730,15 +2742,15 @@
       <c r="D37">
         <v>16.600000000000001</v>
       </c>
-      <c r="G37" s="3" cm="1">
+      <c r="G37" s="2" cm="1">
         <f t="array" aca="1" ref="G37" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>749596570472</v>
-      </c>
-      <c r="H37" s="2">
+        <v>129025537739</v>
+      </c>
+      <c r="H37">
         <f t="shared" ca="1" si="1"/>
-        <v>1647410715</v>
-      </c>
-      <c r="I37" s="2">
+        <v>1647436337</v>
+      </c>
+      <c r="I37">
         <f t="shared" si="2"/>
         <v>1647475200</v>
       </c>
@@ -2752,7 +2764,7 @@
       </c>
       <c r="L37" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 749596570472, "submittedDateTime": 1647410715, "completedDateTime": 1647475200, "amount": 16.6, "memo": "CANCUN MEXICAN BAR AND NORWOOD OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 129025537739, "submittedDateTime": 1647436337, "completedDateTime": 1647475200, "amount": 16.6, "memo": "CANCUN MEXICAN BAR AND NORWOOD OH" }}},</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -2768,15 +2780,15 @@
       <c r="D38">
         <v>97.13</v>
       </c>
-      <c r="G38" s="3" cm="1">
+      <c r="G38" s="2" cm="1">
         <f t="array" aca="1" ref="G38" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>594392737621</v>
-      </c>
-      <c r="H38" s="2">
+        <v>422657850099</v>
+      </c>
+      <c r="H38">
         <f t="shared" ca="1" si="1"/>
-        <v>1647557313</v>
-      </c>
-      <c r="I38" s="2">
+        <v>1647493421</v>
+      </c>
+      <c r="I38">
         <f t="shared" si="2"/>
         <v>1647561600</v>
       </c>
@@ -2790,7 +2802,7 @@
       </c>
       <c r="L38" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 594392737621, "submittedDateTime": 1647557313, "completedDateTime": 1647561600, "amount": 97.13, "memo": "THIRD EYE BREWING CINCINNATI OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 422657850099, "submittedDateTime": 1647493421, "completedDateTime": 1647561600, "amount": 97.13, "memo": "THIRD EYE BREWING CINCINNATI OH" }}},</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
@@ -2806,15 +2818,15 @@
       <c r="D39">
         <v>14</v>
       </c>
-      <c r="G39" s="3" cm="1">
+      <c r="G39" s="2" cm="1">
         <f t="array" aca="1" ref="G39" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>826711618850</v>
-      </c>
-      <c r="H39" s="2">
+        <v>513319807340</v>
+      </c>
+      <c r="H39">
         <f t="shared" ca="1" si="1"/>
-        <v>1647740656</v>
-      </c>
-      <c r="I39" s="2">
+        <v>1647755435</v>
+      </c>
+      <c r="I39">
         <f t="shared" si="2"/>
         <v>1647820800</v>
       </c>
@@ -2828,7 +2840,7 @@
       </c>
       <c r="L39" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 826711618850, "submittedDateTime": 1647740656, "completedDateTime": 1647820800, "amount": 14, "memo": "THE ECHO RESTAURANT CINCINNATI OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 513319807340, "submittedDateTime": 1647755435, "completedDateTime": 1647820800, "amount": 14, "memo": "THE ECHO RESTAURANT CINCINNATI OH" }}},</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
@@ -2844,15 +2856,15 @@
       <c r="D40">
         <v>13.93</v>
       </c>
-      <c r="G40" s="3" cm="1">
+      <c r="G40" s="2" cm="1">
         <f t="array" aca="1" ref="G40" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>669914345717</v>
-      </c>
-      <c r="H40" s="2">
+        <v>602716875113</v>
+      </c>
+      <c r="H40">
         <f t="shared" ca="1" si="1"/>
-        <v>1648104714</v>
-      </c>
-      <c r="I40" s="2">
+        <v>1648152743</v>
+      </c>
+      <c r="I40">
         <f t="shared" si="2"/>
         <v>1648166400</v>
       </c>
@@ -2866,7 +2878,7 @@
       </c>
       <c r="L40" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 669914345717, "submittedDateTime": 1648104714, "completedDateTime": 1648166400, "amount": 13.93, "memo": "SPEEDWAY 05402 9369 ME MENTOR OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 602716875113, "submittedDateTime": 1648152743, "completedDateTime": 1648166400, "amount": 13.93, "memo": "SPEEDWAY 05402 9369 ME MENTOR OH" }}},</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
@@ -2882,15 +2894,15 @@
       <c r="D41">
         <v>11.5</v>
       </c>
-      <c r="G41" s="3" cm="1">
+      <c r="G41" s="2" cm="1">
         <f t="array" aca="1" ref="G41" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>402123746805</v>
-      </c>
-      <c r="H41" s="2">
+        <v>602716875113</v>
+      </c>
+      <c r="H41">
         <f t="shared" ca="1" si="1"/>
-        <v>1648333530</v>
-      </c>
-      <c r="I41" s="2">
+        <v>1648330722</v>
+      </c>
+      <c r="I41">
         <f t="shared" si="2"/>
         <v>1648339200</v>
       </c>
@@ -2904,7 +2916,7 @@
       </c>
       <c r="L41" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 402123746805, "submittedDateTime": 1648333530, "completedDateTime": 1648339200, "amount": 11.5, "memo": "TST* Noras Public Hous Willoughby Hi OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 602716875113, "submittedDateTime": 1648330722, "completedDateTime": 1648339200, "amount": 11.5, "memo": "TST* Noras Public Hous Willoughby Hi OH" }}},</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
@@ -2920,15 +2932,15 @@
       <c r="D42">
         <v>18</v>
       </c>
-      <c r="G42" s="3" cm="1">
+      <c r="G42" s="2" cm="1">
         <f t="array" aca="1" ref="G42" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>498511217783</v>
-      </c>
-      <c r="H42" s="2">
+        <v>583736154011</v>
+      </c>
+      <c r="H42">
         <f t="shared" ca="1" si="1"/>
-        <v>1648410707</v>
-      </c>
-      <c r="I42" s="2">
+        <v>1648419155</v>
+      </c>
+      <c r="I42">
         <f t="shared" si="2"/>
         <v>1648425600</v>
       </c>
@@ -2942,7 +2954,7 @@
       </c>
       <c r="L42" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 498511217783, "submittedDateTime": 1648410707, "completedDateTime": 1648425600, "amount": 18, "memo": "TST* THE 1899 PUB WILLOUGHBY OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 583736154011, "submittedDateTime": 1648419155, "completedDateTime": 1648425600, "amount": 18, "memo": "TST* THE 1899 PUB WILLOUGHBY OH" }}},</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
@@ -2958,15 +2970,15 @@
       <c r="D43">
         <v>22.48</v>
       </c>
-      <c r="G43" s="3" cm="1">
+      <c r="G43" s="2" cm="1">
         <f t="array" aca="1" ref="G43" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>594392737621</v>
-      </c>
-      <c r="H43" s="2">
+        <v>583736154011</v>
+      </c>
+      <c r="H43">
         <f t="shared" ca="1" si="1"/>
-        <v>1648386114</v>
-      </c>
-      <c r="I43" s="2">
+        <v>1648370113</v>
+      </c>
+      <c r="I43">
         <f t="shared" si="2"/>
         <v>1648425600</v>
       </c>
@@ -2980,7 +2992,7 @@
       </c>
       <c r="L43" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 594392737621, "submittedDateTime": 1648386114, "completedDateTime": 1648425600, "amount": 22.48, "memo": "DOUBLE DRAGON II CINCINNATI OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 583736154011, "submittedDateTime": 1648370113, "completedDateTime": 1648425600, "amount": 22.48, "memo": "DOUBLE DRAGON II CINCINNATI OH" }}},</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
@@ -2996,15 +3008,15 @@
       <c r="D44">
         <v>45.78</v>
       </c>
-      <c r="G44" s="3" cm="1">
+      <c r="G44" s="2" cm="1">
         <f t="array" aca="1" ref="G44" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>498511217783</v>
-      </c>
-      <c r="H44" s="2">
+        <v>852888074021</v>
+      </c>
+      <c r="H44">
         <f t="shared" ca="1" si="1"/>
-        <v>1648357201</v>
-      </c>
-      <c r="I44" s="2">
+        <v>1648415220</v>
+      </c>
+      <c r="I44">
         <f t="shared" si="2"/>
         <v>1648425600</v>
       </c>
@@ -3018,7 +3030,7 @@
       </c>
       <c r="L44" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 498511217783, "submittedDateTime": 1648357201, "completedDateTime": 1648425600, "amount": 45.78, "memo": "KROGER #418 NORWOOD OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 852888074021, "submittedDateTime": 1648415220, "completedDateTime": 1648425600, "amount": 45.78, "memo": "KROGER #418 NORWOOD OH" }}},</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
@@ -3034,15 +3046,15 @@
       <c r="D45">
         <v>6.38</v>
       </c>
-      <c r="G45" s="3" cm="1">
+      <c r="G45" s="2" cm="1">
         <f t="array" aca="1" ref="G45" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>399061551780</v>
-      </c>
-      <c r="H45" s="2">
+        <v>334321869864</v>
+      </c>
+      <c r="H45">
         <f t="shared" ca="1" si="1"/>
-        <v>1648396777</v>
-      </c>
-      <c r="I45" s="2">
+        <v>1648411063</v>
+      </c>
+      <c r="I45">
         <f t="shared" si="2"/>
         <v>1648425600</v>
       </c>
@@ -3056,7 +3068,7 @@
       </c>
       <c r="L45" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 399061551780, "submittedDateTime": 1648396777, "completedDateTime": 1648425600, "amount": 6.38, "memo": "WENDY'S 219 MENTOR OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 334321869864, "submittedDateTime": 1648411063, "completedDateTime": 1648425600, "amount": 6.38, "memo": "WENDY'S 219 MENTOR OH" }}},</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
@@ -3072,15 +3084,15 @@
       <c r="D46">
         <v>20.25</v>
       </c>
-      <c r="G46" s="3" cm="1">
+      <c r="G46" s="2" cm="1">
         <f t="array" aca="1" ref="G46" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>669914345717</v>
-      </c>
-      <c r="H46" s="2">
+        <v>129025537739</v>
+      </c>
+      <c r="H46">
         <f t="shared" ca="1" si="1"/>
-        <v>1648351499</v>
-      </c>
-      <c r="I46" s="2">
+        <v>1648387595</v>
+      </c>
+      <c r="I46">
         <f t="shared" si="2"/>
         <v>1648425600</v>
       </c>
@@ -3094,7 +3106,7 @@
       </c>
       <c r="L46" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 669914345717, "submittedDateTime": 1648351499, "completedDateTime": 1648425600, "amount": 20.25, "memo": "FIREBIRDS COLUMBUS COLUMBUS OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 129025537739, "submittedDateTime": 1648387595, "completedDateTime": 1648425600, "amount": 20.25, "memo": "FIREBIRDS COLUMBUS COLUMBUS OH" }}},</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
@@ -3110,15 +3122,15 @@
       <c r="D47">
         <v>13.48</v>
       </c>
-      <c r="G47" s="3" cm="1">
+      <c r="G47" s="2" cm="1">
         <f t="array" aca="1" ref="G47" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>732504662515</v>
-      </c>
-      <c r="H47" s="2">
+        <v>195664351857</v>
+      </c>
+      <c r="H47">
         <f t="shared" ca="1" si="1"/>
-        <v>1648535200</v>
-      </c>
-      <c r="I47" s="2">
+        <v>1648513641</v>
+      </c>
+      <c r="I47">
         <f t="shared" si="2"/>
         <v>1648598400</v>
       </c>
@@ -3132,7 +3144,7 @@
       </c>
       <c r="L47" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 732504662515, "submittedDateTime": 1648535200, "completedDateTime": 1648598400, "amount": 13.48, "memo": "PENN STATION 10 - ECOM CINCINNATI OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 195664351857, "submittedDateTime": 1648513641, "completedDateTime": 1648598400, "amount": 13.48, "memo": "PENN STATION 10 - ECOM CINCINNATI OH" }}},</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
@@ -3148,15 +3160,15 @@
       <c r="D48">
         <v>16.100000000000001</v>
       </c>
-      <c r="G48" s="3" cm="1">
+      <c r="G48" s="2" cm="1">
         <f t="array" aca="1" ref="G48" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>732504662515</v>
-      </c>
-      <c r="H48" s="2">
+        <v>513319807340</v>
+      </c>
+      <c r="H48">
         <f t="shared" ca="1" si="1"/>
-        <v>1648580522</v>
-      </c>
-      <c r="I48" s="2">
+        <v>1648540320</v>
+      </c>
+      <c r="I48">
         <f t="shared" si="2"/>
         <v>1648598400</v>
       </c>
@@ -3170,7 +3182,7 @@
       </c>
       <c r="L48" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 732504662515, "submittedDateTime": 1648580522, "completedDateTime": 1648598400, "amount": 16.1, "memo": "CANCUN MEXICAN BAR AND NORWOOD OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 513319807340, "submittedDateTime": 1648540320, "completedDateTime": 1648598400, "amount": 16.1, "memo": "CANCUN MEXICAN BAR AND NORWOOD OH" }}},</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
@@ -3186,15 +3198,15 @@
       <c r="E49">
         <v>-5</v>
       </c>
-      <c r="G49" s="3" cm="1">
+      <c r="G49" s="2" cm="1">
         <f t="array" aca="1" ref="G49" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>861239476106</v>
-      </c>
-      <c r="H49" s="2">
+        <v>852888074021</v>
+      </c>
+      <c r="H49">
         <f t="shared" ca="1" si="1"/>
-        <v>1648634308</v>
-      </c>
-      <c r="I49" s="2">
+        <v>1648599018</v>
+      </c>
+      <c r="I49">
         <f t="shared" si="2"/>
         <v>1648684800</v>
       </c>
@@ -3208,7 +3220,7 @@
       </c>
       <c r="L49" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 861239476106, "submittedDateTime": 1648634308, "completedDateTime": 1648684800, "amount": -5, "memo": "DD DOORDASH POTBELLYS 8559731040 CA" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 852888074021, "submittedDateTime": 1648599018, "completedDateTime": 1648684800, "amount": -5, "memo": "DD DOORDASH POTBELLYS 8559731040 CA" }}},</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
@@ -3224,15 +3236,15 @@
       <c r="D50">
         <v>1.51</v>
       </c>
-      <c r="G50" s="3" cm="1">
+      <c r="G50" s="2" cm="1">
         <f t="array" aca="1" ref="G50" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>498511217783</v>
-      </c>
-      <c r="H50" s="2">
+        <v>602716875113</v>
+      </c>
+      <c r="H50">
         <f t="shared" ca="1" si="1"/>
-        <v>1648676198</v>
-      </c>
-      <c r="I50" s="2">
+        <v>1648605693</v>
+      </c>
+      <c r="I50">
         <f t="shared" si="2"/>
         <v>1648684800</v>
       </c>
@@ -3246,7 +3258,7 @@
       </c>
       <c r="L50" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 498511217783, "submittedDateTime": 1648676198, "completedDateTime": 1648684800, "amount": 1.51, "memo": "365 MARKET 888 432-32 TROY MI" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 602716875113, "submittedDateTime": 1648605693, "completedDateTime": 1648684800, "amount": 1.51, "memo": "365 MARKET 888 432-32 TROY MI" }}},</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
@@ -3262,15 +3274,15 @@
       <c r="D51">
         <v>11.91</v>
       </c>
-      <c r="G51" s="3" cm="1">
+      <c r="G51" s="2" cm="1">
         <f t="array" aca="1" ref="G51" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>498511217783</v>
-      </c>
-      <c r="H51" s="2">
+        <v>583736154011</v>
+      </c>
+      <c r="H51">
         <f t="shared" ca="1" si="1"/>
-        <v>1648617257</v>
-      </c>
-      <c r="I51" s="2">
+        <v>1648680856</v>
+      </c>
+      <c r="I51">
         <f t="shared" si="2"/>
         <v>1648684800</v>
       </c>
@@ -3284,7 +3296,7 @@
       </c>
       <c r="L51" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 498511217783, "submittedDateTime": 1648617257, "completedDateTime": 1648684800, "amount": 11.91, "memo": "SKYLINE CHILI 1033 CINCINNATI OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 583736154011, "submittedDateTime": 1648680856, "completedDateTime": 1648684800, "amount": 11.91, "memo": "SKYLINE CHILI 1033 CINCINNATI OH" }}},</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
@@ -3300,15 +3312,15 @@
       <c r="D52">
         <v>15.49</v>
       </c>
-      <c r="G52" s="3" cm="1">
+      <c r="G52" s="2" cm="1">
         <f t="array" aca="1" ref="G52" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>598917005925</v>
-      </c>
-      <c r="H52" s="2">
+        <v>663912409988</v>
+      </c>
+      <c r="H52">
         <f t="shared" ca="1" si="1"/>
-        <v>1648830820</v>
-      </c>
-      <c r="I52" s="2">
+        <v>1648807954</v>
+      </c>
+      <c r="I52">
         <f t="shared" si="2"/>
         <v>1648857600</v>
       </c>
@@ -3322,7 +3334,7 @@
       </c>
       <c r="L52" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 598917005925, "submittedDateTime": 1648830820, "completedDateTime": 1648857600, "amount": 15.49, "memo": "JIMMY JOHNS - 2554 CINCINNATI OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 663912409988, "submittedDateTime": 1648807954, "completedDateTime": 1648857600, "amount": 15.49, "memo": "JIMMY JOHNS - 2554 CINCINNATI OH" }}},</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
@@ -3338,15 +3350,15 @@
       <c r="E53">
         <v>-595.48</v>
       </c>
-      <c r="G53" s="3" cm="1">
+      <c r="G53" s="2" cm="1">
         <f t="array" aca="1" ref="G53" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>402123746805</v>
-      </c>
-      <c r="H53" s="2">
+        <v>583736154011</v>
+      </c>
+      <c r="H53">
         <f t="shared" ca="1" si="1"/>
-        <v>1648906649</v>
-      </c>
-      <c r="I53" s="2">
+        <v>1648895742</v>
+      </c>
+      <c r="I53">
         <f t="shared" si="2"/>
         <v>1648944000</v>
       </c>
@@ -3360,7 +3372,7 @@
       </c>
       <c r="L53" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 402123746805, "submittedDateTime": 1648906649, "completedDateTime": 1648944000, "amount": -595.48, "memo": "ONLINE PAYMENT, THANK YOU" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 583736154011, "submittedDateTime": 1648895742, "completedDateTime": 1648944000, "amount": -595.48, "memo": "ONLINE PAYMENT, THANK YOU" }}},</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
@@ -3376,15 +3388,15 @@
       <c r="D54">
         <v>11.31</v>
       </c>
-      <c r="G54" s="3" cm="1">
+      <c r="G54" s="2" cm="1">
         <f t="array" aca="1" ref="G54" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>594392737621</v>
-      </c>
-      <c r="H54" s="2">
+        <v>195664351857</v>
+      </c>
+      <c r="H54">
         <f t="shared" ca="1" si="1"/>
-        <v>1648918201</v>
-      </c>
-      <c r="I54" s="2">
+        <v>1648867036</v>
+      </c>
+      <c r="I54">
         <f t="shared" si="2"/>
         <v>1648944000</v>
       </c>
@@ -3398,7 +3410,7 @@
       </c>
       <c r="L54" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 594392737621, "submittedDateTime": 1648918201, "completedDateTime": 1648944000, "amount": 11.31, "memo": "TACO BELL 15353 COVINGTON KY" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 195664351857, "submittedDateTime": 1648867036, "completedDateTime": 1648944000, "amount": 11.31, "memo": "TACO BELL 15353 COVINGTON KY" }}},</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
@@ -3414,15 +3426,15 @@
       <c r="D55">
         <v>48.48</v>
       </c>
-      <c r="G55" s="3" cm="1">
+      <c r="G55" s="2" cm="1">
         <f t="array" aca="1" ref="G55" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>402123746805</v>
-      </c>
-      <c r="H55" s="2">
+        <v>583736154011</v>
+      </c>
+      <c r="H55">
         <f t="shared" ca="1" si="1"/>
-        <v>1649004600</v>
-      </c>
-      <c r="I55" s="2">
+        <v>1649021542</v>
+      </c>
+      <c r="I55">
         <f t="shared" si="2"/>
         <v>1649030400</v>
       </c>
@@ -3436,7 +3448,7 @@
       </c>
       <c r="L55" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 402123746805, "submittedDateTime": 1649004600, "completedDateTime": 1649030400, "amount": 48.48, "memo": "KROGER #465 CINCINNATI OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 583736154011, "submittedDateTime": 1649021542, "completedDateTime": 1649030400, "amount": 48.48, "memo": "KROGER #465 CINCINNATI OH" }}},</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
@@ -3452,15 +3464,15 @@
       <c r="D56">
         <v>140.25</v>
       </c>
-      <c r="G56" s="3" cm="1">
+      <c r="G56" s="2" cm="1">
         <f t="array" aca="1" ref="G56" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>732504662515</v>
-      </c>
-      <c r="H56" s="2">
+        <v>195664351857</v>
+      </c>
+      <c r="H56">
         <f t="shared" ca="1" si="1"/>
-        <v>1649073743</v>
-      </c>
-      <c r="I56" s="2">
+        <v>1649087896</v>
+      </c>
+      <c r="I56">
         <f t="shared" si="2"/>
         <v>1649116800</v>
       </c>
@@ -3474,7 +3486,7 @@
       </c>
       <c r="L56" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 732504662515, "submittedDateTime": 1649073743, "completedDateTime": 1649116800, "amount": 140.25, "memo": "SERVICE FEE 888-658-5465 TN" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 195664351857, "submittedDateTime": 1649087896, "completedDateTime": 1649116800, "amount": 140.25, "memo": "SERVICE FEE 888-658-5465 TN" }}},</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
@@ -3490,15 +3502,15 @@
       <c r="D57">
         <v>7500</v>
       </c>
-      <c r="G57" s="3" cm="1">
+      <c r="G57" s="2" cm="1">
         <f t="array" aca="1" ref="G57" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>732504662515</v>
-      </c>
-      <c r="H57" s="2">
+        <v>422657850099</v>
+      </c>
+      <c r="H57">
         <f t="shared" ca="1" si="1"/>
-        <v>1649110810</v>
-      </c>
-      <c r="I57" s="2">
+        <v>1649058761</v>
+      </c>
+      <c r="I57">
         <f t="shared" si="2"/>
         <v>1649116800</v>
       </c>
@@ -3512,7 +3524,7 @@
       </c>
       <c r="L57" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 732504662515, "submittedDateTime": 1649110810, "completedDateTime": 1649116800, "amount": 7500, "memo": "US TREAS TAX PYMT 888-658-5465 TN" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 422657850099, "submittedDateTime": 1649058761, "completedDateTime": 1649116800, "amount": 7500, "memo": "US TREAS TAX PYMT 888-658-5465 TN" }}},</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
@@ -3528,15 +3540,15 @@
       <c r="D58">
         <v>16.100000000000001</v>
       </c>
-      <c r="G58" s="3" cm="1">
+      <c r="G58" s="2" cm="1">
         <f t="array" aca="1" ref="G58" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>732504662515</v>
-      </c>
-      <c r="H58" s="2">
+        <v>334321869864</v>
+      </c>
+      <c r="H58">
         <f t="shared" ca="1" si="1"/>
-        <v>1649095849</v>
-      </c>
-      <c r="I58" s="2">
+        <v>1649039723</v>
+      </c>
+      <c r="I58">
         <f t="shared" si="2"/>
         <v>1649116800</v>
       </c>
@@ -3550,7 +3562,7 @@
       </c>
       <c r="L58" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 732504662515, "submittedDateTime": 1649095849, "completedDateTime": 1649116800, "amount": 16.1, "memo": "CANCUN MEXICAN BAR AND NORWOOD OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 334321869864, "submittedDateTime": 1649039723, "completedDateTime": 1649116800, "amount": 16.1, "memo": "CANCUN MEXICAN BAR AND NORWOOD OH" }}},</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
@@ -3566,15 +3578,15 @@
       <c r="D59">
         <v>11.48</v>
       </c>
-      <c r="G59" s="3" cm="1">
+      <c r="G59" s="2" cm="1">
         <f t="array" aca="1" ref="G59" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>359991678203</v>
-      </c>
-      <c r="H59" s="2">
+        <v>129025537739</v>
+      </c>
+      <c r="H59">
         <f t="shared" ca="1" si="1"/>
-        <v>1649196425</v>
-      </c>
-      <c r="I59" s="2">
+        <v>1649166777</v>
+      </c>
+      <c r="I59">
         <f t="shared" si="2"/>
         <v>1649203200</v>
       </c>
@@ -3588,7 +3600,7 @@
       </c>
       <c r="L59" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 359991678203, "submittedDateTime": 1649196425, "completedDateTime": 1649203200, "amount": 11.48, "memo": "KFC G135916 NORWOOD OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 129025537739, "submittedDateTime": 1649166777, "completedDateTime": 1649203200, "amount": 11.48, "memo": "KFC G135916 NORWOOD OH" }}},</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
@@ -3604,15 +3616,15 @@
       <c r="D60">
         <v>12.93</v>
       </c>
-      <c r="G60" s="3" cm="1">
+      <c r="G60" s="2" cm="1">
         <f t="array" aca="1" ref="G60" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>749596570472</v>
-      </c>
-      <c r="H60" s="2">
+        <v>852888074021</v>
+      </c>
+      <c r="H60">
         <f t="shared" ca="1" si="1"/>
-        <v>1649184443</v>
-      </c>
-      <c r="I60" s="2">
+        <v>1649153021</v>
+      </c>
+      <c r="I60">
         <f t="shared" si="2"/>
         <v>1649203200</v>
       </c>
@@ -3626,7 +3638,7 @@
       </c>
       <c r="L60" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 749596570472, "submittedDateTime": 1649184443, "completedDateTime": 1649203200, "amount": 12.93, "memo": "GOOGLE *YouTubePremium g.co/helppay# CA" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 852888074021, "submittedDateTime": 1649153021, "completedDateTime": 1649203200, "amount": 12.93, "memo": "GOOGLE *YouTubePremium g.co/helppay# CA" }}},</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
@@ -3642,15 +3654,15 @@
       <c r="E61">
         <v>-7750</v>
       </c>
-      <c r="G61" s="3" cm="1">
+      <c r="G61" s="2" cm="1">
         <f t="array" aca="1" ref="G61" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>826711618850</v>
-      </c>
-      <c r="H61" s="2">
+        <v>334321869864</v>
+      </c>
+      <c r="H61">
         <f t="shared" ca="1" si="1"/>
-        <v>1649270164</v>
-      </c>
-      <c r="I61" s="2">
+        <v>1649207703</v>
+      </c>
+      <c r="I61">
         <f t="shared" si="2"/>
         <v>1649289600</v>
       </c>
@@ -3664,7 +3676,7 @@
       </c>
       <c r="L61" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 826711618850, "submittedDateTime": 1649270164, "completedDateTime": 1649289600, "amount": -7750, "memo": "PAYMENT THANK YOU" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 334321869864, "submittedDateTime": 1649207703, "completedDateTime": 1649289600, "amount": -7750, "memo": "PAYMENT THANK YOU" }}},</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
@@ -3680,15 +3692,15 @@
       <c r="D62">
         <v>6.87</v>
       </c>
-      <c r="G62" s="3" cm="1">
+      <c r="G62" s="2" cm="1">
         <f t="array" aca="1" ref="G62" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>402123746805</v>
-      </c>
-      <c r="H62" s="2">
+        <v>663912409988</v>
+      </c>
+      <c r="H62">
         <f t="shared" ca="1" si="1"/>
-        <v>1649435371</v>
-      </c>
-      <c r="I62" s="2">
+        <v>1649388310</v>
+      </c>
+      <c r="I62">
         <f t="shared" si="2"/>
         <v>1649462400</v>
       </c>
@@ -3702,7 +3714,7 @@
       </c>
       <c r="L62" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 402123746805, "submittedDateTime": 1649435371, "completedDateTime": 1649462400, "amount": 6.87, "memo": "TACO BELL 15353 COVINGTON KY" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 663912409988, "submittedDateTime": 1649388310, "completedDateTime": 1649462400, "amount": 6.87, "memo": "TACO BELL 15353 COVINGTON KY" }}},</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
@@ -3718,15 +3730,15 @@
       <c r="D63">
         <v>390.84</v>
       </c>
-      <c r="G63" s="3" cm="1">
+      <c r="G63" s="2" cm="1">
         <f t="array" aca="1" ref="G63" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>399061551780</v>
-      </c>
-      <c r="H63" s="2">
+        <v>663912409988</v>
+      </c>
+      <c r="H63">
         <f t="shared" ca="1" si="1"/>
-        <v>1649388592</v>
-      </c>
-      <c r="I63" s="2">
+        <v>1649451102</v>
+      </c>
+      <c r="I63">
         <f t="shared" si="2"/>
         <v>1649462400</v>
       </c>
@@ -3740,7 +3752,7 @@
       </c>
       <c r="L63" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 399061551780, "submittedDateTime": 1649388592, "completedDateTime": 1649462400, "amount": 390.84, "memo": "ACMETOOLS.COM 8773452263 ND" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 663912409988, "submittedDateTime": 1649451102, "completedDateTime": 1649462400, "amount": 390.84, "memo": "ACMETOOLS.COM 8773452263 ND" }}},</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
@@ -3756,15 +3768,15 @@
       <c r="D64">
         <v>30</v>
       </c>
-      <c r="G64" s="3" cm="1">
+      <c r="G64" s="2" cm="1">
         <f t="array" aca="1" ref="G64" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>594392737621</v>
-      </c>
-      <c r="H64" s="2">
+        <v>985663880614</v>
+      </c>
+      <c r="H64">
         <f t="shared" ca="1" si="1"/>
-        <v>1649455945</v>
-      </c>
-      <c r="I64" s="2">
+        <v>1649414630</v>
+      </c>
+      <c r="I64">
         <f t="shared" si="2"/>
         <v>1649462400</v>
       </c>
@@ -3778,7 +3790,7 @@
       </c>
       <c r="L64" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 594392737621, "submittedDateTime": 1649455945, "completedDateTime": 1649462400, "amount": 30, "memo": "VISIBLE 8663313527 CO" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 985663880614, "submittedDateTime": 1649414630, "completedDateTime": 1649462400, "amount": 30, "memo": "VISIBLE 8663313527 CO" }}},</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
@@ -3794,15 +3806,15 @@
       <c r="D65">
         <v>18.149999999999999</v>
       </c>
-      <c r="G65" s="3" cm="1">
+      <c r="G65" s="2" cm="1">
         <f t="array" aca="1" ref="G65" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>359991678203</v>
-      </c>
-      <c r="H65" s="2">
+        <v>583736154011</v>
+      </c>
+      <c r="H65">
         <f t="shared" ca="1" si="1"/>
-        <v>1649615544</v>
-      </c>
-      <c r="I65" s="2">
+        <v>1649589561</v>
+      </c>
+      <c r="I65">
         <f t="shared" si="2"/>
         <v>1649635200</v>
       </c>
@@ -3816,7 +3828,7 @@
       </c>
       <c r="L65" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 359991678203, "submittedDateTime": 1649615544, "completedDateTime": 1649635200, "amount": 18.15, "memo": "CANCUN MEXICAN BAR AND NORWOOD OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 583736154011, "submittedDateTime": 1649589561, "completedDateTime": 1649635200, "amount": 18.15, "memo": "CANCUN MEXICAN BAR AND NORWOOD OH" }}},</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
@@ -3832,15 +3844,15 @@
       <c r="D66">
         <v>11.53</v>
       </c>
-      <c r="G66" s="3" cm="1">
+      <c r="G66" s="2" cm="1">
         <f t="array" aca="1" ref="G66" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>304160714309</v>
-      </c>
-      <c r="H66" s="2">
+        <v>129025537739</v>
+      </c>
+      <c r="H66">
         <f t="shared" ca="1" si="1"/>
-        <v>1649695442</v>
-      </c>
-      <c r="I66" s="2">
+        <v>1649703104</v>
+      </c>
+      <c r="I66">
         <f t="shared" si="2"/>
         <v>1649721600</v>
       </c>
@@ -3854,7 +3866,7 @@
       </c>
       <c r="L66" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 304160714309, "submittedDateTime": 1649695442, "completedDateTime": 1649721600, "amount": 11.53, "memo": "SKYLINE CHILI DENT CINCINNATI OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 129025537739, "submittedDateTime": 1649703104, "completedDateTime": 1649721600, "amount": 11.53, "memo": "SKYLINE CHILI DENT CINCINNATI OH" }}},</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
@@ -3870,15 +3882,15 @@
       <c r="D67">
         <v>12.78</v>
       </c>
-      <c r="G67" s="3" cm="1">
+      <c r="G67" s="2" cm="1">
         <f t="array" aca="1" ref="G67" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>826711618850</v>
-      </c>
-      <c r="H67" s="2">
+        <v>342768608852</v>
+      </c>
+      <c r="H67">
         <f t="shared" ref="H67:H130" ca="1" si="6">_xlfn.FLOOR.MATH((B67-DATE(1970,1,1)+RAND())*86400)</f>
-        <v>1649821166</v>
-      </c>
-      <c r="I67" s="2">
+        <v>1649833193</v>
+      </c>
+      <c r="I67">
         <f t="shared" ref="I67:I130" si="7">_xlfn.FLOOR.MATH((B67-DATE(1970,1,1)+1)*86400)</f>
         <v>1649894400</v>
       </c>
@@ -3892,7 +3904,7 @@
       </c>
       <c r="L67" t="str">
         <f t="shared" ref="L67:L130" ca="1" si="10">"{ "&amp;CHAR(34)&amp; "PutRequest"&amp;CHAR(34)&amp;": { "&amp;CHAR(34)&amp;"Item"&amp;CHAR(34)&amp;": { "&amp;CHAR(34) &amp;G$1&amp;CHAR(34) &amp;": "&amp;G67&amp; ", "&amp;CHAR(34) &amp;H$1&amp;CHAR(34) &amp;": "&amp;H67&amp; ", "&amp;CHAR(34) &amp;I$1&amp;CHAR(34) &amp;": "&amp;I67&amp; ", "&amp;CHAR(34) &amp;J$1&amp;CHAR(34) &amp;": "&amp;J67&amp; ", "&amp;CHAR(34) &amp;K$1&amp;CHAR(34) &amp;": "&amp;CHAR(34)&amp;K67&amp;CHAR(34) &amp;" }}},"</f>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 826711618850, "submittedDateTime": 1649821166, "completedDateTime": 1649894400, "amount": 12.78, "memo": "LA ROSA'S HYDE PARK 513-984-3870 OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 342768608852, "submittedDateTime": 1649833193, "completedDateTime": 1649894400, "amount": 12.78, "memo": "LA ROSA'S HYDE PARK 513-984-3870 OH" }}},</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
@@ -3908,15 +3920,15 @@
       <c r="D68">
         <v>65.91</v>
       </c>
-      <c r="G68" s="3" cm="1">
+      <c r="G68" s="2" cm="1">
         <f t="array" aca="1" ref="G68" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>598917005925</v>
-      </c>
-      <c r="H68" s="2">
+        <v>583736154011</v>
+      </c>
+      <c r="H68">
         <f t="shared" ca="1" si="6"/>
-        <v>1649993524</v>
-      </c>
-      <c r="I68" s="2">
+        <v>1649987746</v>
+      </c>
+      <c r="I68">
         <f t="shared" si="7"/>
         <v>1650067200</v>
       </c>
@@ -3930,7 +3942,7 @@
       </c>
       <c r="L68" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 598917005925, "submittedDateTime": 1649993524, "completedDateTime": 1650067200, "amount": 65.91, "memo": "CIN BELL ELEC PAY 513-5652210 OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 583736154011, "submittedDateTime": 1649987746, "completedDateTime": 1650067200, "amount": 65.91, "memo": "CIN BELL ELEC PAY 513-5652210 OH" }}},</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
@@ -3946,15 +3958,15 @@
       <c r="D69">
         <v>173.08</v>
       </c>
-      <c r="G69" s="3" cm="1">
+      <c r="G69" s="2" cm="1">
         <f t="array" aca="1" ref="G69" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>359991678203</v>
-      </c>
-      <c r="H69" s="2">
+        <v>852888074021</v>
+      </c>
+      <c r="H69">
         <f t="shared" ca="1" si="6"/>
-        <v>1650127532</v>
-      </c>
-      <c r="I69" s="2">
+        <v>1650079179</v>
+      </c>
+      <c r="I69">
         <f t="shared" si="7"/>
         <v>1650153600</v>
       </c>
@@ -3968,7 +3980,7 @@
       </c>
       <c r="L69" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 359991678203, "submittedDateTime": 1650127532, "completedDateTime": 1650153600, "amount": 173.08, "memo": "SPI*DUKE-ENERGY 800-777-9898 NC" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 852888074021, "submittedDateTime": 1650079179, "completedDateTime": 1650153600, "amount": 173.08, "memo": "SPI*DUKE-ENERGY 800-777-9898 NC" }}},</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
@@ -3984,15 +3996,15 @@
       <c r="E70">
         <v>-35</v>
       </c>
-      <c r="G70" s="3" cm="1">
+      <c r="G70" s="2" cm="1">
         <f t="array" aca="1" ref="G70" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>861239476106</v>
-      </c>
-      <c r="H70" s="2">
+        <v>852888074021</v>
+      </c>
+      <c r="H70">
         <f t="shared" ca="1" si="6"/>
-        <v>1650217871</v>
-      </c>
-      <c r="I70" s="2">
+        <v>1650235795</v>
+      </c>
+      <c r="I70">
         <f t="shared" si="7"/>
         <v>1650240000</v>
       </c>
@@ -4006,7 +4018,7 @@
       </c>
       <c r="L70" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 861239476106, "submittedDateTime": 1650217871, "completedDateTime": 1650240000, "amount": -35, "memo": "ONLINE PAYMENT, THANK YOU" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 852888074021, "submittedDateTime": 1650235795, "completedDateTime": 1650240000, "amount": -35, "memo": "ONLINE PAYMENT, THANK YOU" }}},</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
@@ -4022,15 +4034,15 @@
       <c r="D71">
         <v>2354</v>
       </c>
-      <c r="G71" s="3" cm="1">
+      <c r="G71" s="2" cm="1">
         <f t="array" aca="1" ref="G71" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>359991678203</v>
-      </c>
-      <c r="H71" s="2">
+        <v>985663880614</v>
+      </c>
+      <c r="H71">
         <f t="shared" ca="1" si="6"/>
-        <v>1650244135</v>
-      </c>
-      <c r="I71" s="2">
+        <v>1650258879</v>
+      </c>
+      <c r="I71">
         <f t="shared" si="7"/>
         <v>1650326400</v>
       </c>
@@ -4044,7 +4056,7 @@
       </c>
       <c r="L71" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 359991678203, "submittedDateTime": 1650244135, "completedDateTime": 1650326400, "amount": 2354, "memo": "KY REVENUE DEPT 5028753733 KY" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 985663880614, "submittedDateTime": 1650258879, "completedDateTime": 1650326400, "amount": 2354, "memo": "KY REVENUE DEPT 5028753733 KY" }}},</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
@@ -4060,15 +4072,15 @@
       <c r="D72">
         <v>59.55</v>
       </c>
-      <c r="G72" s="3" cm="1">
+      <c r="G72" s="2" cm="1">
         <f t="array" aca="1" ref="G72" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>304160714309</v>
-      </c>
-      <c r="H72" s="2">
+        <v>583736154011</v>
+      </c>
+      <c r="H72">
         <f t="shared" ca="1" si="6"/>
-        <v>1650372650</v>
-      </c>
-      <c r="I72" s="2">
+        <v>1650389071</v>
+      </c>
+      <c r="I72">
         <f t="shared" si="7"/>
         <v>1650412800</v>
       </c>
@@ -4082,7 +4094,7 @@
       </c>
       <c r="L72" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 304160714309, "submittedDateTime": 1650372650, "completedDateTime": 1650412800, "amount": 59.55, "memo": "KROGER #355 CINCINNATI OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 583736154011, "submittedDateTime": 1650389071, "completedDateTime": 1650412800, "amount": 59.55, "memo": "KROGER #355 CINCINNATI OH" }}},</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
@@ -4098,15 +4110,15 @@
       <c r="D73">
         <v>14.34</v>
       </c>
-      <c r="G73" s="3" cm="1">
+      <c r="G73" s="2" cm="1">
         <f t="array" aca="1" ref="G73" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>359991678203</v>
-      </c>
-      <c r="H73" s="2">
+        <v>852888074021</v>
+      </c>
+      <c r="H73">
         <f t="shared" ca="1" si="6"/>
-        <v>1650394044</v>
-      </c>
-      <c r="I73" s="2">
+        <v>1650389646</v>
+      </c>
+      <c r="I73">
         <f t="shared" si="7"/>
         <v>1650412800</v>
       </c>
@@ -4120,7 +4132,7 @@
       </c>
       <c r="L73" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 359991678203, "submittedDateTime": 1650394044, "completedDateTime": 1650412800, "amount": 14.34, "memo": "EL TORO OF CINCINNATI CINCINNATI OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 852888074021, "submittedDateTime": 1650389646, "completedDateTime": 1650412800, "amount": 14.34, "memo": "EL TORO OF CINCINNATI CINCINNATI OH" }}},</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
@@ -4136,15 +4148,15 @@
       <c r="D74">
         <v>201.58</v>
       </c>
-      <c r="G74" s="3" cm="1">
+      <c r="G74" s="2" cm="1">
         <f t="array" aca="1" ref="G74" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>359991678203</v>
-      </c>
-      <c r="H74" s="2">
+        <v>342768608852</v>
+      </c>
+      <c r="H74">
         <f t="shared" ca="1" si="6"/>
-        <v>1650458321</v>
-      </c>
-      <c r="I74" s="2">
+        <v>1650437423</v>
+      </c>
+      <c r="I74">
         <f t="shared" si="7"/>
         <v>1650499200</v>
       </c>
@@ -4158,7 +4170,7 @@
       </c>
       <c r="L74" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 359991678203, "submittedDateTime": 1650458321, "completedDateTime": 1650499200, "amount": 201.58, "memo": "INTUIT *TURBOTAX CL.INTUIT.COM CA" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 342768608852, "submittedDateTime": 1650437423, "completedDateTime": 1650499200, "amount": 201.58, "memo": "INTUIT *TURBOTAX CL.INTUIT.COM CA" }}},</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
@@ -4174,15 +4186,15 @@
       <c r="E75">
         <v>-624.26</v>
       </c>
-      <c r="G75" s="3" cm="1">
+      <c r="G75" s="2" cm="1">
         <f t="array" aca="1" ref="G75" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>498511217783</v>
-      </c>
-      <c r="H75" s="2">
+        <v>513319807340</v>
+      </c>
+      <c r="H75">
         <f t="shared" ca="1" si="6"/>
-        <v>1650757299</v>
-      </c>
-      <c r="I75" s="2">
+        <v>1650692568</v>
+      </c>
+      <c r="I75">
         <f t="shared" si="7"/>
         <v>1650758400</v>
       </c>
@@ -4196,7 +4208,7 @@
       </c>
       <c r="L75" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 498511217783, "submittedDateTime": 1650757299, "completedDateTime": 1650758400, "amount": -624.26, "memo": "ONLINE PAYMENT, THANK YOU" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 513319807340, "submittedDateTime": 1650692568, "completedDateTime": 1650758400, "amount": -624.26, "memo": "ONLINE PAYMENT, THANK YOU" }}},</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
@@ -4212,15 +4224,15 @@
       <c r="D76">
         <v>29.72</v>
       </c>
-      <c r="G76" s="3" cm="1">
+      <c r="G76" s="2" cm="1">
         <f t="array" aca="1" ref="G76" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>732504662515</v>
-      </c>
-      <c r="H76" s="2">
+        <v>583736154011</v>
+      </c>
+      <c r="H76">
         <f t="shared" ca="1" si="6"/>
-        <v>1650886991</v>
-      </c>
-      <c r="I76" s="2">
+        <v>1650890203</v>
+      </c>
+      <c r="I76">
         <f t="shared" si="7"/>
         <v>1650931200</v>
       </c>
@@ -4234,7 +4246,7 @@
       </c>
       <c r="L76" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 732504662515, "submittedDateTime": 1650886991, "completedDateTime": 1650931200, "amount": 29.72, "memo": "KROGER #465 CINCINNATI OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 583736154011, "submittedDateTime": 1650890203, "completedDateTime": 1650931200, "amount": 29.72, "memo": "KROGER #465 CINCINNATI OH" }}},</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
@@ -4250,15 +4262,15 @@
       <c r="D77">
         <v>33.39</v>
       </c>
-      <c r="G77" s="3" cm="1">
+      <c r="G77" s="2" cm="1">
         <f t="array" aca="1" ref="G77" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>669914345717</v>
-      </c>
-      <c r="H77" s="2">
+        <v>129025537739</v>
+      </c>
+      <c r="H77">
         <f t="shared" ca="1" si="6"/>
-        <v>1651082865</v>
-      </c>
-      <c r="I77" s="2">
+        <v>1651087792</v>
+      </c>
+      <c r="I77">
         <f t="shared" si="7"/>
         <v>1651104000</v>
       </c>
@@ -4272,7 +4284,7 @@
       </c>
       <c r="L77" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 669914345717, "submittedDateTime": 1651082865, "completedDateTime": 1651104000, "amount": 33.39, "memo": "HOMEDEPOT.COM 800-430-3376 GA" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 129025537739, "submittedDateTime": 1651087792, "completedDateTime": 1651104000, "amount": 33.39, "memo": "HOMEDEPOT.COM 800-430-3376 GA" }}},</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
@@ -4288,15 +4300,15 @@
       <c r="D78">
         <v>15.39</v>
       </c>
-      <c r="G78" s="3" cm="1">
+      <c r="G78" s="2" cm="1">
         <f t="array" aca="1" ref="G78" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>594392737621</v>
-      </c>
-      <c r="H78" s="2">
+        <v>140032156448</v>
+      </c>
+      <c r="H78">
         <f t="shared" ca="1" si="6"/>
-        <v>1651559883</v>
-      </c>
-      <c r="I78" s="2">
+        <v>1651579864</v>
+      </c>
+      <c r="I78">
         <f t="shared" si="7"/>
         <v>1651622400</v>
       </c>
@@ -4310,7 +4322,7 @@
       </c>
       <c r="L78" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 594392737621, "submittedDateTime": 1651559883, "completedDateTime": 1651622400, "amount": 15.39, "memo": "SP BLOWERBAND FAIRFAX VA" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 140032156448, "submittedDateTime": 1651579864, "completedDateTime": 1651622400, "amount": 15.39, "memo": "SP BLOWERBAND FAIRFAX VA" }}},</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
@@ -4326,15 +4338,15 @@
       <c r="D79">
         <v>91.62</v>
       </c>
-      <c r="G79" s="3" cm="1">
+      <c r="G79" s="2" cm="1">
         <f t="array" aca="1" ref="G79" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>732504662515</v>
-      </c>
-      <c r="H79" s="2">
+        <v>334321869864</v>
+      </c>
+      <c r="H79">
         <f t="shared" ca="1" si="6"/>
-        <v>1651579420</v>
-      </c>
-      <c r="I79" s="2">
+        <v>1651576113</v>
+      </c>
+      <c r="I79">
         <f t="shared" si="7"/>
         <v>1651622400</v>
       </c>
@@ -4348,7 +4360,7 @@
       </c>
       <c r="L79" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 732504662515, "submittedDateTime": 1651579420, "completedDateTime": 1651622400, "amount": 91.62, "memo": "GRIOTS GARAGE 253-9222400 WA" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 334321869864, "submittedDateTime": 1651576113, "completedDateTime": 1651622400, "amount": 91.62, "memo": "GRIOTS GARAGE 253-9222400 WA" }}},</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
@@ -4364,15 +4376,15 @@
       <c r="D80">
         <v>65.91</v>
       </c>
-      <c r="G80" s="3" cm="1">
+      <c r="G80" s="2" cm="1">
         <f t="array" aca="1" ref="G80" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>732504662515</v>
-      </c>
-      <c r="H80" s="2">
+        <v>140032156448</v>
+      </c>
+      <c r="H80">
         <f t="shared" ca="1" si="6"/>
-        <v>1651629740</v>
-      </c>
-      <c r="I80" s="2">
+        <v>1651708070</v>
+      </c>
+      <c r="I80">
         <f t="shared" si="7"/>
         <v>1651708800</v>
       </c>
@@ -4386,7 +4398,7 @@
       </c>
       <c r="L80" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 732504662515, "submittedDateTime": 1651629740, "completedDateTime": 1651708800, "amount": 65.91, "memo": "CIN BELL ELEC PAY 513-5652210 OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 140032156448, "submittedDateTime": 1651708070, "completedDateTime": 1651708800, "amount": 65.91, "memo": "CIN BELL ELEC PAY 513-5652210 OH" }}},</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
@@ -4402,15 +4414,15 @@
       <c r="D81">
         <v>198.87</v>
       </c>
-      <c r="G81" s="3" cm="1">
+      <c r="G81" s="2" cm="1">
         <f t="array" aca="1" ref="G81" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>669914345717</v>
-      </c>
-      <c r="H81" s="2">
+        <v>663912409988</v>
+      </c>
+      <c r="H81">
         <f t="shared" ca="1" si="6"/>
-        <v>1651742481</v>
-      </c>
-      <c r="I81" s="2">
+        <v>1651759983</v>
+      </c>
+      <c r="I81">
         <f t="shared" si="7"/>
         <v>1651795200</v>
       </c>
@@ -4424,7 +4436,7 @@
       </c>
       <c r="L81" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 669914345717, "submittedDateTime": 1651742481, "completedDateTime": 1651795200, "amount": 198.87, "memo": "SPI*DUKE-ENERGY 800-777-9898 NC" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 663912409988, "submittedDateTime": 1651759983, "completedDateTime": 1651795200, "amount": 198.87, "memo": "SPI*DUKE-ENERGY 800-777-9898 NC" }}},</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
@@ -4440,15 +4452,15 @@
       <c r="D82">
         <v>12.93</v>
       </c>
-      <c r="G82" s="3" cm="1">
+      <c r="G82" s="2" cm="1">
         <f t="array" aca="1" ref="G82" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>732504662515</v>
-      </c>
-      <c r="H82" s="2">
+        <v>422657850099</v>
+      </c>
+      <c r="H82">
         <f t="shared" ca="1" si="6"/>
-        <v>1651751905</v>
-      </c>
-      <c r="I82" s="2">
+        <v>1651776572</v>
+      </c>
+      <c r="I82">
         <f t="shared" si="7"/>
         <v>1651795200</v>
       </c>
@@ -4462,7 +4474,7 @@
       </c>
       <c r="L82" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 732504662515, "submittedDateTime": 1651751905, "completedDateTime": 1651795200, "amount": 12.93, "memo": "GOOGLE *YouTubePremium g.co/helppay# CA" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 422657850099, "submittedDateTime": 1651776572, "completedDateTime": 1651795200, "amount": 12.93, "memo": "GOOGLE *YouTubePremium g.co/helppay# CA" }}},</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
@@ -4478,15 +4490,15 @@
       <c r="D83">
         <v>348</v>
       </c>
-      <c r="G83" s="3" cm="1">
+      <c r="G83" s="2" cm="1">
         <f t="array" aca="1" ref="G83" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>399061551780</v>
-      </c>
-      <c r="H83" s="2">
+        <v>129025537739</v>
+      </c>
+      <c r="H83">
         <f t="shared" ca="1" si="6"/>
-        <v>1651801686</v>
-      </c>
-      <c r="I83" s="2">
+        <v>1651850816</v>
+      </c>
+      <c r="I83">
         <f t="shared" si="7"/>
         <v>1651881600</v>
       </c>
@@ -4500,7 +4512,7 @@
       </c>
       <c r="L83" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 399061551780, "submittedDateTime": 1651801686, "completedDateTime": 1651881600, "amount": 348, "memo": "VUE*COMPTIA MRKETPLCE 800-511-3478 MN" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 129025537739, "submittedDateTime": 1651850816, "completedDateTime": 1651881600, "amount": 348, "memo": "VUE*COMPTIA MRKETPLCE 800-511-3478 MN" }}},</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
@@ -4516,15 +4528,15 @@
       <c r="D84">
         <v>30</v>
       </c>
-      <c r="G84" s="3" cm="1">
+      <c r="G84" s="2" cm="1">
         <f t="array" aca="1" ref="G84" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>749596570472</v>
-      </c>
-      <c r="H84" s="2">
+        <v>342768608852</v>
+      </c>
+      <c r="H84">
         <f t="shared" ca="1" si="6"/>
-        <v>1651985061</v>
-      </c>
-      <c r="I84" s="2">
+        <v>1652013039</v>
+      </c>
+      <c r="I84">
         <f t="shared" si="7"/>
         <v>1652054400</v>
       </c>
@@ -4538,7 +4550,7 @@
       </c>
       <c r="L84" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 749596570472, "submittedDateTime": 1651985061, "completedDateTime": 1652054400, "amount": 30, "memo": "VISIBLE 8663313527 CO" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 342768608852, "submittedDateTime": 1652013039, "completedDateTime": 1652054400, "amount": 30, "memo": "VISIBLE 8663313527 CO" }}},</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
@@ -4554,15 +4566,15 @@
       <c r="D85">
         <v>322.32</v>
       </c>
-      <c r="G85" s="3" cm="1">
+      <c r="G85" s="2" cm="1">
         <f t="array" aca="1" ref="G85" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>598917005925</v>
-      </c>
-      <c r="H85" s="2">
+        <v>583736154011</v>
+      </c>
+      <c r="H85">
         <f t="shared" ca="1" si="6"/>
-        <v>1652073585</v>
-      </c>
-      <c r="I85" s="2">
+        <v>1652074981</v>
+      </c>
+      <c r="I85">
         <f t="shared" si="7"/>
         <v>1652140800</v>
       </c>
@@ -4576,7 +4588,7 @@
       </c>
       <c r="L85" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 598917005925, "submittedDateTime": 1652073585, "completedDateTime": 1652140800, "amount": 322.32, "memo": "LOWES #00907* 866-483-7521 NC" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 583736154011, "submittedDateTime": 1652074981, "completedDateTime": 1652140800, "amount": 322.32, "memo": "LOWES #00907* 866-483-7521 NC" }}},</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
@@ -4592,15 +4604,15 @@
       <c r="D86">
         <v>11.83</v>
       </c>
-      <c r="G86" s="3" cm="1">
+      <c r="G86" s="2" cm="1">
         <f t="array" aca="1" ref="G86" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>359991678203</v>
-      </c>
-      <c r="H86" s="2">
+        <v>602716875113</v>
+      </c>
+      <c r="H86">
         <f t="shared" ca="1" si="6"/>
-        <v>1652096288</v>
-      </c>
-      <c r="I86" s="2">
+        <v>1652055117</v>
+      </c>
+      <c r="I86">
         <f t="shared" si="7"/>
         <v>1652140800</v>
       </c>
@@ -4614,7 +4626,7 @@
       </c>
       <c r="L86" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 359991678203, "submittedDateTime": 1652096288, "completedDateTime": 1652140800, "amount": 11.83, "memo": "HOMEDEPOT.COM 800-430-3376 GA" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 602716875113, "submittedDateTime": 1652055117, "completedDateTime": 1652140800, "amount": 11.83, "memo": "HOMEDEPOT.COM 800-430-3376 GA" }}},</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
@@ -4630,15 +4642,15 @@
       <c r="D87">
         <v>11.97</v>
       </c>
-      <c r="G87" s="3" cm="1">
+      <c r="G87" s="2" cm="1">
         <f t="array" aca="1" ref="G87" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>359991678203</v>
-      </c>
-      <c r="H87" s="2">
+        <v>140032156448</v>
+      </c>
+      <c r="H87">
         <f t="shared" ca="1" si="6"/>
-        <v>1652118142</v>
-      </c>
-      <c r="I87" s="2">
+        <v>1652097378</v>
+      </c>
+      <c r="I87">
         <f t="shared" si="7"/>
         <v>1652140800</v>
       </c>
@@ -4652,7 +4664,7 @@
       </c>
       <c r="L87" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 359991678203, "submittedDateTime": 1652118142, "completedDateTime": 1652140800, "amount": 11.97, "memo": "HOMEDEPOT.COM 800-430-3376 GA" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 140032156448, "submittedDateTime": 1652097378, "completedDateTime": 1652140800, "amount": 11.97, "memo": "HOMEDEPOT.COM 800-430-3376 GA" }}},</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
@@ -4668,15 +4680,15 @@
       <c r="D88">
         <v>20.25</v>
       </c>
-      <c r="G88" s="3" cm="1">
+      <c r="G88" s="2" cm="1">
         <f t="array" aca="1" ref="G88" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>304160714309</v>
-      </c>
-      <c r="H88" s="2">
+        <v>852888074021</v>
+      </c>
+      <c r="H88">
         <f t="shared" ca="1" si="6"/>
-        <v>1652319816</v>
-      </c>
-      <c r="I88" s="2">
+        <v>1652354983</v>
+      </c>
+      <c r="I88">
         <f t="shared" si="7"/>
         <v>1652400000</v>
       </c>
@@ -4690,7 +4702,7 @@
       </c>
       <c r="L88" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 304160714309, "submittedDateTime": 1652319816, "completedDateTime": 1652400000, "amount": 20.25, "memo": "PMT*OH BUREAU MOTOR VE COLUMBUS OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 852888074021, "submittedDateTime": 1652354983, "completedDateTime": 1652400000, "amount": 20.25, "memo": "PMT*OH BUREAU MOTOR VE COLUMBUS OH" }}},</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
@@ -4706,15 +4718,15 @@
       <c r="E89">
         <v>-62</v>
       </c>
-      <c r="G89" s="3" cm="1">
+      <c r="G89" s="2" cm="1">
         <f t="array" aca="1" ref="G89" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>669914345717</v>
-      </c>
-      <c r="H89" s="2">
+        <v>602716875113</v>
+      </c>
+      <c r="H89">
         <f t="shared" ca="1" si="6"/>
-        <v>1652407941</v>
-      </c>
-      <c r="I89" s="2">
+        <v>1652428407</v>
+      </c>
+      <c r="I89">
         <f t="shared" si="7"/>
         <v>1652486400</v>
       </c>
@@ -4728,7 +4740,7 @@
       </c>
       <c r="L89" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 669914345717, "submittedDateTime": 1652407941, "completedDateTime": 1652486400, "amount": -62, "memo": "ONLINE PAYMENT, THANK YOU" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 602716875113, "submittedDateTime": 1652428407, "completedDateTime": 1652486400, "amount": -62, "memo": "ONLINE PAYMENT, THANK YOU" }}},</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
@@ -4744,15 +4756,15 @@
       <c r="D90">
         <v>58.27</v>
       </c>
-      <c r="G90" s="3" cm="1">
+      <c r="G90" s="2" cm="1">
         <f t="array" aca="1" ref="G90" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>594392737621</v>
-      </c>
-      <c r="H90" s="2">
+        <v>342768608852</v>
+      </c>
+      <c r="H90">
         <f t="shared" ca="1" si="6"/>
-        <v>1652616706</v>
-      </c>
-      <c r="I90" s="2">
+        <v>1652596387</v>
+      </c>
+      <c r="I90">
         <f t="shared" si="7"/>
         <v>1652659200</v>
       </c>
@@ -4766,7 +4778,7 @@
       </c>
       <c r="L90" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 594392737621, "submittedDateTime": 1652616706, "completedDateTime": 1652659200, "amount": 58.27, "memo": "WAL-MART #2250 CINCINNATI OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 342768608852, "submittedDateTime": 1652596387, "completedDateTime": 1652659200, "amount": 58.27, "memo": "WAL-MART #2250 CINCINNATI OH" }}},</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
@@ -4782,15 +4794,15 @@
       <c r="D91">
         <v>11.65</v>
       </c>
-      <c r="G91" s="3" cm="1">
+      <c r="G91" s="2" cm="1">
         <f t="array" aca="1" ref="G91" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>598917005925</v>
-      </c>
-      <c r="H91" s="2">
+        <v>129025537739</v>
+      </c>
+      <c r="H91">
         <f t="shared" ca="1" si="6"/>
-        <v>1652630208</v>
-      </c>
-      <c r="I91" s="2">
+        <v>1652633185</v>
+      </c>
+      <c r="I91">
         <f t="shared" si="7"/>
         <v>1652659200</v>
       </c>
@@ -4804,7 +4816,7 @@
       </c>
       <c r="L91" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 598917005925, "submittedDateTime": 1652630208, "completedDateTime": 1652659200, "amount": 11.65, "memo": "MCALISTER'S 102341 FLORENCE KY" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 129025537739, "submittedDateTime": 1652633185, "completedDateTime": 1652659200, "amount": 11.65, "memo": "MCALISTER'S 102341 FLORENCE KY" }}},</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
@@ -4820,15 +4832,15 @@
       <c r="E92">
         <v>-50.17</v>
       </c>
-      <c r="G92" s="3" cm="1">
+      <c r="G92" s="2" cm="1">
         <f t="array" aca="1" ref="G92" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>402123746805</v>
-      </c>
-      <c r="H92" s="2">
+        <v>583736154011</v>
+      </c>
+      <c r="H92">
         <f t="shared" ca="1" si="6"/>
-        <v>1652831464</v>
-      </c>
-      <c r="I92" s="2">
+        <v>1652750713</v>
+      </c>
+      <c r="I92">
         <f t="shared" si="7"/>
         <v>1652832000</v>
       </c>
@@ -4842,7 +4854,7 @@
       </c>
       <c r="L92" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 402123746805, "submittedDateTime": 1652831464, "completedDateTime": 1652832000, "amount": -50.17, "memo": "WAL-MART #2250 CINCINNATI OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 583736154011, "submittedDateTime": 1652750713, "completedDateTime": 1652832000, "amount": -50.17, "memo": "WAL-MART #2250 CINCINNATI OH" }}},</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
@@ -4858,15 +4870,15 @@
       <c r="D93">
         <v>24.55</v>
       </c>
-      <c r="G93" s="3" cm="1">
+      <c r="G93" s="2" cm="1">
         <f t="array" aca="1" ref="G93" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>861239476106</v>
-      </c>
-      <c r="H93" s="2">
+        <v>513319807340</v>
+      </c>
+      <c r="H93">
         <f t="shared" ca="1" si="6"/>
-        <v>1652758366</v>
-      </c>
-      <c r="I93" s="2">
+        <v>1652821879</v>
+      </c>
+      <c r="I93">
         <f t="shared" si="7"/>
         <v>1652832000</v>
       </c>
@@ -4880,7 +4892,7 @@
       </c>
       <c r="L93" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 861239476106, "submittedDateTime": 1652758366, "completedDateTime": 1652832000, "amount": 24.55, "memo": "WM SUPERCENTER #2250 CINCINNATI OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 513319807340, "submittedDateTime": 1652821879, "completedDateTime": 1652832000, "amount": 24.55, "memo": "WM SUPERCENTER #2250 CINCINNATI OH" }}},</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
@@ -4896,15 +4908,15 @@
       <c r="D94">
         <v>24.55</v>
       </c>
-      <c r="G94" s="3" cm="1">
+      <c r="G94" s="2" cm="1">
         <f t="array" aca="1" ref="G94" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>669914345717</v>
-      </c>
-      <c r="H94" s="2">
+        <v>583736154011</v>
+      </c>
+      <c r="H94">
         <f t="shared" ca="1" si="6"/>
-        <v>1652820939</v>
-      </c>
-      <c r="I94" s="2">
+        <v>1652775654</v>
+      </c>
+      <c r="I94">
         <f t="shared" si="7"/>
         <v>1652832000</v>
       </c>
@@ -4918,7 +4930,7 @@
       </c>
       <c r="L94" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 669914345717, "submittedDateTime": 1652820939, "completedDateTime": 1652832000, "amount": 24.55, "memo": "WAL-MART #3749 CINCINNATI OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 583736154011, "submittedDateTime": 1652775654, "completedDateTime": 1652832000, "amount": 24.55, "memo": "WAL-MART #3749 CINCINNATI OH" }}},</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
@@ -4934,15 +4946,15 @@
       <c r="E95">
         <v>-4072.46</v>
       </c>
-      <c r="G95" s="3" cm="1">
+      <c r="G95" s="2" cm="1">
         <f t="array" aca="1" ref="G95" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>498511217783</v>
-      </c>
-      <c r="H95" s="2">
+        <v>663912409988</v>
+      </c>
+      <c r="H95">
         <f t="shared" ca="1" si="6"/>
-        <v>1652905710</v>
-      </c>
-      <c r="I95" s="2">
+        <v>1652901151</v>
+      </c>
+      <c r="I95">
         <f t="shared" si="7"/>
         <v>1652918400</v>
       </c>
@@ -4956,7 +4968,7 @@
       </c>
       <c r="L95" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 498511217783, "submittedDateTime": 1652905710, "completedDateTime": 1652918400, "amount": -4072.46, "memo": "ONLINE PAYMENT, THANK YOU" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 663912409988, "submittedDateTime": 1652901151, "completedDateTime": 1652918400, "amount": -4072.46, "memo": "ONLINE PAYMENT, THANK YOU" }}},</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
@@ -4972,15 +4984,15 @@
       <c r="D96">
         <v>11.83</v>
       </c>
-      <c r="G96" s="3" cm="1">
+      <c r="G96" s="2" cm="1">
         <f t="array" aca="1" ref="G96" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>594392737621</v>
-      </c>
-      <c r="H96" s="2">
+        <v>422657850099</v>
+      </c>
+      <c r="H96">
         <f t="shared" ca="1" si="6"/>
-        <v>1652940250</v>
-      </c>
-      <c r="I96" s="2">
+        <v>1652985207</v>
+      </c>
+      <c r="I96">
         <f t="shared" si="7"/>
         <v>1653004800</v>
       </c>
@@ -4994,7 +5006,7 @@
       </c>
       <c r="L96" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 594392737621, "submittedDateTime": 1652940250, "completedDateTime": 1653004800, "amount": 11.83, "memo": "HOMEDEPOT.COM 800-430-3376 GA" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 422657850099, "submittedDateTime": 1652985207, "completedDateTime": 1653004800, "amount": 11.83, "memo": "HOMEDEPOT.COM 800-430-3376 GA" }}},</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
@@ -5010,15 +5022,15 @@
       <c r="D97">
         <v>5.66</v>
       </c>
-      <c r="G97" s="3" cm="1">
+      <c r="G97" s="2" cm="1">
         <f t="array" aca="1" ref="G97" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>749596570472</v>
-      </c>
-      <c r="H97" s="2">
+        <v>342768608852</v>
+      </c>
+      <c r="H97">
         <f t="shared" ca="1" si="6"/>
-        <v>1653678182</v>
-      </c>
-      <c r="I97" s="2">
+        <v>1653664422</v>
+      </c>
+      <c r="I97">
         <f t="shared" si="7"/>
         <v>1653696000</v>
       </c>
@@ -5032,7 +5044,7 @@
       </c>
       <c r="L97" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 749596570472, "submittedDateTime": 1653678182, "completedDateTime": 1653696000, "amount": 5.66, "memo": "ICI*FEECITY OF NORWOOD 866-342-9266 MA" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 342768608852, "submittedDateTime": 1653664422, "completedDateTime": 1653696000, "amount": 5.66, "memo": "ICI*FEECITY OF NORWOOD 866-342-9266 MA" }}},</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
@@ -5048,15 +5060,15 @@
       <c r="D98">
         <v>226.36</v>
       </c>
-      <c r="G98" s="3" cm="1">
+      <c r="G98" s="2" cm="1">
         <f t="array" aca="1" ref="G98" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>359991678203</v>
-      </c>
-      <c r="H98" s="2">
+        <v>985663880614</v>
+      </c>
+      <c r="H98">
         <f t="shared" ca="1" si="6"/>
-        <v>1653635195</v>
-      </c>
-      <c r="I98" s="2">
+        <v>1653644574</v>
+      </c>
+      <c r="I98">
         <f t="shared" si="7"/>
         <v>1653696000</v>
       </c>
@@ -5070,7 +5082,7 @@
       </c>
       <c r="L98" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 359991678203, "submittedDateTime": 1653635195, "completedDateTime": 1653696000, "amount": 226.36, "memo": "CITY OF NORWOOD 513-458-4500 OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 985663880614, "submittedDateTime": 1653644574, "completedDateTime": 1653696000, "amount": 226.36, "memo": "CITY OF NORWOOD 513-458-4500 OH" }}},</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
@@ -5086,15 +5098,15 @@
       <c r="D99">
         <v>130.52000000000001</v>
       </c>
-      <c r="G99" s="3" cm="1">
+      <c r="G99" s="2" cm="1">
         <f t="array" aca="1" ref="G99" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>826711618850</v>
-      </c>
-      <c r="H99" s="2">
+        <v>195664351857</v>
+      </c>
+      <c r="H99">
         <f t="shared" ca="1" si="6"/>
-        <v>1653631196</v>
-      </c>
-      <c r="I99" s="2">
+        <v>1653654977</v>
+      </c>
+      <c r="I99">
         <f t="shared" si="7"/>
         <v>1653696000</v>
       </c>
@@ -5108,7 +5120,7 @@
       </c>
       <c r="L99" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 826711618850, "submittedDateTime": 1653631196, "completedDateTime": 1653696000, "amount": 130.52, "memo": "SPI*DUKE-ENERGY 800-777-9898 NC" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 195664351857, "submittedDateTime": 1653654977, "completedDateTime": 1653696000, "amount": 130.52, "memo": "SPI*DUKE-ENERGY 800-777-9898 NC" }}},</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
@@ -5124,15 +5136,15 @@
       <c r="D100">
         <v>18.18</v>
       </c>
-      <c r="G100" s="3" cm="1">
+      <c r="G100" s="2" cm="1">
         <f t="array" aca="1" ref="G100" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>826711618850</v>
-      </c>
-      <c r="H100" s="2">
+        <v>583736154011</v>
+      </c>
+      <c r="H100">
         <f t="shared" ca="1" si="6"/>
-        <v>1653934200</v>
-      </c>
-      <c r="I100" s="2">
+        <v>1653938059</v>
+      </c>
+      <c r="I100">
         <f t="shared" si="7"/>
         <v>1653955200</v>
       </c>
@@ -5146,7 +5158,7 @@
       </c>
       <c r="L100" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 826711618850, "submittedDateTime": 1653934200, "completedDateTime": 1653955200, "amount": 18.18, "memo": "Etsy.com - BlueThreadG Brooklyn NY" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 583736154011, "submittedDateTime": 1653938059, "completedDateTime": 1653955200, "amount": 18.18, "memo": "Etsy.com - BlueThreadG Brooklyn NY" }}},</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
@@ -5162,15 +5174,15 @@
       <c r="D101">
         <v>172.9</v>
       </c>
-      <c r="G101" s="3" cm="1">
+      <c r="G101" s="2" cm="1">
         <f t="array" aca="1" ref="G101" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>749596570472</v>
-      </c>
-      <c r="H101" s="2">
+        <v>140032156448</v>
+      </c>
+      <c r="H101">
         <f t="shared" ca="1" si="6"/>
-        <v>1653872913</v>
-      </c>
-      <c r="I101" s="2">
+        <v>1653891998</v>
+      </c>
+      <c r="I101">
         <f t="shared" si="7"/>
         <v>1653955200</v>
       </c>
@@ -5184,7 +5196,7 @@
       </c>
       <c r="L101" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 749596570472, "submittedDateTime": 1653872913, "completedDateTime": 1653955200, "amount": 172.9, "memo": "Tesla_US_Service 8777983752 CA null XXXXXXXXXXXX3777" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 140032156448, "submittedDateTime": 1653891998, "completedDateTime": 1653955200, "amount": 172.9, "memo": "Tesla_US_Service 8777983752 CA null XXXXXXXXXXXX3777" }}},</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
@@ -5200,15 +5212,15 @@
       <c r="D102">
         <v>22.59</v>
       </c>
-      <c r="G102" s="3" cm="1">
+      <c r="G102" s="2" cm="1">
         <f t="array" aca="1" ref="G102" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>399061551780</v>
-      </c>
-      <c r="H102" s="2">
+        <v>129025537739</v>
+      </c>
+      <c r="H102">
         <f t="shared" ca="1" si="6"/>
-        <v>1654004120</v>
-      </c>
-      <c r="I102" s="2">
+        <v>1653956460</v>
+      </c>
+      <c r="I102">
         <f t="shared" si="7"/>
         <v>1654041600</v>
       </c>
@@ -5222,7 +5234,7 @@
       </c>
       <c r="L102" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 399061551780, "submittedDateTime": 1654004120, "completedDateTime": 1654041600, "amount": 22.59, "memo": "HOMEDEPOT.COM 800-430-3376 GA" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 129025537739, "submittedDateTime": 1653956460, "completedDateTime": 1654041600, "amount": 22.59, "memo": "HOMEDEPOT.COM 800-430-3376 GA" }}},</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
@@ -5238,15 +5250,15 @@
       <c r="D103">
         <v>12.93</v>
       </c>
-      <c r="G103" s="3" cm="1">
+      <c r="G103" s="2" cm="1">
         <f t="array" aca="1" ref="G103" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>304160714309</v>
-      </c>
-      <c r="H103" s="2">
+        <v>663912409988</v>
+      </c>
+      <c r="H103">
         <f t="shared" ca="1" si="6"/>
-        <v>1654445583</v>
-      </c>
-      <c r="I103" s="2">
+        <v>1654418371</v>
+      </c>
+      <c r="I103">
         <f t="shared" si="7"/>
         <v>1654473600</v>
       </c>
@@ -5260,7 +5272,7 @@
       </c>
       <c r="L103" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 304160714309, "submittedDateTime": 1654445583, "completedDateTime": 1654473600, "amount": 12.93, "memo": "GOOGLE *YouTubePremium 650-253-0000 CA" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 663912409988, "submittedDateTime": 1654418371, "completedDateTime": 1654473600, "amount": 12.93, "memo": "GOOGLE *YouTubePremium 650-253-0000 CA" }}},</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
@@ -5276,15 +5288,15 @@
       <c r="D104">
         <v>19.8</v>
       </c>
-      <c r="G104" s="3" cm="1">
+      <c r="G104" s="2" cm="1">
         <f t="array" aca="1" ref="G104" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>594392737621</v>
-      </c>
-      <c r="H104" s="2">
+        <v>852888074021</v>
+      </c>
+      <c r="H104">
         <f t="shared" ca="1" si="6"/>
-        <v>1654405586</v>
-      </c>
-      <c r="I104" s="2">
+        <v>1654447806</v>
+      </c>
+      <c r="I104">
         <f t="shared" si="7"/>
         <v>1654473600</v>
       </c>
@@ -5298,7 +5310,7 @@
       </c>
       <c r="L104" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 594392737621, "submittedDateTime": 1654405586, "completedDateTime": 1654473600, "amount": 19.8, "memo": "LONGHORN STEAK 0125046 FLORENCE KY" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 852888074021, "submittedDateTime": 1654447806, "completedDateTime": 1654473600, "amount": 19.8, "memo": "LONGHORN STEAK 0125046 FLORENCE KY" }}},</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
@@ -5314,15 +5326,15 @@
       <c r="D105">
         <v>30</v>
       </c>
-      <c r="G105" s="3" cm="1">
+      <c r="G105" s="2" cm="1">
         <f t="array" aca="1" ref="G105" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>304160714309</v>
-      </c>
-      <c r="H105" s="2">
+        <v>195664351857</v>
+      </c>
+      <c r="H105">
         <f t="shared" ca="1" si="6"/>
-        <v>1654657863</v>
-      </c>
-      <c r="I105" s="2">
+        <v>1654729603</v>
+      </c>
+      <c r="I105">
         <f t="shared" si="7"/>
         <v>1654732800</v>
       </c>
@@ -5336,7 +5348,7 @@
       </c>
       <c r="L105" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 304160714309, "submittedDateTime": 1654657863, "completedDateTime": 1654732800, "amount": 30, "memo": "VISIBLE 8663313527 CO" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 195664351857, "submittedDateTime": 1654729603, "completedDateTime": 1654732800, "amount": 30, "memo": "VISIBLE 8663313527 CO" }}},</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
@@ -5352,15 +5364,15 @@
       <c r="E106">
         <v>-1085.99</v>
       </c>
-      <c r="G106" s="3" cm="1">
+      <c r="G106" s="2" cm="1">
         <f t="array" aca="1" ref="G106" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>598917005925</v>
-      </c>
-      <c r="H106" s="2">
+        <v>342768608852</v>
+      </c>
+      <c r="H106">
         <f t="shared" ca="1" si="6"/>
-        <v>1654877089</v>
-      </c>
-      <c r="I106" s="2">
+        <v>1654884275</v>
+      </c>
+      <c r="I106">
         <f t="shared" si="7"/>
         <v>1654905600</v>
       </c>
@@ -5374,7 +5386,7 @@
       </c>
       <c r="L106" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 598917005925, "submittedDateTime": 1654877089, "completedDateTime": 1654905600, "amount": -1085.99, "memo": "ONLINE PAYMENT, THANK YOU" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 342768608852, "submittedDateTime": 1654884275, "completedDateTime": 1654905600, "amount": -1085.99, "memo": "ONLINE PAYMENT, THANK YOU" }}},</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
@@ -5390,15 +5402,15 @@
       <c r="D107">
         <v>61.94</v>
       </c>
-      <c r="G107" s="3" cm="1">
+      <c r="G107" s="2" cm="1">
         <f t="array" aca="1" ref="G107" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>359991678203</v>
-      </c>
-      <c r="H107" s="2">
+        <v>334321869864</v>
+      </c>
+      <c r="H107">
         <f t="shared" ca="1" si="6"/>
-        <v>1655088353</v>
-      </c>
-      <c r="I107" s="2">
+        <v>1655094387</v>
+      </c>
+      <c r="I107">
         <f t="shared" si="7"/>
         <v>1655164800</v>
       </c>
@@ -5412,7 +5424,7 @@
       </c>
       <c r="L107" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 359991678203, "submittedDateTime": 1655088353, "completedDateTime": 1655164800, "amount": 61.94, "memo": "Tesla Insurance Servic Fremont CA null XXXXXXXXXXXX3777" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 334321869864, "submittedDateTime": 1655094387, "completedDateTime": 1655164800, "amount": 61.94, "memo": "Tesla Insurance Servic Fremont CA null XXXXXXXXXXXX3777" }}},</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
@@ -5428,15 +5440,15 @@
       <c r="D108">
         <v>70.75</v>
       </c>
-      <c r="G108" s="3" cm="1">
+      <c r="G108" s="2" cm="1">
         <f t="array" aca="1" ref="G108" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>826711618850</v>
-      </c>
-      <c r="H108" s="2">
+        <v>334321869864</v>
+      </c>
+      <c r="H108">
         <f t="shared" ca="1" si="6"/>
-        <v>1655284220</v>
-      </c>
-      <c r="I108" s="2">
+        <v>1655277245</v>
+      </c>
+      <c r="I108">
         <f t="shared" si="7"/>
         <v>1655337600</v>
       </c>
@@ -5450,7 +5462,7 @@
       </c>
       <c r="L108" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 826711618850, "submittedDateTime": 1655284220, "completedDateTime": 1655337600, "amount": 70.75, "memo": "SP IFIXIT SAN LUIS OBIS CA" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 334321869864, "submittedDateTime": 1655277245, "completedDateTime": 1655337600, "amount": 70.75, "memo": "SP IFIXIT SAN LUIS OBIS CA" }}},</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
@@ -5466,15 +5478,15 @@
       <c r="D109">
         <v>65.91</v>
       </c>
-      <c r="G109" s="3" cm="1">
+      <c r="G109" s="2" cm="1">
         <f t="array" aca="1" ref="G109" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>861239476106</v>
-      </c>
-      <c r="H109" s="2">
+        <v>583736154011</v>
+      </c>
+      <c r="H109">
         <f t="shared" ca="1" si="6"/>
-        <v>1655405702</v>
-      </c>
-      <c r="I109" s="2">
+        <v>1655367538</v>
+      </c>
+      <c r="I109">
         <f t="shared" si="7"/>
         <v>1655424000</v>
       </c>
@@ -5488,7 +5500,7 @@
       </c>
       <c r="L109" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 861239476106, "submittedDateTime": 1655405702, "completedDateTime": 1655424000, "amount": 65.91, "memo": "CIN BELL ELEC PAY 513-5652210 OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 583736154011, "submittedDateTime": 1655367538, "completedDateTime": 1655424000, "amount": 65.91, "memo": "CIN BELL ELEC PAY 513-5652210 OH" }}},</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
@@ -5504,15 +5516,15 @@
       <c r="D110">
         <v>72</v>
       </c>
-      <c r="G110" s="3" cm="1">
+      <c r="G110" s="2" cm="1">
         <f t="array" aca="1" ref="G110" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>359991678203</v>
-      </c>
-      <c r="H110" s="2">
+        <v>663912409988</v>
+      </c>
+      <c r="H110">
         <f t="shared" ca="1" si="6"/>
-        <v>1655661648</v>
-      </c>
-      <c r="I110" s="2">
+        <v>1655661997</v>
+      </c>
+      <c r="I110">
         <f t="shared" si="7"/>
         <v>1655683200</v>
       </c>
@@ -5526,7 +5538,7 @@
       </c>
       <c r="L110" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 359991678203, "submittedDateTime": 1655661648, "completedDateTime": 1655683200, "amount": 72, "memo": "SQ *CATHOLIC KOLPING S Cincinnati OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 663912409988, "submittedDateTime": 1655661997, "completedDateTime": 1655683200, "amount": 72, "memo": "SQ *CATHOLIC KOLPING S Cincinnati OH" }}},</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
@@ -5542,15 +5554,15 @@
       <c r="E111">
         <v>-35</v>
       </c>
-      <c r="G111" s="3" cm="1">
+      <c r="G111" s="2" cm="1">
         <f t="array" aca="1" ref="G111" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>669914345717</v>
-      </c>
-      <c r="H111" s="2">
+        <v>334321869864</v>
+      </c>
+      <c r="H111">
         <f t="shared" ca="1" si="6"/>
-        <v>1656275981</v>
-      </c>
-      <c r="I111" s="2">
+        <v>1656275676</v>
+      </c>
+      <c r="I111">
         <f t="shared" si="7"/>
         <v>1656288000</v>
       </c>
@@ -5564,7 +5576,7 @@
       </c>
       <c r="L111" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 669914345717, "submittedDateTime": 1656275981, "completedDateTime": 1656288000, "amount": -35, "memo": "AUTOPAY 220614032635645RAUTOPAY AUTO-PMT" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 334321869864, "submittedDateTime": 1656275676, "completedDateTime": 1656288000, "amount": -35, "memo": "AUTOPAY 220614032635645RAUTOPAY AUTO-PMT" }}},</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
@@ -5580,15 +5592,15 @@
       <c r="D112">
         <v>0.66</v>
       </c>
-      <c r="G112" s="3" cm="1">
+      <c r="G112" s="2" cm="1">
         <f t="array" aca="1" ref="G112" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>861239476106</v>
-      </c>
-      <c r="H112" s="2">
+        <v>422657850099</v>
+      </c>
+      <c r="H112">
         <f t="shared" ca="1" si="6"/>
-        <v>1656343229</v>
-      </c>
-      <c r="I112" s="2">
+        <v>1656308803</v>
+      </c>
+      <c r="I112">
         <f t="shared" si="7"/>
         <v>1656374400</v>
       </c>
@@ -5602,7 +5614,7 @@
       </c>
       <c r="L112" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 861239476106, "submittedDateTime": 1656343229, "completedDateTime": 1656374400, "amount": 0.66, "memo": "Tesla Insurance Servic Fremont CA null XXXXXXXXXXXX3777" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 422657850099, "submittedDateTime": 1656308803, "completedDateTime": 1656374400, "amount": 0.66, "memo": "Tesla Insurance Servic Fremont CA null XXXXXXXXXXXX3777" }}},</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.2">
@@ -5618,15 +5630,15 @@
       <c r="D113">
         <v>18</v>
       </c>
-      <c r="G113" s="3" cm="1">
+      <c r="G113" s="2" cm="1">
         <f t="array" aca="1" ref="G113" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>826711618850</v>
-      </c>
-      <c r="H113" s="2">
+        <v>602716875113</v>
+      </c>
+      <c r="H113">
         <f t="shared" ca="1" si="6"/>
-        <v>1656289367</v>
-      </c>
-      <c r="I113" s="2">
+        <v>1656325565</v>
+      </c>
+      <c r="I113">
         <f t="shared" si="7"/>
         <v>1656374400</v>
       </c>
@@ -5640,7 +5652,7 @@
       </c>
       <c r="L113" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 826711618850, "submittedDateTime": 1656289367, "completedDateTime": 1656374400, "amount": 18, "memo": "THE DAVID PAKMAN SHOW BOSTON MA" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 602716875113, "submittedDateTime": 1656325565, "completedDateTime": 1656374400, "amount": 18, "memo": "THE DAVID PAKMAN SHOW BOSTON MA" }}},</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
@@ -5656,15 +5668,15 @@
       <c r="D114">
         <v>64.680000000000007</v>
       </c>
-      <c r="G114" s="3" cm="1">
+      <c r="G114" s="2" cm="1">
         <f t="array" aca="1" ref="G114" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>826711618850</v>
-      </c>
-      <c r="H114" s="2">
+        <v>334321869864</v>
+      </c>
+      <c r="H114">
         <f t="shared" ca="1" si="6"/>
-        <v>1656323780</v>
-      </c>
-      <c r="I114" s="2">
+        <v>1656300730</v>
+      </c>
+      <c r="I114">
         <f t="shared" si="7"/>
         <v>1656374400</v>
       </c>
@@ -5678,7 +5690,7 @@
       </c>
       <c r="L114" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 826711618850, "submittedDateTime": 1656323780, "completedDateTime": 1656374400, "amount": 64.68, "memo": "WALMART.COM AA 8009666546 AR" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 334321869864, "submittedDateTime": 1656300730, "completedDateTime": 1656374400, "amount": 64.68, "memo": "WALMART.COM AA 8009666546 AR" }}},</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
@@ -5694,15 +5706,15 @@
       <c r="E115">
         <v>-318.94</v>
       </c>
-      <c r="G115" s="3" cm="1">
+      <c r="G115" s="2" cm="1">
         <f t="array" aca="1" ref="G115" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>749596570472</v>
-      </c>
-      <c r="H115" s="2">
+        <v>334321869864</v>
+      </c>
+      <c r="H115">
         <f t="shared" ca="1" si="6"/>
-        <v>1656677620</v>
-      </c>
-      <c r="I115" s="2">
+        <v>1656656356</v>
+      </c>
+      <c r="I115">
         <f t="shared" si="7"/>
         <v>1656720000</v>
       </c>
@@ -5716,7 +5728,7 @@
       </c>
       <c r="L115" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 749596570472, "submittedDateTime": 1656677620, "completedDateTime": 1656720000, "amount": -318.94, "memo": "ONLINE PAYMENT, THANK YOU" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 334321869864, "submittedDateTime": 1656656356, "completedDateTime": 1656720000, "amount": -318.94, "memo": "ONLINE PAYMENT, THANK YOU" }}},</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
@@ -5732,15 +5744,15 @@
       <c r="D116">
         <v>40.74</v>
       </c>
-      <c r="G116" s="3" cm="1">
+      <c r="G116" s="2" cm="1">
         <f t="array" aca="1" ref="G116" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>749596570472</v>
-      </c>
-      <c r="H116" s="2">
+        <v>129025537739</v>
+      </c>
+      <c r="H116">
         <f t="shared" ca="1" si="6"/>
-        <v>1656703081</v>
-      </c>
-      <c r="I116" s="2">
+        <v>1656668940</v>
+      </c>
+      <c r="I116">
         <f t="shared" si="7"/>
         <v>1656720000</v>
       </c>
@@ -5754,7 +5766,7 @@
       </c>
       <c r="L116" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 749596570472, "submittedDateTime": 1656703081, "completedDateTime": 1656720000, "amount": 40.74, "memo": "SPI*DUKE-ENERGY 800-777-9898 NC" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 129025537739, "submittedDateTime": 1656668940, "completedDateTime": 1656720000, "amount": 40.74, "memo": "SPI*DUKE-ENERGY 800-777-9898 NC" }}},</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
@@ -5770,15 +5782,15 @@
       <c r="D117">
         <v>65.91</v>
       </c>
-      <c r="G117" s="3" cm="1">
+      <c r="G117" s="2" cm="1">
         <f t="array" aca="1" ref="G117" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>304160714309</v>
-      </c>
-      <c r="H117" s="2">
+        <v>129025537739</v>
+      </c>
+      <c r="H117">
         <f t="shared" ca="1" si="6"/>
-        <v>1656967313</v>
-      </c>
-      <c r="I117" s="2">
+        <v>1656904853</v>
+      </c>
+      <c r="I117">
         <f t="shared" si="7"/>
         <v>1656979200</v>
       </c>
@@ -5792,7 +5804,7 @@
       </c>
       <c r="L117" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 304160714309, "submittedDateTime": 1656967313, "completedDateTime": 1656979200, "amount": 65.91, "memo": "CIN BELL ELEC PAY 513-5652210 OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 129025537739, "submittedDateTime": 1656904853, "completedDateTime": 1656979200, "amount": 65.91, "memo": "CIN BELL ELEC PAY 513-5652210 OH" }}},</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
@@ -5808,15 +5820,15 @@
       <c r="D118">
         <v>12.93</v>
       </c>
-      <c r="G118" s="3" cm="1">
+      <c r="G118" s="2" cm="1">
         <f t="array" aca="1" ref="G118" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>598917005925</v>
-      </c>
-      <c r="H118" s="2">
+        <v>129025537739</v>
+      </c>
+      <c r="H118">
         <f t="shared" ca="1" si="6"/>
-        <v>1657046074</v>
-      </c>
-      <c r="I118" s="2">
+        <v>1657039689</v>
+      </c>
+      <c r="I118">
         <f t="shared" si="7"/>
         <v>1657065600</v>
       </c>
@@ -5830,7 +5842,7 @@
       </c>
       <c r="L118" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 598917005925, "submittedDateTime": 1657046074, "completedDateTime": 1657065600, "amount": 12.93, "memo": "GOOGLE *YouTubePremium 650-253-0000 CA" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 129025537739, "submittedDateTime": 1657039689, "completedDateTime": 1657065600, "amount": 12.93, "memo": "GOOGLE *YouTubePremium 650-253-0000 CA" }}},</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
@@ -5846,15 +5858,15 @@
       <c r="E119">
         <v>-119.58</v>
       </c>
-      <c r="G119" s="3" cm="1">
+      <c r="G119" s="2" cm="1">
         <f t="array" aca="1" ref="G119" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>861239476106</v>
-      </c>
-      <c r="H119" s="2">
+        <v>602716875113</v>
+      </c>
+      <c r="H119">
         <f t="shared" ca="1" si="6"/>
-        <v>1657289035</v>
-      </c>
-      <c r="I119" s="2">
+        <v>1657307660</v>
+      </c>
+      <c r="I119">
         <f t="shared" si="7"/>
         <v>1657324800</v>
       </c>
@@ -5868,7 +5880,7 @@
       </c>
       <c r="L119" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 861239476106, "submittedDateTime": 1657289035, "completedDateTime": 1657324800, "amount": -119.58, "memo": "ONLINE PAYMENT, THANK YOU" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 602716875113, "submittedDateTime": 1657307660, "completedDateTime": 1657324800, "amount": -119.58, "memo": "ONLINE PAYMENT, THANK YOU" }}},</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.2">
@@ -5884,15 +5896,15 @@
       <c r="D120">
         <v>30</v>
       </c>
-      <c r="G120" s="3" cm="1">
+      <c r="G120" s="2" cm="1">
         <f t="array" aca="1" ref="G120" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>594392737621</v>
-      </c>
-      <c r="H120" s="2">
+        <v>663912409988</v>
+      </c>
+      <c r="H120">
         <f t="shared" ca="1" si="6"/>
-        <v>1657259759</v>
-      </c>
-      <c r="I120" s="2">
+        <v>1657265579</v>
+      </c>
+      <c r="I120">
         <f t="shared" si="7"/>
         <v>1657324800</v>
       </c>
@@ -5906,7 +5918,7 @@
       </c>
       <c r="L120" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 594392737621, "submittedDateTime": 1657259759, "completedDateTime": 1657324800, "amount": 30, "memo": "VISIBLE 8663313527 CO" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 663912409988, "submittedDateTime": 1657265579, "completedDateTime": 1657324800, "amount": 30, "memo": "VISIBLE 8663313527 CO" }}},</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
@@ -5922,15 +5934,15 @@
       <c r="D121">
         <v>0</v>
       </c>
-      <c r="G121" s="3" cm="1">
+      <c r="G121" s="2" cm="1">
         <f t="array" aca="1" ref="G121" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>598917005925</v>
-      </c>
-      <c r="H121" s="2">
+        <v>334321869864</v>
+      </c>
+      <c r="H121">
         <f t="shared" ca="1" si="6"/>
-        <v>1657285936</v>
-      </c>
-      <c r="I121" s="2">
+        <v>1657270598</v>
+      </c>
+      <c r="I121">
         <f t="shared" si="7"/>
         <v>1657324800</v>
       </c>
@@ -5944,7 +5956,7 @@
       </c>
       <c r="L121" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 598917005925, "submittedDateTime": 1657285936, "completedDateTime": 1657324800, "amount": 0, "memo": "MEMBERSHIP FEE JUL 22-JUN 23" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 334321869864, "submittedDateTime": 1657270598, "completedDateTime": 1657324800, "amount": 0, "memo": "MEMBERSHIP FEE JUL 22-JUN 23" }}},</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.2">
@@ -5960,15 +5972,15 @@
       <c r="D122">
         <v>11.51</v>
       </c>
-      <c r="G122" s="3" cm="1">
+      <c r="G122" s="2" cm="1">
         <f t="array" aca="1" ref="G122" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>304160714309</v>
-      </c>
-      <c r="H122" s="2">
+        <v>852888074021</v>
+      </c>
+      <c r="H122">
         <f t="shared" ca="1" si="6"/>
-        <v>1658122186</v>
-      </c>
-      <c r="I122" s="2">
+        <v>1658135978</v>
+      </c>
+      <c r="I122">
         <f t="shared" si="7"/>
         <v>1658188800</v>
       </c>
@@ -5982,7 +5994,7 @@
       </c>
       <c r="L122" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 304160714309, "submittedDateTime": 1658122186, "completedDateTime": 1658188800, "amount": 11.51, "memo": "TST* Rotolo Bowling Southgate KY" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 852888074021, "submittedDateTime": 1658135978, "completedDateTime": 1658188800, "amount": 11.51, "memo": "TST* Rotolo Bowling Southgate KY" }}},</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.2">
@@ -5998,15 +6010,15 @@
       <c r="D123">
         <v>23.35</v>
       </c>
-      <c r="G123" s="3" cm="1">
+      <c r="G123" s="2" cm="1">
         <f t="array" aca="1" ref="G123" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>304160714309</v>
-      </c>
-      <c r="H123" s="2">
+        <v>422657850099</v>
+      </c>
+      <c r="H123">
         <f t="shared" ca="1" si="6"/>
-        <v>1658134812</v>
-      </c>
-      <c r="I123" s="2">
+        <v>1658134607</v>
+      </c>
+      <c r="I123">
         <f t="shared" si="7"/>
         <v>1658188800</v>
       </c>
@@ -6020,7 +6032,7 @@
       </c>
       <c r="L123" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 304160714309, "submittedDateTime": 1658134812, "completedDateTime": 1658188800, "amount": 23.35, "memo": "TST* Rotolo Bowling Southgate KY" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 422657850099, "submittedDateTime": 1658134607, "completedDateTime": 1658188800, "amount": 23.35, "memo": "TST* Rotolo Bowling Southgate KY" }}},</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.2">
@@ -6036,15 +6048,15 @@
       <c r="D124">
         <v>12.18</v>
       </c>
-      <c r="G124" s="3" cm="1">
+      <c r="G124" s="2" cm="1">
         <f t="array" aca="1" ref="G124" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>402123746805</v>
-      </c>
-      <c r="H124" s="2">
+        <v>334321869864</v>
+      </c>
+      <c r="H124">
         <f t="shared" ca="1" si="6"/>
-        <v>1658204572</v>
-      </c>
-      <c r="I124" s="2">
+        <v>1658265608</v>
+      </c>
+      <c r="I124">
         <f t="shared" si="7"/>
         <v>1658275200</v>
       </c>
@@ -6058,7 +6070,7 @@
       </c>
       <c r="L124" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 402123746805, "submittedDateTime": 1658204572, "completedDateTime": 1658275200, "amount": 12.18, "memo": "CHILI'S FLORENCE #1706 FLORENCE KY" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 334321869864, "submittedDateTime": 1658265608, "completedDateTime": 1658275200, "amount": 12.18, "memo": "CHILI'S FLORENCE #1706 FLORENCE KY" }}},</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.2">
@@ -6074,15 +6086,15 @@
       <c r="D125">
         <v>15.68</v>
       </c>
-      <c r="G125" s="3" cm="1">
+      <c r="G125" s="2" cm="1">
         <f t="array" aca="1" ref="G125" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>669914345717</v>
-      </c>
-      <c r="H125" s="2">
+        <v>663912409988</v>
+      </c>
+      <c r="H125">
         <f t="shared" ca="1" si="6"/>
-        <v>1658220742</v>
-      </c>
-      <c r="I125" s="2">
+        <v>1658253189</v>
+      </c>
+      <c r="I125">
         <f t="shared" si="7"/>
         <v>1658275200</v>
       </c>
@@ -6096,7 +6108,7 @@
       </c>
       <c r="L125" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 669914345717, "submittedDateTime": 1658220742, "completedDateTime": 1658275200, "amount": 15.68, "memo": "CHEDDAR'S 0202134 FLORENCE KY" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 663912409988, "submittedDateTime": 1658253189, "completedDateTime": 1658275200, "amount": 15.68, "memo": "CHEDDAR'S 0202134 FLORENCE KY" }}},</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.2">
@@ -6112,15 +6124,15 @@
       <c r="D126">
         <v>14.71</v>
       </c>
-      <c r="G126" s="3" cm="1">
+      <c r="G126" s="2" cm="1">
         <f t="array" aca="1" ref="G126" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>359991678203</v>
-      </c>
-      <c r="H126" s="2">
+        <v>422657850099</v>
+      </c>
+      <c r="H126">
         <f t="shared" ca="1" si="6"/>
-        <v>1658445053</v>
-      </c>
-      <c r="I126" s="2">
+        <v>1658445406</v>
+      </c>
+      <c r="I126">
         <f t="shared" si="7"/>
         <v>1658448000</v>
       </c>
@@ -6134,7 +6146,7 @@
       </c>
       <c r="L126" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 359991678203, "submittedDateTime": 1658445053, "completedDateTime": 1658448000, "amount": 14.71, "memo": "SKYLINE CHILI 1003 FLORENCE KY" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 422657850099, "submittedDateTime": 1658445406, "completedDateTime": 1658448000, "amount": 14.71, "memo": "SKYLINE CHILI 1003 FLORENCE KY" }}},</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.2">
@@ -6150,15 +6162,15 @@
       <c r="D127">
         <v>31.25</v>
       </c>
-      <c r="G127" s="3" cm="1">
+      <c r="G127" s="2" cm="1">
         <f t="array" aca="1" ref="G127" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>498511217783</v>
-      </c>
-      <c r="H127" s="2">
+        <v>129025537739</v>
+      </c>
+      <c r="H127">
         <f t="shared" ca="1" si="6"/>
-        <v>1658488364</v>
-      </c>
-      <c r="I127" s="2">
+        <v>1658506776</v>
+      </c>
+      <c r="I127">
         <f t="shared" si="7"/>
         <v>1658534400</v>
       </c>
@@ -6172,7 +6184,7 @@
       </c>
       <c r="L127" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 498511217783, "submittedDateTime": 1658488364, "completedDateTime": 1658534400, "amount": 31.25, "memo": "KROGER #418 NORWOOD OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 129025537739, "submittedDateTime": 1658506776, "completedDateTime": 1658534400, "amount": 31.25, "memo": "KROGER #418 NORWOOD OH" }}},</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.2">
@@ -6188,15 +6200,15 @@
       <c r="D128">
         <v>71.150000000000006</v>
       </c>
-      <c r="G128" s="3" cm="1">
+      <c r="G128" s="2" cm="1">
         <f t="array" aca="1" ref="G128" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>399061551780</v>
-      </c>
-      <c r="H128" s="2">
+        <v>602716875113</v>
+      </c>
+      <c r="H128">
         <f t="shared" ca="1" si="6"/>
-        <v>1658552533</v>
-      </c>
-      <c r="I128" s="2">
+        <v>1658539735</v>
+      </c>
+      <c r="I128">
         <f t="shared" si="7"/>
         <v>1658620800</v>
       </c>
@@ -6210,7 +6222,7 @@
       </c>
       <c r="L128" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 399061551780, "submittedDateTime": 1658552533, "completedDateTime": 1658620800, "amount": 71.15, "memo": "WALMART.COM AA 8009666546 AR" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 602716875113, "submittedDateTime": 1658539735, "completedDateTime": 1658620800, "amount": 71.15, "memo": "WALMART.COM AA 8009666546 AR" }}},</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.2">
@@ -6226,15 +6238,15 @@
       <c r="E129">
         <v>-41</v>
       </c>
-      <c r="G129" s="3" cm="1">
+      <c r="G129" s="2" cm="1">
         <f t="array" aca="1" ref="G129" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>359991678203</v>
-      </c>
-      <c r="H129" s="2">
+        <v>422657850099</v>
+      </c>
+      <c r="H129">
         <f t="shared" ca="1" si="6"/>
-        <v>1658820237</v>
-      </c>
-      <c r="I129" s="2">
+        <v>1658829263</v>
+      </c>
+      <c r="I129">
         <f t="shared" si="7"/>
         <v>1658880000</v>
       </c>
@@ -6248,7 +6260,7 @@
       </c>
       <c r="L129" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 359991678203, "submittedDateTime": 1658820237, "completedDateTime": 1658880000, "amount": -41, "memo": "AUTOPAY 220614032635645RAUTOPAY AUTO-PMT" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 422657850099, "submittedDateTime": 1658829263, "completedDateTime": 1658880000, "amount": -41, "memo": "AUTOPAY 220614032635645RAUTOPAY AUTO-PMT" }}},</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
@@ -6264,15 +6276,15 @@
       <c r="D130">
         <v>60.61</v>
       </c>
-      <c r="G130" s="3" cm="1">
+      <c r="G130" s="2" cm="1">
         <f t="array" aca="1" ref="G130" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>826711618850</v>
-      </c>
-      <c r="H130" s="2">
+        <v>602716875113</v>
+      </c>
+      <c r="H130">
         <f t="shared" ca="1" si="6"/>
-        <v>1658824334</v>
-      </c>
-      <c r="I130" s="2">
+        <v>1658859393</v>
+      </c>
+      <c r="I130">
         <f t="shared" si="7"/>
         <v>1658880000</v>
       </c>
@@ -6286,7 +6298,7 @@
       </c>
       <c r="L130" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 826711618850, "submittedDateTime": 1658824334, "completedDateTime": 1658880000, "amount": 60.61, "memo": "Tesla Insurance Servic Fremont CA null XXXXXXXXXXXX3777" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 602716875113, "submittedDateTime": 1658859393, "completedDateTime": 1658880000, "amount": 60.61, "memo": "Tesla Insurance Servic Fremont CA null XXXXXXXXXXXX3777" }}},</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
@@ -6302,15 +6314,15 @@
       <c r="D131">
         <v>12.39</v>
       </c>
-      <c r="G131" s="3" cm="1">
+      <c r="G131" s="2" cm="1">
         <f t="array" aca="1" ref="G131" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>598917005925</v>
-      </c>
-      <c r="H131" s="2">
+        <v>583736154011</v>
+      </c>
+      <c r="H131">
         <f t="shared" ref="H131:H194" ca="1" si="11">_xlfn.FLOOR.MATH((B131-DATE(1970,1,1)+RAND())*86400)</f>
-        <v>1658875758</v>
-      </c>
-      <c r="I131" s="2">
+        <v>1658823963</v>
+      </c>
+      <c r="I131">
         <f t="shared" ref="I131:I194" si="12">_xlfn.FLOOR.MATH((B131-DATE(1970,1,1)+1)*86400)</f>
         <v>1658880000</v>
       </c>
@@ -6324,7 +6336,7 @@
       </c>
       <c r="L131" t="str">
         <f t="shared" ref="L131:L194" ca="1" si="15">"{ "&amp;CHAR(34)&amp; "PutRequest"&amp;CHAR(34)&amp;": { "&amp;CHAR(34)&amp;"Item"&amp;CHAR(34)&amp;": { "&amp;CHAR(34) &amp;G$1&amp;CHAR(34) &amp;": "&amp;G131&amp; ", "&amp;CHAR(34) &amp;H$1&amp;CHAR(34) &amp;": "&amp;H131&amp; ", "&amp;CHAR(34) &amp;I$1&amp;CHAR(34) &amp;": "&amp;I131&amp; ", "&amp;CHAR(34) &amp;J$1&amp;CHAR(34) &amp;": "&amp;J131&amp; ", "&amp;CHAR(34) &amp;K$1&amp;CHAR(34) &amp;": "&amp;CHAR(34)&amp;K131&amp;CHAR(34) &amp;" }}},"</f>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 598917005925, "submittedDateTime": 1658875758, "completedDateTime": 1658880000, "amount": 12.39, "memo": "PANERA BREAD #204911 P FLORENCE KY" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 583736154011, "submittedDateTime": 1658823963, "completedDateTime": 1658880000, "amount": 12.39, "memo": "PANERA BREAD #204911 P FLORENCE KY" }}},</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.2">
@@ -6340,15 +6352,15 @@
       <c r="D132">
         <v>14.18</v>
       </c>
-      <c r="G132" s="3" cm="1">
+      <c r="G132" s="2" cm="1">
         <f t="array" aca="1" ref="G132" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>598917005925</v>
-      </c>
-      <c r="H132" s="2">
+        <v>129025537739</v>
+      </c>
+      <c r="H132">
         <f t="shared" ca="1" si="11"/>
-        <v>1658909296</v>
-      </c>
-      <c r="I132" s="2">
+        <v>1658935095</v>
+      </c>
+      <c r="I132">
         <f t="shared" si="12"/>
         <v>1658966400</v>
       </c>
@@ -6362,7 +6374,7 @@
       </c>
       <c r="L132" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 598917005925, "submittedDateTime": 1658909296, "completedDateTime": 1658966400, "amount": 14.18, "memo": "PANERA BREAD #204911 P FLORENCE KY" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 129025537739, "submittedDateTime": 1658935095, "completedDateTime": 1658966400, "amount": 14.18, "memo": "PANERA BREAD #204911 P FLORENCE KY" }}},</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
@@ -6378,15 +6390,15 @@
       <c r="E133">
         <v>-241.83</v>
       </c>
-      <c r="G133" s="3" cm="1">
+      <c r="G133" s="2" cm="1">
         <f t="array" aca="1" ref="G133" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>749596570472</v>
-      </c>
-      <c r="H133" s="2">
+        <v>985663880614</v>
+      </c>
+      <c r="H133">
         <f t="shared" ca="1" si="11"/>
-        <v>1659019671</v>
-      </c>
-      <c r="I133" s="2">
+        <v>1659004520</v>
+      </c>
+      <c r="I133">
         <f t="shared" si="12"/>
         <v>1659052800</v>
       </c>
@@ -6400,7 +6412,7 @@
       </c>
       <c r="L133" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 749596570472, "submittedDateTime": 1659019671, "completedDateTime": 1659052800, "amount": -241.83, "memo": "ONLINE PAYMENT, THANK YOU" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 985663880614, "submittedDateTime": 1659004520, "completedDateTime": 1659052800, "amount": -241.83, "memo": "ONLINE PAYMENT, THANK YOU" }}},</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
@@ -6416,15 +6428,15 @@
       <c r="D134">
         <v>49.04</v>
       </c>
-      <c r="G134" s="3" cm="1">
+      <c r="G134" s="2" cm="1">
         <f t="array" aca="1" ref="G134" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>402123746805</v>
-      </c>
-      <c r="H134" s="2">
+        <v>985663880614</v>
+      </c>
+      <c r="H134">
         <f t="shared" ca="1" si="11"/>
-        <v>1658977331</v>
-      </c>
-      <c r="I134" s="2">
+        <v>1658999753</v>
+      </c>
+      <c r="I134">
         <f t="shared" si="12"/>
         <v>1659052800</v>
       </c>
@@ -6438,7 +6450,7 @@
       </c>
       <c r="L134" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 402123746805, "submittedDateTime": 1658977331, "completedDateTime": 1659052800, "amount": 49.04, "memo": "PLAYSTATION NETWORK 800-345-7669 CA" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 985663880614, "submittedDateTime": 1658999753, "completedDateTime": 1659052800, "amount": 49.04, "memo": "PLAYSTATION NETWORK 800-345-7669 CA" }}},</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
@@ -6454,15 +6466,15 @@
       <c r="E135">
         <v>-129.66999999999999</v>
       </c>
-      <c r="G135" s="3" cm="1">
+      <c r="G135" s="2" cm="1">
         <f t="array" aca="1" ref="G135" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>304160714309</v>
-      </c>
-      <c r="H135" s="2">
+        <v>140032156448</v>
+      </c>
+      <c r="H135">
         <f t="shared" ca="1" si="11"/>
-        <v>1659218037</v>
-      </c>
-      <c r="I135" s="2">
+        <v>1659151869</v>
+      </c>
+      <c r="I135">
         <f t="shared" si="12"/>
         <v>1659225600</v>
       </c>
@@ -6476,7 +6488,7 @@
       </c>
       <c r="L135" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 304160714309, "submittedDateTime": 1659218037, "completedDateTime": 1659225600, "amount": -129.67, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 140032156448, "submittedDateTime": 1659151869, "completedDateTime": 1659225600, "amount": -129.67, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" }}},</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.2">
@@ -6492,15 +6504,15 @@
       <c r="D136">
         <v>150</v>
       </c>
-      <c r="G136" s="3" cm="1">
+      <c r="G136" s="2" cm="1">
         <f t="array" aca="1" ref="G136" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>359991678203</v>
-      </c>
-      <c r="H136" s="2">
+        <v>334321869864</v>
+      </c>
+      <c r="H136">
         <f t="shared" ca="1" si="11"/>
-        <v>1659153261</v>
-      </c>
-      <c r="I136" s="2">
+        <v>1659196498</v>
+      </c>
+      <c r="I136">
         <f t="shared" si="12"/>
         <v>1659225600</v>
       </c>
@@ -6514,7 +6526,7 @@
       </c>
       <c r="L136" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 359991678203, "submittedDateTime": 1659153261, "completedDateTime": 1659225600, "amount": 150, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 334321869864, "submittedDateTime": 1659196498, "completedDateTime": 1659225600, "amount": 150, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" }}},</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
@@ -6530,15 +6542,15 @@
       <c r="D137">
         <v>14.18</v>
       </c>
-      <c r="G137" s="3" cm="1">
+      <c r="G137" s="2" cm="1">
         <f t="array" aca="1" ref="G137" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>304160714309</v>
-      </c>
-      <c r="H137" s="2">
+        <v>334321869864</v>
+      </c>
+      <c r="H137">
         <f t="shared" ca="1" si="11"/>
-        <v>1659295910</v>
-      </c>
-      <c r="I137" s="2">
+        <v>1659295572</v>
+      </c>
+      <c r="I137">
         <f t="shared" si="12"/>
         <v>1659312000</v>
       </c>
@@ -6552,7 +6564,7 @@
       </c>
       <c r="L137" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 304160714309, "submittedDateTime": 1659295910, "completedDateTime": 1659312000, "amount": 14.18, "memo": "PANERA BREAD #204911 P FLORENCE KY" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 334321869864, "submittedDateTime": 1659295572, "completedDateTime": 1659312000, "amount": 14.18, "memo": "PANERA BREAD #204911 P FLORENCE KY" }}},</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
@@ -6568,15 +6580,15 @@
       <c r="D138">
         <v>14.18</v>
       </c>
-      <c r="G138" s="3" cm="1">
+      <c r="G138" s="2" cm="1">
         <f t="array" aca="1" ref="G138" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>399061551780</v>
-      </c>
-      <c r="H138" s="2">
+        <v>663912409988</v>
+      </c>
+      <c r="H138">
         <f t="shared" ca="1" si="11"/>
-        <v>1659366952</v>
-      </c>
-      <c r="I138" s="2">
+        <v>1659324553</v>
+      </c>
+      <c r="I138">
         <f t="shared" si="12"/>
         <v>1659398400</v>
       </c>
@@ -6590,7 +6602,7 @@
       </c>
       <c r="L138" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 399061551780, "submittedDateTime": 1659366952, "completedDateTime": 1659398400, "amount": 14.18, "memo": "PANERA BREAD #204911 P FLORENCE KY" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 663912409988, "submittedDateTime": 1659324553, "completedDateTime": 1659398400, "amount": 14.18, "memo": "PANERA BREAD #204911 P FLORENCE KY" }}},</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
@@ -6606,15 +6618,15 @@
       <c r="D139">
         <v>1.9</v>
       </c>
-      <c r="G139" s="3" cm="1">
+      <c r="G139" s="2" cm="1">
         <f t="array" aca="1" ref="G139" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>749596570472</v>
-      </c>
-      <c r="H139" s="2">
+        <v>852888074021</v>
+      </c>
+      <c r="H139">
         <f t="shared" ca="1" si="11"/>
-        <v>1659457731</v>
-      </c>
-      <c r="I139" s="2">
+        <v>1659409583</v>
+      </c>
+      <c r="I139">
         <f t="shared" si="12"/>
         <v>1659484800</v>
       </c>
@@ -6628,7 +6640,7 @@
       </c>
       <c r="L139" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 749596570472, "submittedDateTime": 1659457731, "completedDateTime": 1659484800, "amount": 1.9, "memo": "WENDY'S - TURFWAY FLORENCE KY" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 852888074021, "submittedDateTime": 1659409583, "completedDateTime": 1659484800, "amount": 1.9, "memo": "WENDY'S - TURFWAY FLORENCE KY" }}},</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
@@ -6644,15 +6656,15 @@
       <c r="E140">
         <v>-111.91</v>
       </c>
-      <c r="G140" s="3" cm="1">
+      <c r="G140" s="2" cm="1">
         <f t="array" aca="1" ref="G140" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>732504662515</v>
-      </c>
-      <c r="H140" s="2">
+        <v>583736154011</v>
+      </c>
+      <c r="H140">
         <f t="shared" ca="1" si="11"/>
-        <v>1659542944</v>
-      </c>
-      <c r="I140" s="2">
+        <v>1659500222</v>
+      </c>
+      <c r="I140">
         <f t="shared" si="12"/>
         <v>1659571200</v>
       </c>
@@ -6666,7 +6678,7 @@
       </c>
       <c r="L140" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 732504662515, "submittedDateTime": 1659542944, "completedDateTime": 1659571200, "amount": -111.91, "memo": "ONLINE PAYMENT, THANK YOU" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 583736154011, "submittedDateTime": 1659500222, "completedDateTime": 1659571200, "amount": -111.91, "memo": "ONLINE PAYMENT, THANK YOU" }}},</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
@@ -6682,15 +6694,15 @@
       <c r="D141">
         <v>12.93</v>
       </c>
-      <c r="G141" s="3" cm="1">
+      <c r="G141" s="2" cm="1">
         <f t="array" aca="1" ref="G141" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>359991678203</v>
-      </c>
-      <c r="H141" s="2">
+        <v>583736154011</v>
+      </c>
+      <c r="H141">
         <f t="shared" ca="1" si="11"/>
-        <v>1659736137</v>
-      </c>
-      <c r="I141" s="2">
+        <v>1659668176</v>
+      </c>
+      <c r="I141">
         <f t="shared" si="12"/>
         <v>1659744000</v>
       </c>
@@ -6704,7 +6716,7 @@
       </c>
       <c r="L141" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 359991678203, "submittedDateTime": 1659736137, "completedDateTime": 1659744000, "amount": 12.93, "memo": "GOOGLE *YouTubePremium 650-253-0000 CA" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 583736154011, "submittedDateTime": 1659668176, "completedDateTime": 1659744000, "amount": 12.93, "memo": "GOOGLE *YouTubePremium 650-253-0000 CA" }}},</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
@@ -6720,15 +6732,15 @@
       <c r="D142">
         <v>13.23</v>
       </c>
-      <c r="G142" s="3" cm="1">
+      <c r="G142" s="2" cm="1">
         <f t="array" aca="1" ref="G142" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>359991678203</v>
-      </c>
-      <c r="H142" s="2">
+        <v>342768608852</v>
+      </c>
+      <c r="H142">
         <f t="shared" ca="1" si="11"/>
-        <v>1659907507</v>
-      </c>
-      <c r="I142" s="2">
+        <v>1659884624</v>
+      </c>
+      <c r="I142">
         <f t="shared" si="12"/>
         <v>1659916800</v>
       </c>
@@ -6742,7 +6754,7 @@
       </c>
       <c r="L142" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 359991678203, "submittedDateTime": 1659907507, "completedDateTime": 1659916800, "amount": 13.23, "memo": "PANERA BREAD #204911 P FLORENCE KY" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 342768608852, "submittedDateTime": 1659884624, "completedDateTime": 1659916800, "amount": 13.23, "memo": "PANERA BREAD #204911 P FLORENCE KY" }}},</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.2">
@@ -6758,15 +6770,15 @@
       <c r="D143">
         <v>30</v>
       </c>
-      <c r="G143" s="3" cm="1">
+      <c r="G143" s="2" cm="1">
         <f t="array" aca="1" ref="G143" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>861239476106</v>
-      </c>
-      <c r="H143" s="2">
+        <v>129025537739</v>
+      </c>
+      <c r="H143">
         <f t="shared" ca="1" si="11"/>
-        <v>1659935758</v>
-      </c>
-      <c r="I143" s="2">
+        <v>1659958765</v>
+      </c>
+      <c r="I143">
         <f t="shared" si="12"/>
         <v>1660003200</v>
       </c>
@@ -6780,7 +6792,7 @@
       </c>
       <c r="L143" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 861239476106, "submittedDateTime": 1659935758, "completedDateTime": 1660003200, "amount": 30, "memo": "VISIBLE 8663313527 CO" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 129025537739, "submittedDateTime": 1659958765, "completedDateTime": 1660003200, "amount": 30, "memo": "VISIBLE 8663313527 CO" }}},</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.2">
@@ -6796,15 +6808,15 @@
       <c r="D144">
         <v>15.18</v>
       </c>
-      <c r="G144" s="3" cm="1">
+      <c r="G144" s="2" cm="1">
         <f t="array" aca="1" ref="G144" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>861239476106</v>
-      </c>
-      <c r="H144" s="2">
+        <v>602716875113</v>
+      </c>
+      <c r="H144">
         <f t="shared" ca="1" si="11"/>
-        <v>1659973197</v>
-      </c>
-      <c r="I144" s="2">
+        <v>1659920490</v>
+      </c>
+      <c r="I144">
         <f t="shared" si="12"/>
         <v>1660003200</v>
       </c>
@@ -6818,7 +6830,7 @@
       </c>
       <c r="L144" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 861239476106, "submittedDateTime": 1659973197, "completedDateTime": 1660003200, "amount": 15.18, "memo": "PANERA BREAD #204911 P FLORENCE KY null XXXXXXXXXXXX4754" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 602716875113, "submittedDateTime": 1659920490, "completedDateTime": 1660003200, "amount": 15.18, "memo": "PANERA BREAD #204911 P FLORENCE KY null XXXXXXXXXXXX4754" }}},</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.2">
@@ -6834,15 +6846,15 @@
       <c r="D145">
         <v>14.18</v>
       </c>
-      <c r="G145" s="3" cm="1">
+      <c r="G145" s="2" cm="1">
         <f t="array" aca="1" ref="G145" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>359991678203</v>
-      </c>
-      <c r="H145" s="2">
+        <v>334321869864</v>
+      </c>
+      <c r="H145">
         <f t="shared" ca="1" si="11"/>
-        <v>1660057491</v>
-      </c>
-      <c r="I145" s="2">
+        <v>1660014956</v>
+      </c>
+      <c r="I145">
         <f t="shared" si="12"/>
         <v>1660089600</v>
       </c>
@@ -6856,7 +6868,7 @@
       </c>
       <c r="L145" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 359991678203, "submittedDateTime": 1660057491, "completedDateTime": 1660089600, "amount": 14.18, "memo": "PANERA BREAD #204911 P FLORENCE KY" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 334321869864, "submittedDateTime": 1660014956, "completedDateTime": 1660089600, "amount": 14.18, "memo": "PANERA BREAD #204911 P FLORENCE KY" }}},</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.2">
@@ -6872,15 +6884,15 @@
       <c r="D146">
         <v>12.65</v>
       </c>
-      <c r="G146" s="3" cm="1">
+      <c r="G146" s="2" cm="1">
         <f t="array" aca="1" ref="G146" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>594392737621</v>
-      </c>
-      <c r="H146" s="2">
+        <v>583736154011</v>
+      </c>
+      <c r="H146">
         <f t="shared" ca="1" si="11"/>
-        <v>1660141459</v>
-      </c>
-      <c r="I146" s="2">
+        <v>1660103907</v>
+      </c>
+      <c r="I146">
         <f t="shared" si="12"/>
         <v>1660176000</v>
       </c>
@@ -6894,7 +6906,7 @@
       </c>
       <c r="L146" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 594392737621, "submittedDateTime": 1660141459, "completedDateTime": 1660176000, "amount": 12.65, "memo": "SQ *BAM BAM'S Florence KY" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 583736154011, "submittedDateTime": 1660103907, "completedDateTime": 1660176000, "amount": 12.65, "memo": "SQ *BAM BAM'S Florence KY" }}},</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.2">
@@ -6910,15 +6922,15 @@
       <c r="D147">
         <v>60.61</v>
       </c>
-      <c r="G147" s="3" cm="1">
+      <c r="G147" s="2" cm="1">
         <f t="array" aca="1" ref="G147" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>598917005925</v>
-      </c>
-      <c r="H147" s="2">
+        <v>195664351857</v>
+      </c>
+      <c r="H147">
         <f t="shared" ca="1" si="11"/>
-        <v>1660418714</v>
-      </c>
-      <c r="I147" s="2">
+        <v>1660350938</v>
+      </c>
+      <c r="I147">
         <f t="shared" si="12"/>
         <v>1660435200</v>
       </c>
@@ -6932,7 +6944,7 @@
       </c>
       <c r="L147" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 598917005925, "submittedDateTime": 1660418714, "completedDateTime": 1660435200, "amount": 60.61, "memo": "Tesla Insurance Servic Fremont CA null XXXXXXXXXXXX3777" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 195664351857, "submittedDateTime": 1660350938, "completedDateTime": 1660435200, "amount": 60.61, "memo": "Tesla Insurance Servic Fremont CA null XXXXXXXXXXXX3777" }}},</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.2">
@@ -6948,15 +6960,15 @@
       <c r="D148">
         <v>65.91</v>
       </c>
-      <c r="G148" s="3" cm="1">
+      <c r="G148" s="2" cm="1">
         <f t="array" aca="1" ref="G148" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>359991678203</v>
-      </c>
-      <c r="H148" s="2">
+        <v>583736154011</v>
+      </c>
+      <c r="H148">
         <f t="shared" ca="1" si="11"/>
-        <v>1660349708</v>
-      </c>
-      <c r="I148" s="2">
+        <v>1660379990</v>
+      </c>
+      <c r="I148">
         <f t="shared" si="12"/>
         <v>1660435200</v>
       </c>
@@ -6970,7 +6982,7 @@
       </c>
       <c r="L148" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 359991678203, "submittedDateTime": 1660349708, "completedDateTime": 1660435200, "amount": 65.91, "memo": "CIN BELL ELEC PAY 513-5652210 OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 583736154011, "submittedDateTime": 1660379990, "completedDateTime": 1660435200, "amount": 65.91, "memo": "CIN BELL ELEC PAY 513-5652210 OH" }}},</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.2">
@@ -6986,15 +6998,15 @@
       <c r="D149">
         <v>1.05</v>
       </c>
-      <c r="G149" s="3" cm="1">
+      <c r="G149" s="2" cm="1">
         <f t="array" aca="1" ref="G149" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>732504662515</v>
-      </c>
-      <c r="H149" s="2">
+        <v>140032156448</v>
+      </c>
+      <c r="H149">
         <f t="shared" ca="1" si="11"/>
-        <v>1660427034</v>
-      </c>
-      <c r="I149" s="2">
+        <v>1660412347</v>
+      </c>
+      <c r="I149">
         <f t="shared" si="12"/>
         <v>1660435200</v>
       </c>
@@ -7008,7 +7020,7 @@
       </c>
       <c r="L149" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 732504662515, "submittedDateTime": 1660427034, "completedDateTime": 1660435200, "amount": 1.05, "memo": "WENDY'S COVINGTON KY" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 140032156448, "submittedDateTime": 1660412347, "completedDateTime": 1660435200, "amount": 1.05, "memo": "WENDY'S COVINGTON KY" }}},</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.2">
@@ -7024,15 +7036,15 @@
       <c r="D150">
         <v>148.33000000000001</v>
       </c>
-      <c r="G150" s="3" cm="1">
+      <c r="G150" s="2" cm="1">
         <f t="array" aca="1" ref="G150" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>498511217783</v>
-      </c>
-      <c r="H150" s="2">
+        <v>852888074021</v>
+      </c>
+      <c r="H150">
         <f t="shared" ca="1" si="11"/>
-        <v>1660516858</v>
-      </c>
-      <c r="I150" s="2">
+        <v>1660476291</v>
+      </c>
+      <c r="I150">
         <f t="shared" si="12"/>
         <v>1660521600</v>
       </c>
@@ -7046,7 +7058,7 @@
       </c>
       <c r="L150" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 498511217783, "submittedDateTime": 1660516858, "completedDateTime": 1660521600, "amount": 148.33, "memo": "BEST BUY 00001610 FLORENCE KY" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 852888074021, "submittedDateTime": 1660476291, "completedDateTime": 1660521600, "amount": 148.33, "memo": "BEST BUY 00001610 FLORENCE KY" }}},</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.2">
@@ -7062,15 +7074,15 @@
       <c r="D151">
         <v>241.17</v>
       </c>
-      <c r="G151" s="3" cm="1">
+      <c r="G151" s="2" cm="1">
         <f t="array" aca="1" ref="G151" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>749596570472</v>
-      </c>
-      <c r="H151" s="2">
+        <v>140032156448</v>
+      </c>
+      <c r="H151">
         <f t="shared" ca="1" si="11"/>
-        <v>1660486682</v>
-      </c>
-      <c r="I151" s="2">
+        <v>1660488270</v>
+      </c>
+      <c r="I151">
         <f t="shared" si="12"/>
         <v>1660521600</v>
       </c>
@@ -7084,7 +7096,7 @@
       </c>
       <c r="L151" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 749596570472, "submittedDateTime": 1660486682, "completedDateTime": 1660521600, "amount": 241.17, "memo": "SPI*DUKE-ENERGY 800-777-9898 NC" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 140032156448, "submittedDateTime": 1660488270, "completedDateTime": 1660521600, "amount": 241.17, "memo": "SPI*DUKE-ENERGY 800-777-9898 NC" }}},</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.2">
@@ -7100,15 +7112,15 @@
       <c r="D152">
         <v>7.41</v>
       </c>
-      <c r="G152" s="3" cm="1">
+      <c r="G152" s="2" cm="1">
         <f t="array" aca="1" ref="G152" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>732504662515</v>
-      </c>
-      <c r="H152" s="2">
+        <v>342768608852</v>
+      </c>
+      <c r="H152">
         <f t="shared" ca="1" si="11"/>
-        <v>1660587981</v>
-      </c>
-      <c r="I152" s="2">
+        <v>1660591132</v>
+      </c>
+      <c r="I152">
         <f t="shared" si="12"/>
         <v>1660608000</v>
       </c>
@@ -7122,7 +7134,7 @@
       </c>
       <c r="L152" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 732504662515, "submittedDateTime": 1660587981, "completedDateTime": 1660608000, "amount": 7.41, "memo": "TST* Rotolo Bowling Southgate KY" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 342768608852, "submittedDateTime": 1660591132, "completedDateTime": 1660608000, "amount": 7.41, "memo": "TST* Rotolo Bowling Southgate KY" }}},</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.2">
@@ -7138,15 +7150,15 @@
       <c r="D153">
         <v>11.71</v>
       </c>
-      <c r="G153" s="3" cm="1">
+      <c r="G153" s="2" cm="1">
         <f t="array" aca="1" ref="G153" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>669914345717</v>
-      </c>
-      <c r="H153" s="2">
+        <v>583736154011</v>
+      </c>
+      <c r="H153">
         <f t="shared" ca="1" si="11"/>
-        <v>1660563034</v>
-      </c>
-      <c r="I153" s="2">
+        <v>1660560019</v>
+      </c>
+      <c r="I153">
         <f t="shared" si="12"/>
         <v>1660608000</v>
       </c>
@@ -7160,7 +7172,7 @@
       </c>
       <c r="L153" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 669914345717, "submittedDateTime": 1660563034, "completedDateTime": 1660608000, "amount": 11.71, "memo": "CHIPOTLE 2579 COVINGTON KY" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 583736154011, "submittedDateTime": 1660560019, "completedDateTime": 1660608000, "amount": 11.71, "memo": "CHIPOTLE 2579 COVINGTON KY" }}},</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.2">
@@ -7176,15 +7188,15 @@
       <c r="D154">
         <v>21.93</v>
       </c>
-      <c r="G154" s="3" cm="1">
+      <c r="G154" s="2" cm="1">
         <f t="array" aca="1" ref="G154" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>826711618850</v>
-      </c>
-      <c r="H154" s="2">
+        <v>140032156448</v>
+      </c>
+      <c r="H154">
         <f t="shared" ca="1" si="11"/>
-        <v>1660539615</v>
-      </c>
-      <c r="I154" s="2">
+        <v>1660595684</v>
+      </c>
+      <c r="I154">
         <f t="shared" si="12"/>
         <v>1660608000</v>
       </c>
@@ -7198,7 +7210,7 @@
       </c>
       <c r="L154" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 826711618850, "submittedDateTime": 1660539615, "completedDateTime": 1660608000, "amount": 21.93, "memo": "TST* Rotolo Bowling Southgate KY null XXXXXXXXXXXX4754" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 140032156448, "submittedDateTime": 1660595684, "completedDateTime": 1660608000, "amount": 21.93, "memo": "TST* Rotolo Bowling Southgate KY null XXXXXXXXXXXX4754" }}},</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.2">
@@ -7214,15 +7226,15 @@
       <c r="E155">
         <v>-148.33000000000001</v>
       </c>
-      <c r="G155" s="3" cm="1">
+      <c r="G155" s="2" cm="1">
         <f t="array" aca="1" ref="G155" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>669914345717</v>
-      </c>
-      <c r="H155" s="2">
+        <v>129025537739</v>
+      </c>
+      <c r="H155">
         <f t="shared" ca="1" si="11"/>
-        <v>1660721968</v>
-      </c>
-      <c r="I155" s="2">
+        <v>1660768355</v>
+      </c>
+      <c r="I155">
         <f t="shared" si="12"/>
         <v>1660780800</v>
       </c>
@@ -7236,7 +7248,7 @@
       </c>
       <c r="L155" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 669914345717, "submittedDateTime": 1660721968, "completedDateTime": 1660780800, "amount": -148.33, "memo": "BEST BUY 00001610 FLORENCE KY" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 129025537739, "submittedDateTime": 1660768355, "completedDateTime": 1660780800, "amount": -148.33, "memo": "BEST BUY 00001610 FLORENCE KY" }}},</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.2">
@@ -7252,15 +7264,15 @@
       <c r="D156">
         <v>7.99</v>
       </c>
-      <c r="G156" s="3" cm="1">
+      <c r="G156" s="2" cm="1">
         <f t="array" aca="1" ref="G156" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>399061551780</v>
-      </c>
-      <c r="H156" s="2">
+        <v>602716875113</v>
+      </c>
+      <c r="H156">
         <f t="shared" ca="1" si="11"/>
-        <v>1660797040</v>
-      </c>
-      <c r="I156" s="2">
+        <v>1660844446</v>
+      </c>
+      <c r="I156">
         <f t="shared" si="12"/>
         <v>1660867200</v>
       </c>
@@ -7274,7 +7286,7 @@
       </c>
       <c r="L156" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 399061551780, "submittedDateTime": 1660797040, "completedDateTime": 1660867200, "amount": 7.99, "memo": "SKYLINE CHILI 1033 CINCINNATI OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 602716875113, "submittedDateTime": 1660844446, "completedDateTime": 1660867200, "amount": 7.99, "memo": "SKYLINE CHILI 1033 CINCINNATI OH" }}},</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.2">
@@ -7290,15 +7302,15 @@
       <c r="D157">
         <v>13</v>
       </c>
-      <c r="G157" s="3" cm="1">
+      <c r="G157" s="2" cm="1">
         <f t="array" aca="1" ref="G157" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>594392737621</v>
-      </c>
-      <c r="H157" s="2">
+        <v>422657850099</v>
+      </c>
+      <c r="H157">
         <f t="shared" ca="1" si="11"/>
-        <v>1661031436</v>
-      </c>
-      <c r="I157" s="2">
+        <v>1660972756</v>
+      </c>
+      <c r="I157">
         <f t="shared" si="12"/>
         <v>1661040000</v>
       </c>
@@ -7312,7 +7324,7 @@
       </c>
       <c r="L157" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 594392737621, "submittedDateTime": 1661031436, "completedDateTime": 1661040000, "amount": 13, "memo": "THE ECHO RESTAURANT CINCINNATI OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 422657850099, "submittedDateTime": 1660972756, "completedDateTime": 1661040000, "amount": 13, "memo": "THE ECHO RESTAURANT CINCINNATI OH" }}},</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.2">
@@ -7328,15 +7340,15 @@
       <c r="D158">
         <v>23.98</v>
       </c>
-      <c r="G158" s="3" cm="1">
+      <c r="G158" s="2" cm="1">
         <f t="array" aca="1" ref="G158" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>669914345717</v>
-      </c>
-      <c r="H158" s="2">
+        <v>985663880614</v>
+      </c>
+      <c r="H158">
         <f t="shared" ca="1" si="11"/>
-        <v>1661229318</v>
-      </c>
-      <c r="I158" s="2">
+        <v>1661247045</v>
+      </c>
+      <c r="I158">
         <f t="shared" si="12"/>
         <v>1661299200</v>
       </c>
@@ -7350,7 +7362,7 @@
       </c>
       <c r="L158" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 669914345717, "submittedDateTime": 1661229318, "completedDateTime": 1661299200, "amount": 23.98, "memo": "FRONTIERCD5NUT DENVER CO" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 985663880614, "submittedDateTime": 1661247045, "completedDateTime": 1661299200, "amount": 23.98, "memo": "FRONTIERCD5NUT DENVER CO" }}},</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.2">
@@ -7366,15 +7378,15 @@
       <c r="D159">
         <v>123.98</v>
       </c>
-      <c r="G159" s="3" cm="1">
+      <c r="G159" s="2" cm="1">
         <f t="array" aca="1" ref="G159" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>861239476106</v>
-      </c>
-      <c r="H159" s="2">
+        <v>583736154011</v>
+      </c>
+      <c r="H159">
         <f t="shared" ca="1" si="11"/>
-        <v>1661270252</v>
-      </c>
-      <c r="I159" s="2">
+        <v>1661254759</v>
+      </c>
+      <c r="I159">
         <f t="shared" si="12"/>
         <v>1661299200</v>
       </c>
@@ -7388,7 +7400,7 @@
       </c>
       <c r="L159" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 861239476106, "submittedDateTime": 1661270252, "completedDateTime": 1661299200, "amount": 123.98, "memo": "FRONTIERQCM3YJ DENVER CO" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 583736154011, "submittedDateTime": 1661254759, "completedDateTime": 1661299200, "amount": 123.98, "memo": "FRONTIERQCM3YJ DENVER CO" }}},</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.2">
@@ -7404,15 +7416,15 @@
       <c r="D160">
         <v>153.6</v>
       </c>
-      <c r="G160" s="3" cm="1">
+      <c r="G160" s="2" cm="1">
         <f t="array" aca="1" ref="G160" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>304160714309</v>
-      </c>
-      <c r="H160" s="2">
+        <v>513319807340</v>
+      </c>
+      <c r="H160">
         <f t="shared" ca="1" si="11"/>
-        <v>1661233390</v>
-      </c>
-      <c r="I160" s="2">
+        <v>1661270643</v>
+      </c>
+      <c r="I160">
         <f t="shared" si="12"/>
         <v>1661299200</v>
       </c>
@@ -7426,7 +7438,7 @@
       </c>
       <c r="L160" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 304160714309, "submittedDateTime": 1661233390, "completedDateTime": 1661299200, "amount": 153.6, "memo": "AMERICAN00178489934733 NORWALK CT" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 513319807340, "submittedDateTime": 1661270643, "completedDateTime": 1661299200, "amount": 153.6, "memo": "AMERICAN00178489934733 NORWALK CT" }}},</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.2">
@@ -7442,15 +7454,15 @@
       <c r="D161">
         <v>18.100000000000001</v>
       </c>
-      <c r="G161" s="3" cm="1">
+      <c r="G161" s="2" cm="1">
         <f t="array" aca="1" ref="G161" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>304160714309</v>
-      </c>
-      <c r="H161" s="2">
+        <v>602716875113</v>
+      </c>
+      <c r="H161">
         <f t="shared" ca="1" si="11"/>
-        <v>1661375227</v>
-      </c>
-      <c r="I161" s="2">
+        <v>1661324379</v>
+      </c>
+      <c r="I161">
         <f t="shared" si="12"/>
         <v>1661385600</v>
       </c>
@@ -7464,7 +7476,7 @@
       </c>
       <c r="L161" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 304160714309, "submittedDateTime": 1661375227, "completedDateTime": 1661385600, "amount": 18.1, "memo": "PRICELN*TVL PROTECT 800-774-2354 CT" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 602716875113, "submittedDateTime": 1661324379, "completedDateTime": 1661385600, "amount": 18.1, "memo": "PRICELN*TVL PROTECT 800-774-2354 CT" }}},</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.2">
@@ -7480,15 +7492,15 @@
       <c r="D162">
         <v>15.99</v>
       </c>
-      <c r="G162" s="3" cm="1">
+      <c r="G162" s="2" cm="1">
         <f t="array" aca="1" ref="G162" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>732504662515</v>
-      </c>
-      <c r="H162" s="2">
+        <v>334321869864</v>
+      </c>
+      <c r="H162">
         <f t="shared" ca="1" si="11"/>
-        <v>1661435059</v>
-      </c>
-      <c r="I162" s="2">
+        <v>1661433511</v>
+      </c>
+      <c r="I162">
         <f t="shared" si="12"/>
         <v>1661472000</v>
       </c>
@@ -7502,7 +7514,7 @@
       </c>
       <c r="L162" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 732504662515, "submittedDateTime": 1661435059, "completedDateTime": 1661472000, "amount": 15.99, "memo": "TVP INC/LA ROSA S NORW CINCINNATI OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 334321869864, "submittedDateTime": 1661433511, "completedDateTime": 1661472000, "amount": 15.99, "memo": "TVP INC/LA ROSA S NORW CINCINNATI OH" }}},</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.2">
@@ -7518,15 +7530,15 @@
       <c r="E163">
         <v>-319.66000000000003</v>
       </c>
-      <c r="G163" s="3" cm="1">
+      <c r="G163" s="2" cm="1">
         <f t="array" aca="1" ref="G163" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>732504662515</v>
-      </c>
-      <c r="H163" s="2">
+        <v>334321869864</v>
+      </c>
+      <c r="H163">
         <f t="shared" ca="1" si="11"/>
-        <v>1661549670</v>
-      </c>
-      <c r="I163" s="2">
+        <v>1661544496</v>
+      </c>
+      <c r="I163">
         <f t="shared" si="12"/>
         <v>1661558400</v>
       </c>
@@ -7540,7 +7552,7 @@
       </c>
       <c r="L163" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 732504662515, "submittedDateTime": 1661549670, "completedDateTime": 1661558400, "amount": -319.66, "memo": "ONLINE PAYMENT, THANK YOU" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 334321869864, "submittedDateTime": 1661544496, "completedDateTime": 1661558400, "amount": -319.66, "memo": "ONLINE PAYMENT, THANK YOU" }}},</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.2">
@@ -7556,15 +7568,15 @@
       <c r="E164">
         <v>-530.85</v>
       </c>
-      <c r="G164" s="3" cm="1">
+      <c r="G164" s="2" cm="1">
         <f t="array" aca="1" ref="G164" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>669914345717</v>
-      </c>
-      <c r="H164" s="2">
+        <v>140032156448</v>
+      </c>
+      <c r="H164">
         <f t="shared" ca="1" si="11"/>
-        <v>1661540826</v>
-      </c>
-      <c r="I164" s="2">
+        <v>1661545928</v>
+      </c>
+      <c r="I164">
         <f t="shared" si="12"/>
         <v>1661558400</v>
       </c>
@@ -7578,7 +7590,7 @@
       </c>
       <c r="L164" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 669914345717, "submittedDateTime": 1661540826, "completedDateTime": 1661558400, "amount": -530.85, "memo": "ONLINE PAYMENT, THANK YOU" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 140032156448, "submittedDateTime": 1661545928, "completedDateTime": 1661558400, "amount": -530.85, "memo": "ONLINE PAYMENT, THANK YOU" }}},</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.2">
@@ -7594,15 +7606,15 @@
       <c r="D165">
         <v>29.56</v>
       </c>
-      <c r="G165" s="3" cm="1">
+      <c r="G165" s="2" cm="1">
         <f t="array" aca="1" ref="G165" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>749596570472</v>
-      </c>
-      <c r="H165" s="2">
+        <v>129025537739</v>
+      </c>
+      <c r="H165">
         <f t="shared" ca="1" si="11"/>
-        <v>1661518771</v>
-      </c>
-      <c r="I165" s="2">
+        <v>1661525086</v>
+      </c>
+      <c r="I165">
         <f t="shared" si="12"/>
         <v>1661558400</v>
       </c>
@@ -7616,7 +7628,7 @@
       </c>
       <c r="L165" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 749596570472, "submittedDateTime": 1661518771, "completedDateTime": 1661558400, "amount": 29.56, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 129025537739, "submittedDateTime": 1661525086, "completedDateTime": 1661558400, "amount": 29.56, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" }}},</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.2">
@@ -7632,15 +7644,15 @@
       <c r="D166">
         <v>12.93</v>
       </c>
-      <c r="G166" s="3" cm="1">
+      <c r="G166" s="2" cm="1">
         <f t="array" aca="1" ref="G166" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>826711618850</v>
-      </c>
-      <c r="H166" s="2">
+        <v>334321869864</v>
+      </c>
+      <c r="H166">
         <f t="shared" ca="1" si="11"/>
-        <v>1661580435</v>
-      </c>
-      <c r="I166" s="2">
+        <v>1661632059</v>
+      </c>
+      <c r="I166">
         <f t="shared" si="12"/>
         <v>1661644800</v>
       </c>
@@ -7654,7 +7666,7 @@
       </c>
       <c r="L166" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 826711618850, "submittedDateTime": 1661580435, "completedDateTime": 1661644800, "amount": 12.93, "memo": "PENN STATION 10 CINCINNATI OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 334321869864, "submittedDateTime": 1661632059, "completedDateTime": 1661644800, "amount": 12.93, "memo": "PENN STATION 10 CINCINNATI OH" }}},</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.2">
@@ -7670,15 +7682,15 @@
       <c r="D167">
         <v>53.58</v>
       </c>
-      <c r="G167" s="3" cm="1">
+      <c r="G167" s="2" cm="1">
         <f t="array" aca="1" ref="G167" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>732504662515</v>
-      </c>
-      <c r="H167" s="2">
+        <v>985663880614</v>
+      </c>
+      <c r="H167">
         <f t="shared" ca="1" si="11"/>
-        <v>1661624711</v>
-      </c>
-      <c r="I167" s="2">
+        <v>1661579713</v>
+      </c>
+      <c r="I167">
         <f t="shared" si="12"/>
         <v>1661644800</v>
       </c>
@@ -7692,7 +7704,7 @@
       </c>
       <c r="L167" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 732504662515, "submittedDateTime": 1661624711, "completedDateTime": 1661644800, "amount": 53.58, "memo": "WAL-MART #2250 CINCINNATI OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 985663880614, "submittedDateTime": 1661579713, "completedDateTime": 1661644800, "amount": 53.58, "memo": "WAL-MART #2250 CINCINNATI OH" }}},</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.2">
@@ -7708,15 +7720,15 @@
       <c r="D168">
         <v>9.69</v>
       </c>
-      <c r="G168" s="3" cm="1">
+      <c r="G168" s="2" cm="1">
         <f t="array" aca="1" ref="G168" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>826711618850</v>
-      </c>
-      <c r="H168" s="2">
+        <v>195664351857</v>
+      </c>
+      <c r="H168">
         <f t="shared" ca="1" si="11"/>
-        <v>1661643630</v>
-      </c>
-      <c r="I168" s="2">
+        <v>1661561520</v>
+      </c>
+      <c r="I168">
         <f t="shared" si="12"/>
         <v>1661644800</v>
       </c>
@@ -7730,7 +7742,7 @@
       </c>
       <c r="L168" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 826711618850, "submittedDateTime": 1661643630, "completedDateTime": 1661644800, "amount": 9.69, "memo": "China Max CINCINNATI OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 195664351857, "submittedDateTime": 1661561520, "completedDateTime": 1661644800, "amount": 9.69, "memo": "China Max CINCINNATI OH" }}},</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.2">
@@ -7746,15 +7758,15 @@
       <c r="D169">
         <v>5.51</v>
       </c>
-      <c r="G169" s="3" cm="1">
+      <c r="G169" s="2" cm="1">
         <f t="array" aca="1" ref="G169" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>732504662515</v>
-      </c>
-      <c r="H169" s="2">
+        <v>342768608852</v>
+      </c>
+      <c r="H169">
         <f t="shared" ca="1" si="11"/>
-        <v>1661649226</v>
-      </c>
-      <c r="I169" s="2">
+        <v>1661718486</v>
+      </c>
+      <c r="I169">
         <f t="shared" si="12"/>
         <v>1661731200</v>
       </c>
@@ -7768,7 +7780,7 @@
       </c>
       <c r="L169" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 732504662515, "submittedDateTime": 1661649226, "completedDateTime": 1661731200, "amount": 5.51, "memo": "ICI*FEECITY OF NORWOOD 866-342-9266 MA" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 342768608852, "submittedDateTime": 1661718486, "completedDateTime": 1661731200, "amount": 5.51, "memo": "ICI*FEECITY OF NORWOOD 866-342-9266 MA" }}},</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.2">
@@ -7784,15 +7796,15 @@
       <c r="D170">
         <v>220.48</v>
       </c>
-      <c r="G170" s="3" cm="1">
+      <c r="G170" s="2" cm="1">
         <f t="array" aca="1" ref="G170" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>594392737621</v>
-      </c>
-      <c r="H170" s="2">
+        <v>602716875113</v>
+      </c>
+      <c r="H170">
         <f t="shared" ca="1" si="11"/>
-        <v>1661713549</v>
-      </c>
-      <c r="I170" s="2">
+        <v>1661656381</v>
+      </c>
+      <c r="I170">
         <f t="shared" si="12"/>
         <v>1661731200</v>
       </c>
@@ -7806,7 +7818,7 @@
       </c>
       <c r="L170" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 594392737621, "submittedDateTime": 1661713549, "completedDateTime": 1661731200, "amount": 220.48, "memo": "CITY OF NORWOOD 513-458-4500 OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 602716875113, "submittedDateTime": 1661656381, "completedDateTime": 1661731200, "amount": 220.48, "memo": "CITY OF NORWOOD 513-458-4500 OH" }}},</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.2">
@@ -7822,15 +7834,15 @@
       <c r="D171">
         <v>62</v>
       </c>
-      <c r="G171" s="3" cm="1">
+      <c r="G171" s="2" cm="1">
         <f t="array" aca="1" ref="G171" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>732504662515</v>
-      </c>
-      <c r="H171" s="2">
+        <v>422657850099</v>
+      </c>
+      <c r="H171">
         <f t="shared" ca="1" si="11"/>
-        <v>1661757214</v>
-      </c>
-      <c r="I171" s="2">
+        <v>1661764367</v>
+      </c>
+      <c r="I171">
         <f t="shared" si="12"/>
         <v>1661817600</v>
       </c>
@@ -7844,7 +7856,7 @@
       </c>
       <c r="L171" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 732504662515, "submittedDateTime": 1661757214, "completedDateTime": 1661817600, "amount": 62, "memo": "FRONTIERQCM3YJ DENVER CO" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 422657850099, "submittedDateTime": 1661764367, "completedDateTime": 1661817600, "amount": 62, "memo": "FRONTIERQCM3YJ DENVER CO" }}},</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.2">
@@ -7860,15 +7872,15 @@
       <c r="D172">
         <v>7.64</v>
       </c>
-      <c r="G172" s="3" cm="1">
+      <c r="G172" s="2" cm="1">
         <f t="array" aca="1" ref="G172" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>826711618850</v>
-      </c>
-      <c r="H172" s="2">
+        <v>583736154011</v>
+      </c>
+      <c r="H172">
         <f t="shared" ca="1" si="11"/>
-        <v>1661900124</v>
-      </c>
-      <c r="I172" s="2">
+        <v>1661898304</v>
+      </c>
+      <c r="I172">
         <f t="shared" si="12"/>
         <v>1661904000</v>
       </c>
@@ -7882,7 +7894,7 @@
       </c>
       <c r="L172" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 826711618850, "submittedDateTime": 1661900124, "completedDateTime": 1661904000, "amount": 7.64, "memo": "KFC/PHX I675001 DENVER CO" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 583736154011, "submittedDateTime": 1661898304, "completedDateTime": 1661904000, "amount": 7.64, "memo": "KFC/PHX I675001 DENVER CO" }}},</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.2">
@@ -7898,15 +7910,15 @@
       <c r="D173">
         <v>29.95</v>
       </c>
-      <c r="G173" s="3" cm="1">
+      <c r="G173" s="2" cm="1">
         <f t="array" aca="1" ref="G173" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>498511217783</v>
-      </c>
-      <c r="H173" s="2">
+        <v>583736154011</v>
+      </c>
+      <c r="H173">
         <f t="shared" ca="1" si="11"/>
-        <v>1661869142</v>
-      </c>
-      <c r="I173" s="2">
+        <v>1661882466</v>
+      </c>
+      <c r="I173">
         <f t="shared" si="12"/>
         <v>1661904000</v>
       </c>
@@ -7920,7 +7932,7 @@
       </c>
       <c r="L173" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 498511217783, "submittedDateTime": 1661869142, "completedDateTime": 1661904000, "amount": 29.95, "memo": "MOERLEIN BREW PUB A CV CINCINNATI OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 583736154011, "submittedDateTime": 1661882466, "completedDateTime": 1661904000, "amount": 29.95, "memo": "MOERLEIN BREW PUB A CV CINCINNATI OH" }}},</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.2">
@@ -7936,15 +7948,15 @@
       <c r="D174">
         <v>36.590000000000003</v>
       </c>
-      <c r="G174" s="3" cm="1">
+      <c r="G174" s="2" cm="1">
         <f t="array" aca="1" ref="G174" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>498511217783</v>
-      </c>
-      <c r="H174" s="2">
+        <v>602716875113</v>
+      </c>
+      <c r="H174">
         <f t="shared" ca="1" si="11"/>
-        <v>1661835241</v>
-      </c>
-      <c r="I174" s="2">
+        <v>1661858733</v>
+      </c>
+      <c r="I174">
         <f t="shared" si="12"/>
         <v>1661904000</v>
       </c>
@@ -7958,7 +7970,7 @@
       </c>
       <c r="L174" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 498511217783, "submittedDateTime": 1661835241, "completedDateTime": 1661904000, "amount": 36.59, "memo": "HENDERSONTAXI LAS VEGAS NV" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 602716875113, "submittedDateTime": 1661858733, "completedDateTime": 1661904000, "amount": 36.59, "memo": "HENDERSONTAXI LAS VEGAS NV" }}},</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.2">
@@ -7974,15 +7986,15 @@
       <c r="D175">
         <v>486.99</v>
       </c>
-      <c r="G175" s="3" cm="1">
+      <c r="G175" s="2" cm="1">
         <f t="array" aca="1" ref="G175" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>669914345717</v>
-      </c>
-      <c r="H175" s="2">
+        <v>583736154011</v>
+      </c>
+      <c r="H175">
         <f t="shared" ca="1" si="11"/>
-        <v>1661938194</v>
-      </c>
-      <c r="I175" s="2">
+        <v>1661961352</v>
+      </c>
+      <c r="I175">
         <f t="shared" si="12"/>
         <v>1661990400</v>
       </c>
@@ -7996,7 +8008,7 @@
       </c>
       <c r="L175" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 669914345717, "submittedDateTime": 1661938194, "completedDateTime": 1661990400, "amount": 486.99, "memo": "LONDON SUITS LAS VEGAS NV" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 583736154011, "submittedDateTime": 1661961352, "completedDateTime": 1661990400, "amount": 486.99, "memo": "LONDON SUITS LAS VEGAS NV" }}},</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.2">
@@ -8012,15 +8024,15 @@
       <c r="D176">
         <v>17.079999999999998</v>
       </c>
-      <c r="G176" s="3" cm="1">
+      <c r="G176" s="2" cm="1">
         <f t="array" aca="1" ref="G176" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>749596570472</v>
-      </c>
-      <c r="H176" s="2">
+        <v>852888074021</v>
+      </c>
+      <c r="H176">
         <f t="shared" ca="1" si="11"/>
-        <v>1661932300</v>
-      </c>
-      <c r="I176" s="2">
+        <v>1661936245</v>
+      </c>
+      <c r="I176">
         <f t="shared" si="12"/>
         <v>1661990400</v>
       </c>
@@ -8034,7 +8046,7 @@
       </c>
       <c r="L176" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 749596570472, "submittedDateTime": 1661932300, "completedDateTime": 1661990400, "amount": 17.08, "memo": "FLAMINGO CASINO SVCS B LAS VEGAS NV" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 852888074021, "submittedDateTime": 1661936245, "completedDateTime": 1661990400, "amount": 17.08, "memo": "FLAMINGO CASINO SVCS B LAS VEGAS NV" }}},</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.2">
@@ -8050,15 +8062,15 @@
       <c r="D177">
         <v>24.5</v>
       </c>
-      <c r="G177" s="3" cm="1">
+      <c r="G177" s="2" cm="1">
         <f t="array" aca="1" ref="G177" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>749596570472</v>
-      </c>
-      <c r="H177" s="2">
+        <v>602716875113</v>
+      </c>
+      <c r="H177">
         <f t="shared" ca="1" si="11"/>
-        <v>1662082172</v>
-      </c>
-      <c r="I177" s="2">
+        <v>1662159729</v>
+      </c>
+      <c r="I177">
         <f t="shared" si="12"/>
         <v>1662163200</v>
       </c>
@@ -8072,7 +8084,7 @@
       </c>
       <c r="L177" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 749596570472, "submittedDateTime": 1662082172, "completedDateTime": 1662163200, "amount": 24.5, "memo": "AREA15 LAS VEGAS LAS VEGAS NV" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 602716875113, "submittedDateTime": 1662159729, "completedDateTime": 1662163200, "amount": 24.5, "memo": "AREA15 LAS VEGAS LAS VEGAS NV" }}},</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.2">
@@ -8088,15 +8100,15 @@
       <c r="D178">
         <v>67</v>
       </c>
-      <c r="G178" s="3" cm="1">
+      <c r="G178" s="2" cm="1">
         <f t="array" aca="1" ref="G178" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>399061551780</v>
-      </c>
-      <c r="H178" s="2">
+        <v>129025537739</v>
+      </c>
+      <c r="H178">
         <f t="shared" ca="1" si="11"/>
-        <v>1662105538</v>
-      </c>
-      <c r="I178" s="2">
+        <v>1662088373</v>
+      </c>
+      <c r="I178">
         <f t="shared" si="12"/>
         <v>1662163200</v>
       </c>
@@ -8110,7 +8122,7 @@
       </c>
       <c r="L178" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 399061551780, "submittedDateTime": 1662105538, "completedDateTime": 1662163200, "amount": 67, "memo": "FRONTIERCD5NUT DENVER CO" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 129025537739, "submittedDateTime": 1662088373, "completedDateTime": 1662163200, "amount": 67, "memo": "FRONTIERCD5NUT DENVER CO" }}},</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.2">
@@ -8126,15 +8138,15 @@
       <c r="D179">
         <v>79</v>
       </c>
-      <c r="G179" s="3" cm="1">
+      <c r="G179" s="2" cm="1">
         <f t="array" aca="1" ref="G179" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>598917005925</v>
-      </c>
-      <c r="H179" s="2">
+        <v>513319807340</v>
+      </c>
+      <c r="H179">
         <f t="shared" ca="1" si="11"/>
-        <v>1662095491</v>
-      </c>
-      <c r="I179" s="2">
+        <v>1662133537</v>
+      </c>
+      <c r="I179">
         <f t="shared" si="12"/>
         <v>1662163200</v>
       </c>
@@ -8148,7 +8160,7 @@
       </c>
       <c r="L179" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 598917005925, "submittedDateTime": 1662095491, "completedDateTime": 1662163200, "amount": 79, "memo": "HOTELTONIGHTFLAMINGO 8333380302 CA null XXXXXXXXXXXX3562" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 513319807340, "submittedDateTime": 1662133537, "completedDateTime": 1662163200, "amount": 79, "memo": "HOTELTONIGHTFLAMINGO 8333380302 CA null XXXXXXXXXXXX3562" }}},</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.2">
@@ -8164,15 +8176,15 @@
       <c r="D180">
         <v>9</v>
       </c>
-      <c r="G180" s="3" cm="1">
+      <c r="G180" s="2" cm="1">
         <f t="array" aca="1" ref="G180" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>826711618850</v>
-      </c>
-      <c r="H180" s="2">
+        <v>602716875113</v>
+      </c>
+      <c r="H180">
         <f t="shared" ca="1" si="11"/>
-        <v>1662093935</v>
-      </c>
-      <c r="I180" s="2">
+        <v>1662129898</v>
+      </c>
+      <c r="I180">
         <f t="shared" si="12"/>
         <v>1662163200</v>
       </c>
@@ -8186,7 +8198,7 @@
       </c>
       <c r="L180" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 826711618850, "submittedDateTime": 1662093935, "completedDateTime": 1662163200, "amount": 9, "memo": "EMPORIUM LAS VEGAS LAS VEGAS NV" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 602716875113, "submittedDateTime": 1662129898, "completedDateTime": 1662163200, "amount": 9, "memo": "EMPORIUM LAS VEGAS LAS VEGAS NV" }}},</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.2">
@@ -8202,15 +8214,15 @@
       <c r="D181">
         <v>9</v>
       </c>
-      <c r="G181" s="3" cm="1">
+      <c r="G181" s="2" cm="1">
         <f t="array" aca="1" ref="G181" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>594392737621</v>
-      </c>
-      <c r="H181" s="2">
+        <v>195664351857</v>
+      </c>
+      <c r="H181">
         <f t="shared" ca="1" si="11"/>
-        <v>1662156055</v>
-      </c>
-      <c r="I181" s="2">
+        <v>1662120289</v>
+      </c>
+      <c r="I181">
         <f t="shared" si="12"/>
         <v>1662163200</v>
       </c>
@@ -8224,7 +8236,7 @@
       </c>
       <c r="L181" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 594392737621, "submittedDateTime": 1662156055, "completedDateTime": 1662163200, "amount": 9, "memo": "EMPORIUM LAS VEGAS LAS VEGAS NV" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 195664351857, "submittedDateTime": 1662120289, "completedDateTime": 1662163200, "amount": 9, "memo": "EMPORIUM LAS VEGAS LAS VEGAS NV" }}},</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.2">
@@ -8240,15 +8252,15 @@
       <c r="D182">
         <v>144</v>
       </c>
-      <c r="G182" s="3" cm="1">
+      <c r="G182" s="2" cm="1">
         <f t="array" aca="1" ref="G182" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>861239476106</v>
-      </c>
-      <c r="H182" s="2">
+        <v>129025537739</v>
+      </c>
+      <c r="H182">
         <f t="shared" ca="1" si="11"/>
-        <v>1662145704</v>
-      </c>
-      <c r="I182" s="2">
+        <v>1662106355</v>
+      </c>
+      <c r="I182">
         <f t="shared" si="12"/>
         <v>1662163200</v>
       </c>
@@ -8262,7 +8274,7 @@
       </c>
       <c r="L182" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 861239476106, "submittedDateTime": 1662145704, "completedDateTime": 1662163200, "amount": 144, "memo": "CAT S MEOW OF VEGAS LAS VEGAS NV" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 129025537739, "submittedDateTime": 1662106355, "completedDateTime": 1662163200, "amount": 144, "memo": "CAT S MEOW OF VEGAS LAS VEGAS NV" }}},</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.2">
@@ -8278,15 +8290,15 @@
       <c r="D183">
         <v>45.3</v>
       </c>
-      <c r="G183" s="3" cm="1">
+      <c r="G183" s="2" cm="1">
         <f t="array" aca="1" ref="G183" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>399061551780</v>
-      </c>
-      <c r="H183" s="2">
+        <v>342768608852</v>
+      </c>
+      <c r="H183">
         <f t="shared" ca="1" si="11"/>
-        <v>1662186645</v>
-      </c>
-      <c r="I183" s="2">
+        <v>1662195693</v>
+      </c>
+      <c r="I183">
         <f t="shared" si="12"/>
         <v>1662249600</v>
       </c>
@@ -8300,7 +8312,7 @@
       </c>
       <c r="L183" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 399061551780, "submittedDateTime": 1662186645, "completedDateTime": 1662249600, "amount": 45.3, "memo": "FLAMINGO HOTEL LAS VEG LAS VEGAS NV" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 342768608852, "submittedDateTime": 1662195693, "completedDateTime": 1662249600, "amount": 45.3, "memo": "FLAMINGO HOTEL LAS VEG LAS VEGAS NV" }}},</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.2">
@@ -8316,15 +8328,15 @@
       <c r="D184">
         <v>65.91</v>
       </c>
-      <c r="G184" s="3" cm="1">
+      <c r="G184" s="2" cm="1">
         <f t="array" aca="1" ref="G184" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>749596570472</v>
-      </c>
-      <c r="H184" s="2">
+        <v>422657850099</v>
+      </c>
+      <c r="H184">
         <f t="shared" ca="1" si="11"/>
-        <v>1662296084</v>
-      </c>
-      <c r="I184" s="2">
+        <v>1662311642</v>
+      </c>
+      <c r="I184">
         <f t="shared" si="12"/>
         <v>1662336000</v>
       </c>
@@ -8338,7 +8350,7 @@
       </c>
       <c r="L184" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 749596570472, "submittedDateTime": 1662296084, "completedDateTime": 1662336000, "amount": 65.91, "memo": "CIN BELL ELEC PAY 513-5652210 OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 422657850099, "submittedDateTime": 1662311642, "completedDateTime": 1662336000, "amount": 65.91, "memo": "CIN BELL ELEC PAY 513-5652210 OH" }}},</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.2">
@@ -8354,15 +8366,15 @@
       <c r="D185">
         <v>52.41</v>
       </c>
-      <c r="G185" s="3" cm="1">
+      <c r="G185" s="2" cm="1">
         <f t="array" aca="1" ref="G185" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>669914345717</v>
-      </c>
-      <c r="H185" s="2">
+        <v>334321869864</v>
+      </c>
+      <c r="H185">
         <f t="shared" ca="1" si="11"/>
-        <v>1662396860</v>
-      </c>
-      <c r="I185" s="2">
+        <v>1662391452</v>
+      </c>
+      <c r="I185">
         <f t="shared" si="12"/>
         <v>1662422400</v>
       </c>
@@ -8376,7 +8388,7 @@
       </c>
       <c r="L185" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 669914345717, "submittedDateTime": 1662396860, "completedDateTime": 1662422400, "amount": 52.41, "memo": "ZAP*ZAPPOS.COM 800-927-7671 NV" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 334321869864, "submittedDateTime": 1662391452, "completedDateTime": 1662422400, "amount": 52.41, "memo": "ZAP*ZAPPOS.COM 800-927-7671 NV" }}},</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.2">
@@ -8392,15 +8404,15 @@
       <c r="D186">
         <v>40.25</v>
       </c>
-      <c r="G186" s="3" cm="1">
+      <c r="G186" s="2" cm="1">
         <f t="array" aca="1" ref="G186" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>669914345717</v>
-      </c>
-      <c r="H186" s="2">
+        <v>342768608852</v>
+      </c>
+      <c r="H186">
         <f t="shared" ca="1" si="11"/>
-        <v>1662413731</v>
-      </c>
-      <c r="I186" s="2">
+        <v>1662412259</v>
+      </c>
+      <c r="I186">
         <f t="shared" si="12"/>
         <v>1662422400</v>
       </c>
@@ -8414,7 +8426,7 @@
       </c>
       <c r="L186" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 669914345717, "submittedDateTime": 1662413731, "completedDateTime": 1662422400, "amount": 40.25, "memo": "AA WOK DAYTON KY" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 342768608852, "submittedDateTime": 1662412259, "completedDateTime": 1662422400, "amount": 40.25, "memo": "AA WOK DAYTON KY" }}},</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.2">
@@ -8430,15 +8442,15 @@
       <c r="D187">
         <v>66</v>
       </c>
-      <c r="G187" s="3" cm="1">
+      <c r="G187" s="2" cm="1">
         <f t="array" aca="1" ref="G187" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>359991678203</v>
-      </c>
-      <c r="H187" s="2">
+        <v>602716875113</v>
+      </c>
+      <c r="H187">
         <f t="shared" ca="1" si="11"/>
-        <v>1662419530</v>
-      </c>
-      <c r="I187" s="2">
+        <v>1662400638</v>
+      </c>
+      <c r="I187">
         <f t="shared" si="12"/>
         <v>1662422400</v>
       </c>
@@ -8452,7 +8464,7 @@
       </c>
       <c r="L187" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 359991678203, "submittedDateTime": 1662419530, "completedDateTime": 1662422400, "amount": 66, "memo": "CINCINNATI AIRPORT 986 ERLANGER KY" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 602716875113, "submittedDateTime": 1662400638, "completedDateTime": 1662422400, "amount": 66, "memo": "CINCINNATI AIRPORT 986 ERLANGER KY" }}},</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.2">
@@ -8468,15 +8480,15 @@
       <c r="D188">
         <v>12.93</v>
       </c>
-      <c r="G188" s="3" cm="1">
+      <c r="G188" s="2" cm="1">
         <f t="array" aca="1" ref="G188" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>399061551780</v>
-      </c>
-      <c r="H188" s="2">
+        <v>342768608852</v>
+      </c>
+      <c r="H188">
         <f t="shared" ca="1" si="11"/>
-        <v>1662399013</v>
-      </c>
-      <c r="I188" s="2">
+        <v>1662399516</v>
+      </c>
+      <c r="I188">
         <f t="shared" si="12"/>
         <v>1662422400</v>
       </c>
@@ -8490,7 +8502,7 @@
       </c>
       <c r="L188" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 399061551780, "submittedDateTime": 1662399013, "completedDateTime": 1662422400, "amount": 12.93, "memo": "GOOGLE *YouTubePremium 650-253-0000 CA" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 342768608852, "submittedDateTime": 1662399516, "completedDateTime": 1662422400, "amount": 12.93, "memo": "GOOGLE *YouTubePremium 650-253-0000 CA" }}},</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.2">
@@ -8506,15 +8518,15 @@
       <c r="D189">
         <v>50.94</v>
       </c>
-      <c r="G189" s="3" cm="1">
+      <c r="G189" s="2" cm="1">
         <f t="array" aca="1" ref="G189" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>826711618850</v>
-      </c>
-      <c r="H189" s="2">
+        <v>195664351857</v>
+      </c>
+      <c r="H189">
         <f t="shared" ca="1" si="11"/>
-        <v>1662428832</v>
-      </c>
-      <c r="I189" s="2">
+        <v>1662446510</v>
+      </c>
+      <c r="I189">
         <f t="shared" si="12"/>
         <v>1662508800</v>
       </c>
@@ -8528,7 +8540,7 @@
       </c>
       <c r="L189" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 826711618850, "submittedDateTime": 1662428832, "completedDateTime": 1662508800, "amount": 50.94, "memo": "HELLOFRESH 646-8463663 NY" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 195664351857, "submittedDateTime": 1662446510, "completedDateTime": 1662508800, "amount": 50.94, "memo": "HELLOFRESH 646-8463663 NY" }}},</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.2">
@@ -8544,15 +8556,15 @@
       <c r="D190">
         <v>224.26</v>
       </c>
-      <c r="G190" s="3" cm="1">
+      <c r="G190" s="2" cm="1">
         <f t="array" aca="1" ref="G190" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>498511217783</v>
-      </c>
-      <c r="H190" s="2">
+        <v>852888074021</v>
+      </c>
+      <c r="H190">
         <f t="shared" ca="1" si="11"/>
-        <v>1662508517</v>
-      </c>
-      <c r="I190" s="2">
+        <v>1662493603</v>
+      </c>
+      <c r="I190">
         <f t="shared" si="12"/>
         <v>1662508800</v>
       </c>
@@ -8566,7 +8578,7 @@
       </c>
       <c r="L190" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 498511217783, "submittedDateTime": 1662508517, "completedDateTime": 1662508800, "amount": 224.26, "memo": "SPI*DUKE-ENERGY 800-777-9898 NC" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 852888074021, "submittedDateTime": 1662493603, "completedDateTime": 1662508800, "amount": 224.26, "memo": "SPI*DUKE-ENERGY 800-777-9898 NC" }}},</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.2">
@@ -8582,15 +8594,15 @@
       <c r="D191">
         <v>5.39</v>
       </c>
-      <c r="G191" s="3" cm="1">
+      <c r="G191" s="2" cm="1">
         <f t="array" aca="1" ref="G191" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>598917005925</v>
-      </c>
-      <c r="H191" s="2">
+        <v>985663880614</v>
+      </c>
+      <c r="H191">
         <f t="shared" ca="1" si="11"/>
-        <v>1662571272</v>
-      </c>
-      <c r="I191" s="2">
+        <v>1662537229</v>
+      </c>
+      <c r="I191">
         <f t="shared" si="12"/>
         <v>1662595200</v>
       </c>
@@ -8604,7 +8616,7 @@
       </c>
       <c r="L191" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 598917005925, "submittedDateTime": 1662571272, "completedDateTime": 1662595200, "amount": 5.39, "memo": "CKO*PATREON* MEMBERSHI 833-9728766 CA" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 985663880614, "submittedDateTime": 1662537229, "completedDateTime": 1662595200, "amount": 5.39, "memo": "CKO*PATREON* MEMBERSHI 833-9728766 CA" }}},</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.2">
@@ -8620,15 +8632,15 @@
       <c r="D192">
         <v>30</v>
       </c>
-      <c r="G192" s="3" cm="1">
+      <c r="G192" s="2" cm="1">
         <f t="array" aca="1" ref="G192" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>732504662515</v>
-      </c>
-      <c r="H192" s="2">
+        <v>129025537739</v>
+      </c>
+      <c r="H192">
         <f t="shared" ca="1" si="11"/>
-        <v>1662668802</v>
-      </c>
-      <c r="I192" s="2">
+        <v>1662654369</v>
+      </c>
+      <c r="I192">
         <f t="shared" si="12"/>
         <v>1662681600</v>
       </c>
@@ -8642,7 +8654,7 @@
       </c>
       <c r="L192" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 732504662515, "submittedDateTime": 1662668802, "completedDateTime": 1662681600, "amount": 30, "memo": "VISIBLE 8663313527 CO" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 129025537739, "submittedDateTime": 1662654369, "completedDateTime": 1662681600, "amount": 30, "memo": "VISIBLE 8663313527 CO" }}},</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.2">
@@ -8658,15 +8670,15 @@
       <c r="D193">
         <v>16.59</v>
       </c>
-      <c r="G193" s="3" cm="1">
+      <c r="G193" s="2" cm="1">
         <f t="array" aca="1" ref="G193" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>498511217783</v>
-      </c>
-      <c r="H193" s="2">
+        <v>602716875113</v>
+      </c>
+      <c r="H193">
         <f t="shared" ca="1" si="11"/>
-        <v>1662766938</v>
-      </c>
-      <c r="I193" s="2">
+        <v>1662743473</v>
+      </c>
+      <c r="I193">
         <f t="shared" si="12"/>
         <v>1662768000</v>
       </c>
@@ -8680,7 +8692,7 @@
       </c>
       <c r="L193" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 498511217783, "submittedDateTime": 1662766938, "completedDateTime": 1662768000, "amount": 16.59, "memo": "LA ROSA'S HYDE PARK 513-984-3870 OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 602716875113, "submittedDateTime": 1662743473, "completedDateTime": 1662768000, "amount": 16.59, "memo": "LA ROSA'S HYDE PARK 513-984-3870 OH" }}},</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.2">
@@ -8696,15 +8708,15 @@
       <c r="D194">
         <v>97.93</v>
       </c>
-      <c r="G194" s="3" cm="1">
+      <c r="G194" s="2" cm="1">
         <f t="array" aca="1" ref="G194" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>732504662515</v>
-      </c>
-      <c r="H194" s="2">
+        <v>342768608852</v>
+      </c>
+      <c r="H194">
         <f t="shared" ca="1" si="11"/>
-        <v>1662712940</v>
-      </c>
-      <c r="I194" s="2">
+        <v>1662733274</v>
+      </c>
+      <c r="I194">
         <f t="shared" si="12"/>
         <v>1662768000</v>
       </c>
@@ -8718,7 +8730,7 @@
       </c>
       <c r="L194" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 732504662515, "submittedDateTime": 1662712940, "completedDateTime": 1662768000, "amount": 97.93, "memo": "RED BANK FINE WINE CINCINNATI OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 342768608852, "submittedDateTime": 1662733274, "completedDateTime": 1662768000, "amount": 97.93, "memo": "RED BANK FINE WINE CINCINNATI OH" }}},</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.2">
@@ -8734,15 +8746,15 @@
       <c r="D195">
         <v>18.260000000000002</v>
       </c>
-      <c r="G195" s="3" cm="1">
+      <c r="G195" s="2" cm="1">
         <f t="array" aca="1" ref="G195" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>498511217783</v>
-      </c>
-      <c r="H195" s="2">
+        <v>334321869864</v>
+      </c>
+      <c r="H195">
         <f t="shared" ref="H195:H258" ca="1" si="16">_xlfn.FLOOR.MATH((B195-DATE(1970,1,1)+RAND())*86400)</f>
-        <v>1662719408</v>
-      </c>
-      <c r="I195" s="2">
+        <v>1662736810</v>
+      </c>
+      <c r="I195">
         <f t="shared" ref="I195:I258" si="17">_xlfn.FLOOR.MATH((B195-DATE(1970,1,1)+1)*86400)</f>
         <v>1662768000</v>
       </c>
@@ -8756,7 +8768,7 @@
       </c>
       <c r="L195" t="str">
         <f t="shared" ref="L195:L258" ca="1" si="20">"{ "&amp;CHAR(34)&amp; "PutRequest"&amp;CHAR(34)&amp;": { "&amp;CHAR(34)&amp;"Item"&amp;CHAR(34)&amp;": { "&amp;CHAR(34) &amp;G$1&amp;CHAR(34) &amp;": "&amp;G195&amp; ", "&amp;CHAR(34) &amp;H$1&amp;CHAR(34) &amp;": "&amp;H195&amp; ", "&amp;CHAR(34) &amp;I$1&amp;CHAR(34) &amp;": "&amp;I195&amp; ", "&amp;CHAR(34) &amp;J$1&amp;CHAR(34) &amp;": "&amp;J195&amp; ", "&amp;CHAR(34) &amp;K$1&amp;CHAR(34) &amp;": "&amp;CHAR(34)&amp;K195&amp;CHAR(34) &amp;" }}},"</f>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 498511217783, "submittedDateTime": 1662719408, "completedDateTime": 1662768000, "amount": 18.26, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 334321869864, "submittedDateTime": 1662736810, "completedDateTime": 1662768000, "amount": 18.26, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" }}},</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.2">
@@ -8772,15 +8784,15 @@
       <c r="D196">
         <v>45.67</v>
       </c>
-      <c r="G196" s="3" cm="1">
+      <c r="G196" s="2" cm="1">
         <f t="array" aca="1" ref="G196" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>732504662515</v>
-      </c>
-      <c r="H196" s="2">
+        <v>852888074021</v>
+      </c>
+      <c r="H196">
         <f t="shared" ca="1" si="16"/>
-        <v>1663059813</v>
-      </c>
-      <c r="I196" s="2">
+        <v>1663063014</v>
+      </c>
+      <c r="I196">
         <f t="shared" si="17"/>
         <v>1663113600</v>
       </c>
@@ -8794,7 +8806,7 @@
       </c>
       <c r="L196" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 732504662515, "submittedDateTime": 1663059813, "completedDateTime": 1663113600, "amount": 45.67, "memo": "Tesla Insurance Servic Fremont CA null XXXXXXXXXXXX3777" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 852888074021, "submittedDateTime": 1663063014, "completedDateTime": 1663113600, "amount": 45.67, "memo": "Tesla Insurance Servic Fremont CA null XXXXXXXXXXXX3777" }}},</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.2">
@@ -8810,15 +8822,15 @@
       <c r="D197">
         <v>77.209999999999994</v>
       </c>
-      <c r="G197" s="3" cm="1">
+      <c r="G197" s="2" cm="1">
         <f t="array" aca="1" ref="G197" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>498511217783</v>
-      </c>
-      <c r="H197" s="2">
+        <v>140032156448</v>
+      </c>
+      <c r="H197">
         <f t="shared" ca="1" si="16"/>
-        <v>1663034395</v>
-      </c>
-      <c r="I197" s="2">
+        <v>1663108874</v>
+      </c>
+      <c r="I197">
         <f t="shared" si="17"/>
         <v>1663113600</v>
       </c>
@@ -8832,7 +8844,7 @@
       </c>
       <c r="L197" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 498511217783, "submittedDateTime": 1663034395, "completedDateTime": 1663113600, "amount": 77.21, "memo": "HELLOFRESH 646-846-3663 NY" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 140032156448, "submittedDateTime": 1663108874, "completedDateTime": 1663113600, "amount": 77.21, "memo": "HELLOFRESH 646-846-3663 NY" }}},</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.2">
@@ -8848,15 +8860,15 @@
       <c r="D198">
         <v>73.89</v>
       </c>
-      <c r="G198" s="3" cm="1">
+      <c r="G198" s="2" cm="1">
         <f t="array" aca="1" ref="G198" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>359991678203</v>
-      </c>
-      <c r="H198" s="2">
+        <v>140032156448</v>
+      </c>
+      <c r="H198">
         <f t="shared" ca="1" si="16"/>
-        <v>1663145379</v>
-      </c>
-      <c r="I198" s="2">
+        <v>1663142845</v>
+      </c>
+      <c r="I198">
         <f t="shared" si="17"/>
         <v>1663200000</v>
       </c>
@@ -8870,7 +8882,7 @@
       </c>
       <c r="L198" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 359991678203, "submittedDateTime": 1663145379, "completedDateTime": 1663200000, "amount": 73.89, "memo": "TURO INC.* TRIP SEP 19 SAN FRANCISCO CA null XXXXXXXXXXXX2971" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 140032156448, "submittedDateTime": 1663142845, "completedDateTime": 1663200000, "amount": 73.89, "memo": "TURO INC.* TRIP SEP 19 SAN FRANCISCO CA null XXXXXXXXXXXX2971" }}},</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.2">
@@ -8886,15 +8898,15 @@
       <c r="D199">
         <v>6.97</v>
       </c>
-      <c r="G199" s="3" cm="1">
+      <c r="G199" s="2" cm="1">
         <f t="array" aca="1" ref="G199" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>402123746805</v>
-      </c>
-      <c r="H199" s="2">
+        <v>422657850099</v>
+      </c>
+      <c r="H199">
         <f t="shared" ca="1" si="16"/>
-        <v>1663284167</v>
-      </c>
-      <c r="I199" s="2">
+        <v>1663255299</v>
+      </c>
+      <c r="I199">
         <f t="shared" si="17"/>
         <v>1663286400</v>
       </c>
@@ -8908,7 +8920,7 @@
       </c>
       <c r="L199" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 402123746805, "submittedDateTime": 1663284167, "completedDateTime": 1663286400, "amount": 6.97, "memo": "WM SUPERCENTER #2250 CINCINNATI OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 422657850099, "submittedDateTime": 1663255299, "completedDateTime": 1663286400, "amount": 6.97, "memo": "WM SUPERCENTER #2250 CINCINNATI OH" }}},</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.2">
@@ -8924,15 +8936,15 @@
       <c r="D200">
         <v>19.260000000000002</v>
       </c>
-      <c r="G200" s="3" cm="1">
+      <c r="G200" s="2" cm="1">
         <f t="array" aca="1" ref="G200" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>594392737621</v>
-      </c>
-      <c r="H200" s="2">
+        <v>129025537739</v>
+      </c>
+      <c r="H200">
         <f t="shared" ca="1" si="16"/>
-        <v>1663352610</v>
-      </c>
-      <c r="I200" s="2">
+        <v>1663338626</v>
+      </c>
+      <c r="I200">
         <f t="shared" si="17"/>
         <v>1663372800</v>
       </c>
@@ -8946,7 +8958,7 @@
       </c>
       <c r="L200" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 594392737621, "submittedDateTime": 1663352610, "completedDateTime": 1663372800, "amount": 19.26, "memo": "SALT FORK STATE PARK G CAMBRIDGE OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 129025537739, "submittedDateTime": 1663338626, "completedDateTime": 1663372800, "amount": 19.26, "memo": "SALT FORK STATE PARK G CAMBRIDGE OH" }}},</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.2">
@@ -8962,15 +8974,15 @@
       <c r="D201">
         <v>20.52</v>
       </c>
-      <c r="G201" s="3" cm="1">
+      <c r="G201" s="2" cm="1">
         <f t="array" aca="1" ref="G201" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>598917005925</v>
-      </c>
-      <c r="H201" s="2">
+        <v>583736154011</v>
+      </c>
+      <c r="H201">
         <f t="shared" ca="1" si="16"/>
-        <v>1663364250</v>
-      </c>
-      <c r="I201" s="2">
+        <v>1663348068</v>
+      </c>
+      <c r="I201">
         <f t="shared" si="17"/>
         <v>1663372800</v>
       </c>
@@ -8984,7 +8996,7 @@
       </c>
       <c r="L201" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 598917005925, "submittedDateTime": 1663364250, "completedDateTime": 1663372800, "amount": 20.52, "memo": "SALT FORK STATE PARK G CAMBRIDGE OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 583736154011, "submittedDateTime": 1663348068, "completedDateTime": 1663372800, "amount": 20.52, "memo": "SALT FORK STATE PARK G CAMBRIDGE OH" }}},</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.2">
@@ -9000,15 +9012,15 @@
       <c r="D202">
         <v>39.19</v>
       </c>
-      <c r="G202" s="3" cm="1">
+      <c r="G202" s="2" cm="1">
         <f t="array" aca="1" ref="G202" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>669914345717</v>
-      </c>
-      <c r="H202" s="2">
+        <v>342768608852</v>
+      </c>
+      <c r="H202">
         <f t="shared" ca="1" si="16"/>
-        <v>1663573475</v>
-      </c>
-      <c r="I202" s="2">
+        <v>1663607272</v>
+      </c>
+      <c r="I202">
         <f t="shared" si="17"/>
         <v>1663632000</v>
       </c>
@@ -9022,7 +9034,7 @@
       </c>
       <c r="L202" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 669914345717, "submittedDateTime": 1663573475, "completedDateTime": 1663632000, "amount": 39.19, "memo": "WAL-MART #2250 CINCINNATI OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 342768608852, "submittedDateTime": 1663607272, "completedDateTime": 1663632000, "amount": 39.19, "memo": "WAL-MART #2250 CINCINNATI OH" }}},</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.2">
@@ -9038,15 +9050,15 @@
       <c r="D203">
         <v>49.1</v>
       </c>
-      <c r="G203" s="3" cm="1">
+      <c r="G203" s="2" cm="1">
         <f t="array" aca="1" ref="G203" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>399061551780</v>
-      </c>
-      <c r="H203" s="2">
+        <v>985663880614</v>
+      </c>
+      <c r="H203">
         <f t="shared" ca="1" si="16"/>
-        <v>1663548701</v>
-      </c>
-      <c r="I203" s="2">
+        <v>1663559385</v>
+      </c>
+      <c r="I203">
         <f t="shared" si="17"/>
         <v>1663632000</v>
       </c>
@@ -9060,7 +9072,7 @@
       </c>
       <c r="L203" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 399061551780, "submittedDateTime": 1663548701, "completedDateTime": 1663632000, "amount": 49.1, "memo": "SPEEDWAY 09576 CINCINN CINCINNATI OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 985663880614, "submittedDateTime": 1663559385, "completedDateTime": 1663632000, "amount": 49.1, "memo": "SPEEDWAY 09576 CINCINN CINCINNATI OH" }}},</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.2">
@@ -9076,15 +9088,15 @@
       <c r="D204">
         <v>44.9</v>
       </c>
-      <c r="G204" s="3" cm="1">
+      <c r="G204" s="2" cm="1">
         <f t="array" aca="1" ref="G204" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>399061551780</v>
-      </c>
-      <c r="H204" s="2">
+        <v>195664351857</v>
+      </c>
+      <c r="H204">
         <f t="shared" ca="1" si="16"/>
-        <v>1663574111</v>
-      </c>
-      <c r="I204" s="2">
+        <v>1663572350</v>
+      </c>
+      <c r="I204">
         <f t="shared" si="17"/>
         <v>1663632000</v>
       </c>
@@ -9098,7 +9110,7 @@
       </c>
       <c r="L204" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 399061551780, "submittedDateTime": 1663574111, "completedDateTime": 1663632000, "amount": 44.9, "memo": "dbrand Order 6472053971 CAN" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 195664351857, "submittedDateTime": 1663572350, "completedDateTime": 1663632000, "amount": 44.9, "memo": "dbrand Order 6472053971 CAN" }}},</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.2">
@@ -9114,15 +9126,15 @@
       <c r="D205">
         <v>98.61</v>
       </c>
-      <c r="G205" s="3" cm="1">
+      <c r="G205" s="2" cm="1">
         <f t="array" aca="1" ref="G205" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>861239476106</v>
-      </c>
-      <c r="H205" s="2">
+        <v>334321869864</v>
+      </c>
+      <c r="H205">
         <f t="shared" ca="1" si="16"/>
-        <v>1663663177</v>
-      </c>
-      <c r="I205" s="2">
+        <v>1663653396</v>
+      </c>
+      <c r="I205">
         <f t="shared" si="17"/>
         <v>1663718400</v>
       </c>
@@ -9136,7 +9148,7 @@
       </c>
       <c r="L205" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 861239476106, "submittedDateTime": 1663663177, "completedDateTime": 1663718400, "amount": 98.61, "memo": "HELLOFRESH 646-8463663 NY" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 334321869864, "submittedDateTime": 1663653396, "completedDateTime": 1663718400, "amount": 98.61, "memo": "HELLOFRESH 646-8463663 NY" }}},</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.2">
@@ -9152,15 +9164,15 @@
       <c r="E206">
         <v>-41</v>
       </c>
-      <c r="G206" s="3" cm="1">
+      <c r="G206" s="2" cm="1">
         <f t="array" aca="1" ref="G206" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>304160714309</v>
-      </c>
-      <c r="H206" s="2">
+        <v>422657850099</v>
+      </c>
+      <c r="H206">
         <f t="shared" ca="1" si="16"/>
-        <v>1663771166</v>
-      </c>
-      <c r="I206" s="2">
+        <v>1663778588</v>
+      </c>
+      <c r="I206">
         <f t="shared" si="17"/>
         <v>1663804800</v>
       </c>
@@ -9174,7 +9186,7 @@
       </c>
       <c r="L206" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 304160714309, "submittedDateTime": 1663771166, "completedDateTime": 1663804800, "amount": -41, "memo": "AUTOPAY 220614032635645RAUTOPAY AUTO-PMT" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 422657850099, "submittedDateTime": 1663778588, "completedDateTime": 1663804800, "amount": -41, "memo": "AUTOPAY 220614032635645RAUTOPAY AUTO-PMT" }}},</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.2">
@@ -9190,15 +9202,15 @@
       <c r="E207">
         <v>-44.9</v>
       </c>
-      <c r="G207" s="3" cm="1">
+      <c r="G207" s="2" cm="1">
         <f t="array" aca="1" ref="G207" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>732504662515</v>
-      </c>
-      <c r="H207" s="2">
+        <v>602716875113</v>
+      </c>
+      <c r="H207">
         <f t="shared" ca="1" si="16"/>
-        <v>1663787420</v>
-      </c>
-      <c r="I207" s="2">
+        <v>1663775394</v>
+      </c>
+      <c r="I207">
         <f t="shared" si="17"/>
         <v>1663804800</v>
       </c>
@@ -9212,7 +9224,7 @@
       </c>
       <c r="L207" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 732504662515, "submittedDateTime": 1663787420, "completedDateTime": 1663804800, "amount": -44.9, "memo": "dbrand Order 6472053971 CAN" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 602716875113, "submittedDateTime": 1663775394, "completedDateTime": 1663804800, "amount": -44.9, "memo": "dbrand Order 6472053971 CAN" }}},</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.2">
@@ -9228,15 +9240,15 @@
       <c r="D208">
         <v>58.3</v>
       </c>
-      <c r="G208" s="3" cm="1">
+      <c r="G208" s="2" cm="1">
         <f t="array" aca="1" ref="G208" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>749596570472</v>
-      </c>
-      <c r="H208" s="2">
+        <v>342768608852</v>
+      </c>
+      <c r="H208">
         <f t="shared" ca="1" si="16"/>
-        <v>1663736993</v>
-      </c>
-      <c r="I208" s="2">
+        <v>1663797546</v>
+      </c>
+      <c r="I208">
         <f t="shared" si="17"/>
         <v>1663804800</v>
       </c>
@@ -9250,7 +9262,7 @@
       </c>
       <c r="L208" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 749596570472, "submittedDateTime": 1663736993, "completedDateTime": 1663804800, "amount": 58.3, "memo": "WM SUPERCENTER #2250 CINCINNATI OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 342768608852, "submittedDateTime": 1663797546, "completedDateTime": 1663804800, "amount": 58.3, "memo": "WM SUPERCENTER #2250 CINCINNATI OH" }}},</v>
       </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.2">
@@ -9266,15 +9278,15 @@
       <c r="D209">
         <v>36.9</v>
       </c>
-      <c r="G209" s="3" cm="1">
+      <c r="G209" s="2" cm="1">
         <f t="array" aca="1" ref="G209" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>749596570472</v>
-      </c>
-      <c r="H209" s="2">
+        <v>513319807340</v>
+      </c>
+      <c r="H209">
         <f t="shared" ca="1" si="16"/>
-        <v>1663734560</v>
-      </c>
-      <c r="I209" s="2">
+        <v>1663752497</v>
+      </c>
+      <c r="I209">
         <f t="shared" si="17"/>
         <v>1663804800</v>
       </c>
@@ -9288,7 +9300,7 @@
       </c>
       <c r="L209" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 749596570472, "submittedDateTime": 1663734560, "completedDateTime": 1663804800, "amount": 36.9, "memo": "dbrand Order 6472053971 CAN" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 513319807340, "submittedDateTime": 1663752497, "completedDateTime": 1663804800, "amount": 36.9, "memo": "dbrand Order 6472053971 CAN" }}},</v>
       </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.2">
@@ -9304,15 +9316,15 @@
       <c r="E210">
         <v>-36.9</v>
       </c>
-      <c r="G210" s="3" cm="1">
+      <c r="G210" s="2" cm="1">
         <f t="array" aca="1" ref="G210" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>598917005925</v>
-      </c>
-      <c r="H210" s="2">
+        <v>583736154011</v>
+      </c>
+      <c r="H210">
         <f t="shared" ca="1" si="16"/>
-        <v>1664053713</v>
-      </c>
-      <c r="I210" s="2">
+        <v>1664058198</v>
+      </c>
+      <c r="I210">
         <f t="shared" si="17"/>
         <v>1664064000</v>
       </c>
@@ -9326,7 +9338,7 @@
       </c>
       <c r="L210" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 598917005925, "submittedDateTime": 1664053713, "completedDateTime": 1664064000, "amount": -36.9, "memo": "dbrand Order 6472053971 CAN" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 583736154011, "submittedDateTime": 1664058198, "completedDateTime": 1664064000, "amount": -36.9, "memo": "dbrand Order 6472053971 CAN" }}},</v>
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.2">
@@ -9342,15 +9354,15 @@
       <c r="E211">
         <v>-21.31</v>
       </c>
-      <c r="G211" s="3" cm="1">
+      <c r="G211" s="2" cm="1">
         <f t="array" aca="1" ref="G211" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>598917005925</v>
-      </c>
-      <c r="H211" s="2">
+        <v>513319807340</v>
+      </c>
+      <c r="H211">
         <f t="shared" ca="1" si="16"/>
-        <v>1664128871</v>
-      </c>
-      <c r="I211" s="2">
+        <v>1664071590</v>
+      </c>
+      <c r="I211">
         <f t="shared" si="17"/>
         <v>1664150400</v>
       </c>
@@ -9364,7 +9376,7 @@
       </c>
       <c r="L211" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 598917005925, "submittedDateTime": 1664128871, "completedDateTime": 1664150400, "amount": -21.31, "memo": "WAL-MART #2250 CINCINNATI OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 513319807340, "submittedDateTime": 1664071590, "completedDateTime": 1664150400, "amount": -21.31, "memo": "WAL-MART #2250 CINCINNATI OH" }}},</v>
       </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.2">
@@ -9380,15 +9392,15 @@
       <c r="E212">
         <v>-21.53</v>
       </c>
-      <c r="G212" s="3" cm="1">
+      <c r="G212" s="2" cm="1">
         <f t="array" aca="1" ref="G212" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>861239476106</v>
-      </c>
-      <c r="H212" s="2">
+        <v>422657850099</v>
+      </c>
+      <c r="H212">
         <f t="shared" ca="1" si="16"/>
-        <v>1664114143</v>
-      </c>
-      <c r="I212" s="2">
+        <v>1664074919</v>
+      </c>
+      <c r="I212">
         <f t="shared" si="17"/>
         <v>1664150400</v>
       </c>
@@ -9402,7 +9414,7 @@
       </c>
       <c r="L212" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 861239476106, "submittedDateTime": 1664114143, "completedDateTime": 1664150400, "amount": -21.53, "memo": "WAL-MART #2250 CINCINNATI OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 422657850099, "submittedDateTime": 1664074919, "completedDateTime": 1664150400, "amount": -21.53, "memo": "WAL-MART #2250 CINCINNATI OH" }}},</v>
       </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.2">
@@ -9418,15 +9430,15 @@
       <c r="D213">
         <v>58.81</v>
       </c>
-      <c r="G213" s="3" cm="1">
+      <c r="G213" s="2" cm="1">
         <f t="array" aca="1" ref="G213" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>749596570472</v>
-      </c>
-      <c r="H213" s="2">
+        <v>985663880614</v>
+      </c>
+      <c r="H213">
         <f t="shared" ca="1" si="16"/>
-        <v>1664066984</v>
-      </c>
-      <c r="I213" s="2">
+        <v>1664101893</v>
+      </c>
+      <c r="I213">
         <f t="shared" si="17"/>
         <v>1664150400</v>
       </c>
@@ -9440,7 +9452,7 @@
       </c>
       <c r="L213" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 749596570472, "submittedDateTime": 1664066984, "completedDateTime": 1664150400, "amount": 58.81, "memo": "WM SUPERCENTER #2250 CINCINNATI OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 985663880614, "submittedDateTime": 1664101893, "completedDateTime": 1664150400, "amount": 58.81, "memo": "WM SUPERCENTER #2250 CINCINNATI OH" }}},</v>
       </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.2">
@@ -9456,15 +9468,15 @@
       <c r="D214">
         <v>98.61</v>
       </c>
-      <c r="G214" s="3" cm="1">
+      <c r="G214" s="2" cm="1">
         <f t="array" aca="1" ref="G214" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>732504662515</v>
-      </c>
-      <c r="H214" s="2">
+        <v>513319807340</v>
+      </c>
+      <c r="H214">
         <f t="shared" ca="1" si="16"/>
-        <v>1664297870</v>
-      </c>
-      <c r="I214" s="2">
+        <v>1664295234</v>
+      </c>
+      <c r="I214">
         <f t="shared" si="17"/>
         <v>1664323200</v>
       </c>
@@ -9478,7 +9490,7 @@
       </c>
       <c r="L214" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 732504662515, "submittedDateTime": 1664297870, "completedDateTime": 1664323200, "amount": 98.61, "memo": "HELLOFRESH 646-846-3663 NY" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 513319807340, "submittedDateTime": 1664295234, "completedDateTime": 1664323200, "amount": 98.61, "memo": "HELLOFRESH 646-846-3663 NY" }}},</v>
       </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.2">
@@ -9494,15 +9506,15 @@
       <c r="E215">
         <v>-41</v>
       </c>
-      <c r="G215" s="3" cm="1">
+      <c r="G215" s="2" cm="1">
         <f t="array" aca="1" ref="G215" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>399061551780</v>
-      </c>
-      <c r="H215" s="2">
+        <v>852888074021</v>
+      </c>
+      <c r="H215">
         <f t="shared" ca="1" si="16"/>
-        <v>1664399897</v>
-      </c>
-      <c r="I215" s="2">
+        <v>1664394239</v>
+      </c>
+      <c r="I215">
         <f t="shared" si="17"/>
         <v>1664409600</v>
       </c>
@@ -9516,7 +9528,7 @@
       </c>
       <c r="L215" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 399061551780, "submittedDateTime": 1664399897, "completedDateTime": 1664409600, "amount": -41, "memo": "ONLINE PAYMENT, THANK YOU" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 852888074021, "submittedDateTime": 1664394239, "completedDateTime": 1664409600, "amount": -41, "memo": "ONLINE PAYMENT, THANK YOU" }}},</v>
       </c>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.2">
@@ -9532,15 +9544,15 @@
       <c r="D216">
         <v>119</v>
       </c>
-      <c r="G216" s="3" cm="1">
+      <c r="G216" s="2" cm="1">
         <f t="array" aca="1" ref="G216" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>749596570472</v>
-      </c>
-      <c r="H216" s="2">
+        <v>513319807340</v>
+      </c>
+      <c r="H216">
         <f t="shared" ca="1" si="16"/>
-        <v>1664323865</v>
-      </c>
-      <c r="I216" s="2">
+        <v>1664324946</v>
+      </c>
+      <c r="I216">
         <f t="shared" si="17"/>
         <v>1664409600</v>
       </c>
@@ -9554,7 +9566,7 @@
       </c>
       <c r="L216" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 749596570472, "submittedDateTime": 1664323865, "completedDateTime": 1664409600, "amount": 119, "memo": "CIRCUITBOARDREPAIR.NET MADISON WI" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 513319807340, "submittedDateTime": 1664324946, "completedDateTime": 1664409600, "amount": 119, "memo": "CIRCUITBOARDREPAIR.NET MADISON WI" }}},</v>
       </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.2">
@@ -9570,15 +9582,15 @@
       <c r="D217">
         <v>7.34</v>
       </c>
-      <c r="G217" s="3" cm="1">
+      <c r="G217" s="2" cm="1">
         <f t="array" aca="1" ref="G217" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>732504662515</v>
-      </c>
-      <c r="H217" s="2">
+        <v>663912409988</v>
+      </c>
+      <c r="H217">
         <f t="shared" ca="1" si="16"/>
-        <v>1664442030</v>
-      </c>
-      <c r="I217" s="2">
+        <v>1664437014</v>
+      </c>
+      <c r="I217">
         <f t="shared" si="17"/>
         <v>1664496000</v>
       </c>
@@ -9592,7 +9604,7 @@
       </c>
       <c r="L217" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 732504662515, "submittedDateTime": 1664442030, "completedDateTime": 1664496000, "amount": 7.34, "memo": "VISIBLE 8663313527 CO" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 663912409988, "submittedDateTime": 1664437014, "completedDateTime": 1664496000, "amount": 7.34, "memo": "VISIBLE 8663313527 CO" }}},</v>
       </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.2">
@@ -9608,15 +9620,15 @@
       <c r="D218">
         <v>223.66</v>
       </c>
-      <c r="G218" s="3" cm="1">
+      <c r="G218" s="2" cm="1">
         <f t="array" aca="1" ref="G218" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>732504662515</v>
-      </c>
-      <c r="H218" s="2">
+        <v>583736154011</v>
+      </c>
+      <c r="H218">
         <f t="shared" ca="1" si="16"/>
-        <v>1664636236</v>
-      </c>
-      <c r="I218" s="2">
+        <v>1664612485</v>
+      </c>
+      <c r="I218">
         <f t="shared" si="17"/>
         <v>1664668800</v>
       </c>
@@ -9630,7 +9642,7 @@
       </c>
       <c r="L218" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 732504662515, "submittedDateTime": 1664636236, "completedDateTime": 1664668800, "amount": 223.66, "memo": "SPI*DUKE-ENERGY 800-777-9898 NC" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 583736154011, "submittedDateTime": 1664612485, "completedDateTime": 1664668800, "amount": 223.66, "memo": "SPI*DUKE-ENERGY 800-777-9898 NC" }}},</v>
       </c>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.2">
@@ -9646,15 +9658,15 @@
       <c r="E219">
         <v>-83</v>
       </c>
-      <c r="G219" s="3" cm="1">
+      <c r="G219" s="2" cm="1">
         <f t="array" aca="1" ref="G219" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>732504662515</v>
-      </c>
-      <c r="H219" s="2">
+        <v>663912409988</v>
+      </c>
+      <c r="H219">
         <f t="shared" ca="1" si="16"/>
-        <v>1664881219</v>
-      </c>
-      <c r="I219" s="2">
+        <v>1664880712</v>
+      </c>
+      <c r="I219">
         <f t="shared" si="17"/>
         <v>1664928000</v>
       </c>
@@ -9668,7 +9680,7 @@
       </c>
       <c r="L219" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 732504662515, "submittedDateTime": 1664881219, "completedDateTime": 1664928000, "amount": -83, "memo": "CIRCUITBOARDREPAIR.NET MADISON WI" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 663912409988, "submittedDateTime": 1664880712, "completedDateTime": 1664928000, "amount": -83, "memo": "CIRCUITBOARDREPAIR.NET MADISON WI" }}},</v>
       </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.2">
@@ -9684,15 +9696,15 @@
       <c r="D220">
         <v>98.61</v>
       </c>
-      <c r="G220" s="3" cm="1">
+      <c r="G220" s="2" cm="1">
         <f t="array" aca="1" ref="G220" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>304160714309</v>
-      </c>
-      <c r="H220" s="2">
+        <v>422657850099</v>
+      </c>
+      <c r="H220">
         <f t="shared" ca="1" si="16"/>
-        <v>1664916350</v>
-      </c>
-      <c r="I220" s="2">
+        <v>1664861955</v>
+      </c>
+      <c r="I220">
         <f t="shared" si="17"/>
         <v>1664928000</v>
       </c>
@@ -9706,7 +9718,7 @@
       </c>
       <c r="L220" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 304160714309, "submittedDateTime": 1664916350, "completedDateTime": 1664928000, "amount": 98.61, "memo": "HELLOFRESH 3472000291 NY null XXXXXXXXXXXX0862" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 422657850099, "submittedDateTime": 1664861955, "completedDateTime": 1664928000, "amount": 98.61, "memo": "HELLOFRESH 3472000291 NY null XXXXXXXXXXXX0862" }}},</v>
       </c>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.2">
@@ -9722,15 +9734,15 @@
       <c r="E221">
         <v>-129.66999999999999</v>
       </c>
-      <c r="G221" s="3" cm="1">
+      <c r="G221" s="2" cm="1">
         <f t="array" aca="1" ref="G221" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>749596570472</v>
-      </c>
-      <c r="H221" s="2">
+        <v>602716875113</v>
+      </c>
+      <c r="H221">
         <f t="shared" ca="1" si="16"/>
-        <v>1664991440</v>
-      </c>
-      <c r="I221" s="2">
+        <v>1664965412</v>
+      </c>
+      <c r="I221">
         <f t="shared" si="17"/>
         <v>1665014400</v>
       </c>
@@ -9744,7 +9756,7 @@
       </c>
       <c r="L221" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 749596570472, "submittedDateTime": 1664991440, "completedDateTime": 1665014400, "amount": -129.67, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 602716875113, "submittedDateTime": 1664965412, "completedDateTime": 1665014400, "amount": -129.67, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" }}},</v>
       </c>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.2">
@@ -9760,15 +9772,15 @@
       <c r="D222">
         <v>12.99</v>
       </c>
-      <c r="G222" s="3" cm="1">
+      <c r="G222" s="2" cm="1">
         <f t="array" aca="1" ref="G222" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>399061551780</v>
-      </c>
-      <c r="H222" s="2">
+        <v>852888074021</v>
+      </c>
+      <c r="H222">
         <f t="shared" ca="1" si="16"/>
-        <v>1664941130</v>
-      </c>
-      <c r="I222" s="2">
+        <v>1664938668</v>
+      </c>
+      <c r="I222">
         <f t="shared" si="17"/>
         <v>1665014400</v>
       </c>
@@ -9782,7 +9794,7 @@
       </c>
       <c r="L222" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 399061551780, "submittedDateTime": 1664941130, "completedDateTime": 1665014400, "amount": 12.99, "memo": "PENN STATION 10 CINCINNATI OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 852888074021, "submittedDateTime": 1664938668, "completedDateTime": 1665014400, "amount": 12.99, "memo": "PENN STATION 10 CINCINNATI OH" }}},</v>
       </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.2">
@@ -9798,15 +9810,15 @@
       <c r="D223">
         <v>12.93</v>
       </c>
-      <c r="G223" s="3" cm="1">
+      <c r="G223" s="2" cm="1">
         <f t="array" aca="1" ref="G223" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>399061551780</v>
-      </c>
-      <c r="H223" s="2">
+        <v>342768608852</v>
+      </c>
+      <c r="H223">
         <f t="shared" ca="1" si="16"/>
-        <v>1665007189</v>
-      </c>
-      <c r="I223" s="2">
+        <v>1664957267</v>
+      </c>
+      <c r="I223">
         <f t="shared" si="17"/>
         <v>1665014400</v>
       </c>
@@ -9820,7 +9832,7 @@
       </c>
       <c r="L223" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 399061551780, "submittedDateTime": 1665007189, "completedDateTime": 1665014400, "amount": 12.93, "memo": "GOOGLE *YouTubePremium 650-253-0000 CA" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 342768608852, "submittedDateTime": 1664957267, "completedDateTime": 1665014400, "amount": 12.93, "memo": "GOOGLE *YouTubePremium 650-253-0000 CA" }}},</v>
       </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.2">
@@ -9836,15 +9848,15 @@
       <c r="D224">
         <v>5.27</v>
       </c>
-      <c r="G224" s="3" cm="1">
+      <c r="G224" s="2" cm="1">
         <f t="array" aca="1" ref="G224" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>598917005925</v>
-      </c>
-      <c r="H224" s="2">
+        <v>342768608852</v>
+      </c>
+      <c r="H224">
         <f t="shared" ca="1" si="16"/>
-        <v>1664979558</v>
-      </c>
-      <c r="I224" s="2">
+        <v>1664928433</v>
+      </c>
+      <c r="I224">
         <f t="shared" si="17"/>
         <v>1665014400</v>
       </c>
@@ -9858,7 +9870,7 @@
       </c>
       <c r="L224" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 598917005925, "submittedDateTime": 1664979558, "completedDateTime": 1665014400, "amount": 5.27, "memo": "MARATHON PETRO140699 CINCINNATI OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 342768608852, "submittedDateTime": 1664928433, "completedDateTime": 1665014400, "amount": 5.27, "memo": "MARATHON PETRO140699 CINCINNATI OH" }}},</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.2">
@@ -9874,15 +9886,15 @@
       <c r="D225">
         <v>150</v>
       </c>
-      <c r="G225" s="3" cm="1">
+      <c r="G225" s="2" cm="1">
         <f t="array" aca="1" ref="G225" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>498511217783</v>
-      </c>
-      <c r="H225" s="2">
+        <v>342768608852</v>
+      </c>
+      <c r="H225">
         <f t="shared" ca="1" si="16"/>
-        <v>1664979108</v>
-      </c>
-      <c r="I225" s="2">
+        <v>1664960167</v>
+      </c>
+      <c r="I225">
         <f t="shared" si="17"/>
         <v>1665014400</v>
       </c>
@@ -9896,7 +9908,7 @@
       </c>
       <c r="L225" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 498511217783, "submittedDateTime": 1664979108, "completedDateTime": 1665014400, "amount": 150, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 342768608852, "submittedDateTime": 1664960167, "completedDateTime": 1665014400, "amount": 150, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" }}},</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.2">
@@ -9912,15 +9924,15 @@
       <c r="D226">
         <v>307.01</v>
       </c>
-      <c r="G226" s="3" cm="1">
+      <c r="G226" s="2" cm="1">
         <f t="array" aca="1" ref="G226" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>498511217783</v>
-      </c>
-      <c r="H226" s="2">
+        <v>342768608852</v>
+      </c>
+      <c r="H226">
         <f t="shared" ca="1" si="16"/>
-        <v>1664980758</v>
-      </c>
-      <c r="I226" s="2">
+        <v>1664957830</v>
+      </c>
+      <c r="I226">
         <f t="shared" si="17"/>
         <v>1665014400</v>
       </c>
@@ -9934,7 +9946,7 @@
       </c>
       <c r="L226" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 498511217783, "submittedDateTime": 1664980758, "completedDateTime": 1665014400, "amount": 307.01, "memo": "THE HOME DEPOT 3832 CINCINNATI OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 342768608852, "submittedDateTime": 1664957830, "completedDateTime": 1665014400, "amount": 307.01, "memo": "THE HOME DEPOT 3832 CINCINNATI OH" }}},</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.2">
@@ -9950,15 +9962,15 @@
       <c r="D227">
         <v>613.38</v>
       </c>
-      <c r="G227" s="3" cm="1">
+      <c r="G227" s="2" cm="1">
         <f t="array" aca="1" ref="G227" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>402123746805</v>
-      </c>
-      <c r="H227" s="2">
+        <v>334321869864</v>
+      </c>
+      <c r="H227">
         <f t="shared" ca="1" si="16"/>
-        <v>1664986618</v>
-      </c>
-      <c r="I227" s="2">
+        <v>1664934341</v>
+      </c>
+      <c r="I227">
         <f t="shared" si="17"/>
         <v>1665014400</v>
       </c>
@@ -9972,7 +9984,7 @@
       </c>
       <c r="L227" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 402123746805, "submittedDateTime": 1664986618, "completedDateTime": 1665014400, "amount": 613.38, "memo": "THE HOME DEPOT 3832 CINCINNATI OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 334321869864, "submittedDateTime": 1664934341, "completedDateTime": 1665014400, "amount": 613.38, "memo": "THE HOME DEPOT 3832 CINCINNATI OH" }}},</v>
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.2">
@@ -9988,15 +10000,15 @@
       <c r="D228">
         <v>34.270000000000003</v>
       </c>
-      <c r="G228" s="3" cm="1">
+      <c r="G228" s="2" cm="1">
         <f t="array" aca="1" ref="G228" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>498511217783</v>
-      </c>
-      <c r="H228" s="2">
+        <v>852888074021</v>
+      </c>
+      <c r="H228">
         <f t="shared" ca="1" si="16"/>
-        <v>1665083320</v>
-      </c>
-      <c r="I228" s="2">
+        <v>1665054827</v>
+      </c>
+      <c r="I228">
         <f t="shared" si="17"/>
         <v>1665100800</v>
       </c>
@@ -10010,7 +10022,7 @@
       </c>
       <c r="L228" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 498511217783, "submittedDateTime": 1665083320, "completedDateTime": 1665100800, "amount": 34.27, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 852888074021, "submittedDateTime": 1665054827, "completedDateTime": 1665100800, "amount": 34.27, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" }}},</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.2">
@@ -10026,15 +10038,15 @@
       <c r="D229">
         <v>50</v>
       </c>
-      <c r="G229" s="3" cm="1">
+      <c r="G229" s="2" cm="1">
         <f t="array" aca="1" ref="G229" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>826711618850</v>
-      </c>
-      <c r="H229" s="2">
+        <v>602716875113</v>
+      </c>
+      <c r="H229">
         <f t="shared" ca="1" si="16"/>
-        <v>1665211739</v>
-      </c>
-      <c r="I229" s="2">
+        <v>1665210002</v>
+      </c>
+      <c r="I229">
         <f t="shared" si="17"/>
         <v>1665273600</v>
       </c>
@@ -10048,7 +10060,7 @@
       </c>
       <c r="L229" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 826711618850, "submittedDateTime": 1665211739, "completedDateTime": 1665273600, "amount": 50, "memo": "VISIBLE 8663313527 CO" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 602716875113, "submittedDateTime": 1665210002, "completedDateTime": 1665273600, "amount": 50, "memo": "VISIBLE 8663313527 CO" }}},</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.2">
@@ -10064,15 +10076,15 @@
       <c r="D230">
         <v>107.78</v>
       </c>
-      <c r="G230" s="3" cm="1">
+      <c r="G230" s="2" cm="1">
         <f t="array" aca="1" ref="G230" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>399061551780</v>
-      </c>
-      <c r="H230" s="2">
+        <v>422657850099</v>
+      </c>
+      <c r="H230">
         <f t="shared" ca="1" si="16"/>
-        <v>1665465676</v>
-      </c>
-      <c r="I230" s="2">
+        <v>1665486517</v>
+      </c>
+      <c r="I230">
         <f t="shared" si="17"/>
         <v>1665532800</v>
       </c>
@@ -10086,7 +10098,7 @@
       </c>
       <c r="L230" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 399061551780, "submittedDateTime": 1665465676, "completedDateTime": 1665532800, "amount": 107.78, "memo": "HELLOFRESH 646-846-3663 NY" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 422657850099, "submittedDateTime": 1665486517, "completedDateTime": 1665532800, "amount": 107.78, "memo": "HELLOFRESH 646-846-3663 NY" }}},</v>
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.2">
@@ -10102,15 +10114,15 @@
       <c r="D231">
         <v>119.38</v>
       </c>
-      <c r="G231" s="3" cm="1">
+      <c r="G231" s="2" cm="1">
         <f t="array" aca="1" ref="G231" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>669914345717</v>
-      </c>
-      <c r="H231" s="2">
+        <v>334321869864</v>
+      </c>
+      <c r="H231">
         <f t="shared" ca="1" si="16"/>
-        <v>1665490662</v>
-      </c>
-      <c r="I231" s="2">
+        <v>1665455797</v>
+      </c>
+      <c r="I231">
         <f t="shared" si="17"/>
         <v>1665532800</v>
       </c>
@@ -10124,7 +10136,7 @@
       </c>
       <c r="L231" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 669914345717, "submittedDateTime": 1665490662, "completedDateTime": 1665532800, "amount": 119.38, "memo": "WAL-MART #2250 CINCINNATI OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 334321869864, "submittedDateTime": 1665455797, "completedDateTime": 1665532800, "amount": 119.38, "memo": "WAL-MART #2250 CINCINNATI OH" }}},</v>
       </c>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.2">
@@ -10140,15 +10152,15 @@
       <c r="D232">
         <v>65.91</v>
       </c>
-      <c r="G232" s="3" cm="1">
+      <c r="G232" s="2" cm="1">
         <f t="array" aca="1" ref="G232" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>826711618850</v>
-      </c>
-      <c r="H232" s="2">
+        <v>583736154011</v>
+      </c>
+      <c r="H232">
         <f t="shared" ca="1" si="16"/>
-        <v>1665547154</v>
-      </c>
-      <c r="I232" s="2">
+        <v>1665599207</v>
+      </c>
+      <c r="I232">
         <f t="shared" si="17"/>
         <v>1665619200</v>
       </c>
@@ -10162,7 +10174,7 @@
       </c>
       <c r="L232" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 826711618850, "submittedDateTime": 1665547154, "completedDateTime": 1665619200, "amount": 65.91, "memo": "CIN BELL ELEC PAY 513-5652210 OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 583736154011, "submittedDateTime": 1665599207, "completedDateTime": 1665619200, "amount": 65.91, "memo": "CIN BELL ELEC PAY 513-5652210 OH" }}},</v>
       </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.2">
@@ -10178,15 +10190,15 @@
       <c r="D233">
         <v>50.84</v>
       </c>
-      <c r="G233" s="3" cm="1">
+      <c r="G233" s="2" cm="1">
         <f t="array" aca="1" ref="G233" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>861239476106</v>
-      </c>
-      <c r="H233" s="2">
+        <v>852888074021</v>
+      </c>
+      <c r="H233">
         <f t="shared" ca="1" si="16"/>
-        <v>1665665114</v>
-      </c>
-      <c r="I233" s="2">
+        <v>1665686053</v>
+      </c>
+      <c r="I233">
         <f t="shared" si="17"/>
         <v>1665705600</v>
       </c>
@@ -10200,7 +10212,7 @@
       </c>
       <c r="L233" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 861239476106, "submittedDateTime": 1665665114, "completedDateTime": 1665705600, "amount": 50.84, "memo": "Tesla Insurance Servic Fremont CA null XXXXXXXXXXXX3777" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 852888074021, "submittedDateTime": 1665686053, "completedDateTime": 1665705600, "amount": 50.84, "memo": "Tesla Insurance Servic Fremont CA null XXXXXXXXXXXX3777" }}},</v>
       </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.2">
@@ -10216,15 +10228,15 @@
       <c r="E234">
         <v>-2197.87</v>
       </c>
-      <c r="G234" s="3" cm="1">
+      <c r="G234" s="2" cm="1">
         <f t="array" aca="1" ref="G234" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>498511217783</v>
-      </c>
-      <c r="H234" s="2">
+        <v>422657850099</v>
+      </c>
+      <c r="H234">
         <f t="shared" ca="1" si="16"/>
-        <v>1665754401</v>
-      </c>
-      <c r="I234" s="2">
+        <v>1665724034</v>
+      </c>
+      <c r="I234">
         <f t="shared" si="17"/>
         <v>1665792000</v>
       </c>
@@ -10238,7 +10250,7 @@
       </c>
       <c r="L234" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 498511217783, "submittedDateTime": 1665754401, "completedDateTime": 1665792000, "amount": -2197.87, "memo": "ONLINE PAYMENT, THANK YOU" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 422657850099, "submittedDateTime": 1665724034, "completedDateTime": 1665792000, "amount": -2197.87, "memo": "ONLINE PAYMENT, THANK YOU" }}},</v>
       </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.2">
@@ -10254,15 +10266,15 @@
       <c r="D235">
         <v>4.9800000000000004</v>
       </c>
-      <c r="G235" s="3" cm="1">
+      <c r="G235" s="2" cm="1">
         <f t="array" aca="1" ref="G235" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>304160714309</v>
-      </c>
-      <c r="H235" s="2">
+        <v>985663880614</v>
+      </c>
+      <c r="H235">
         <f t="shared" ca="1" si="16"/>
-        <v>1666117027</v>
-      </c>
-      <c r="I235" s="2">
+        <v>1666121611</v>
+      </c>
+      <c r="I235">
         <f t="shared" si="17"/>
         <v>1666137600</v>
       </c>
@@ -10276,7 +10288,7 @@
       </c>
       <c r="L235" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 304160714309, "submittedDateTime": 1666117027, "completedDateTime": 1666137600, "amount": 4.98, "memo": "HELLOFRESH 646-846-3663 NY" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 985663880614, "submittedDateTime": 1666121611, "completedDateTime": 1666137600, "amount": 4.98, "memo": "HELLOFRESH 646-846-3663 NY" }}},</v>
       </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.2">
@@ -10292,15 +10304,15 @@
       <c r="D236">
         <v>100.87</v>
       </c>
-      <c r="G236" s="3" cm="1">
+      <c r="G236" s="2" cm="1">
         <f t="array" aca="1" ref="G236" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>861239476106</v>
-      </c>
-      <c r="H236" s="2">
+        <v>663912409988</v>
+      </c>
+      <c r="H236">
         <f t="shared" ca="1" si="16"/>
-        <v>1666053832</v>
-      </c>
-      <c r="I236" s="2">
+        <v>1666094325</v>
+      </c>
+      <c r="I236">
         <f t="shared" si="17"/>
         <v>1666137600</v>
       </c>
@@ -10314,7 +10326,7 @@
       </c>
       <c r="L236" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 861239476106, "submittedDateTime": 1666053832, "completedDateTime": 1666137600, "amount": 100.87, "memo": "HELLOFRESH 3472000291 NY null XXXXXXXXXXXX0862" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 663912409988, "submittedDateTime": 1666094325, "completedDateTime": 1666137600, "amount": 100.87, "memo": "HELLOFRESH 3472000291 NY null XXXXXXXXXXXX0862" }}},</v>
       </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.2">
@@ -10330,15 +10342,15 @@
       <c r="D237">
         <v>10</v>
       </c>
-      <c r="G237" s="3" cm="1">
+      <c r="G237" s="2" cm="1">
         <f t="array" aca="1" ref="G237" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>399061551780</v>
-      </c>
-      <c r="H237" s="2">
+        <v>129025537739</v>
+      </c>
+      <c r="H237">
         <f t="shared" ca="1" si="16"/>
-        <v>1666165579</v>
-      </c>
-      <c r="I237" s="2">
+        <v>1666157907</v>
+      </c>
+      <c r="I237">
         <f t="shared" si="17"/>
         <v>1666224000</v>
       </c>
@@ -10352,7 +10364,7 @@
       </c>
       <c r="L237" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 399061551780, "submittedDateTime": 1666165579, "completedDateTime": 1666224000, "amount": 10, "memo": "SQ *WILD SIDE EXPERIEN Burlington KY" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 129025537739, "submittedDateTime": 1666157907, "completedDateTime": 1666224000, "amount": 10, "memo": "SQ *WILD SIDE EXPERIEN Burlington KY" }}},</v>
       </c>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.2">
@@ -10368,15 +10380,15 @@
       <c r="E238">
         <v>-41</v>
       </c>
-      <c r="G238" s="3" cm="1">
+      <c r="G238" s="2" cm="1">
         <f t="array" aca="1" ref="G238" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>861239476106</v>
-      </c>
-      <c r="H238" s="2">
+        <v>342768608852</v>
+      </c>
+      <c r="H238">
         <f t="shared" ca="1" si="16"/>
-        <v>1666326522</v>
-      </c>
-      <c r="I238" s="2">
+        <v>1666368379</v>
+      </c>
+      <c r="I238">
         <f t="shared" si="17"/>
         <v>1666396800</v>
       </c>
@@ -10390,7 +10402,7 @@
       </c>
       <c r="L238" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 861239476106, "submittedDateTime": 1666326522, "completedDateTime": 1666396800, "amount": -41, "memo": "AUTOPAY 220614032635645RAUTOPAY AUTO-PMT" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 342768608852, "submittedDateTime": 1666368379, "completedDateTime": 1666396800, "amount": -41, "memo": "AUTOPAY 220614032635645RAUTOPAY AUTO-PMT" }}},</v>
       </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.2">
@@ -10406,15 +10418,15 @@
       <c r="E239">
         <v>-879.24</v>
       </c>
-      <c r="G239" s="3" cm="1">
+      <c r="G239" s="2" cm="1">
         <f t="array" aca="1" ref="G239" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>732504662515</v>
-      </c>
-      <c r="H239" s="2">
+        <v>334321869864</v>
+      </c>
+      <c r="H239">
         <f t="shared" ca="1" si="16"/>
-        <v>1666329362</v>
-      </c>
-      <c r="I239" s="2">
+        <v>1666355007</v>
+      </c>
+      <c r="I239">
         <f t="shared" si="17"/>
         <v>1666396800</v>
       </c>
@@ -10428,7 +10440,7 @@
       </c>
       <c r="L239" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 732504662515, "submittedDateTime": 1666329362, "completedDateTime": 1666396800, "amount": -879.24, "memo": "THE HOME DEPOT 3832 CINCINNATI OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 334321869864, "submittedDateTime": 1666355007, "completedDateTime": 1666396800, "amount": -879.24, "memo": "THE HOME DEPOT 3832 CINCINNATI OH" }}},</v>
       </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.2">
@@ -10444,15 +10456,15 @@
       <c r="E240">
         <v>-70.03</v>
       </c>
-      <c r="G240" s="3" cm="1">
+      <c r="G240" s="2" cm="1">
         <f t="array" aca="1" ref="G240" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>594392737621</v>
-      </c>
-      <c r="H240" s="2">
+        <v>422657850099</v>
+      </c>
+      <c r="H240">
         <f t="shared" ca="1" si="16"/>
-        <v>1666331093</v>
-      </c>
-      <c r="I240" s="2">
+        <v>1666343416</v>
+      </c>
+      <c r="I240">
         <f t="shared" si="17"/>
         <v>1666396800</v>
       </c>
@@ -10466,7 +10478,7 @@
       </c>
       <c r="L240" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 594392737621, "submittedDateTime": 1666331093, "completedDateTime": 1666396800, "amount": -70.03, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 422657850099, "submittedDateTime": 1666343416, "completedDateTime": 1666396800, "amount": -70.03, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" }}},</v>
       </c>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.2">
@@ -10482,15 +10494,15 @@
       <c r="D241">
         <v>17.52</v>
       </c>
-      <c r="G241" s="3" cm="1">
+      <c r="G241" s="2" cm="1">
         <f t="array" aca="1" ref="G241" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>304160714309</v>
-      </c>
-      <c r="H241" s="2">
+        <v>140032156448</v>
+      </c>
+      <c r="H241">
         <f t="shared" ca="1" si="16"/>
-        <v>1666485801</v>
-      </c>
-      <c r="I241" s="2">
+        <v>1666526867</v>
+      </c>
+      <c r="I241">
         <f t="shared" si="17"/>
         <v>1666569600</v>
       </c>
@@ -10504,7 +10516,7 @@
       </c>
       <c r="L241" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 304160714309, "submittedDateTime": 1666485801, "completedDateTime": 1666569600, "amount": 17.52, "memo": "DD DOORDASH JERSEYMIK 8559731040 CA" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 140032156448, "submittedDateTime": 1666526867, "completedDateTime": 1666569600, "amount": 17.52, "memo": "DD DOORDASH JERSEYMIK 8559731040 CA" }}},</v>
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.2">
@@ -10520,15 +10532,15 @@
       <c r="D242">
         <v>72.930000000000007</v>
       </c>
-      <c r="G242" s="3" cm="1">
+      <c r="G242" s="2" cm="1">
         <f t="array" aca="1" ref="G242" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>732504662515</v>
-      </c>
-      <c r="H242" s="2">
+        <v>140032156448</v>
+      </c>
+      <c r="H242">
         <f t="shared" ca="1" si="16"/>
-        <v>1666678820</v>
-      </c>
-      <c r="I242" s="2">
+        <v>1666736290</v>
+      </c>
+      <c r="I242">
         <f t="shared" si="17"/>
         <v>1666742400</v>
       </c>
@@ -10542,7 +10554,7 @@
       </c>
       <c r="L242" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 732504662515, "submittedDateTime": 1666678820, "completedDateTime": 1666742400, "amount": 72.93, "memo": "HELLOFRESH 646-846-3663 NY" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 140032156448, "submittedDateTime": 1666736290, "completedDateTime": 1666742400, "amount": 72.93, "memo": "HELLOFRESH 646-846-3663 NY" }}},</v>
       </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.2">
@@ -10558,15 +10570,15 @@
       <c r="D243">
         <v>211.3</v>
       </c>
-      <c r="G243" s="3" cm="1">
+      <c r="G243" s="2" cm="1">
         <f t="array" aca="1" ref="G243" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>594392737621</v>
-      </c>
-      <c r="H243" s="2">
+        <v>583736154011</v>
+      </c>
+      <c r="H243">
         <f t="shared" ca="1" si="16"/>
-        <v>1667057856</v>
-      </c>
-      <c r="I243" s="2">
+        <v>1667040961</v>
+      </c>
+      <c r="I243">
         <f t="shared" si="17"/>
         <v>1667088000</v>
       </c>
@@ -10580,7 +10592,7 @@
       </c>
       <c r="L243" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 594392737621, "submittedDateTime": 1667057856, "completedDateTime": 1667088000, "amount": 211.3, "memo": "SPI*DUKE-ENERGY 800-777-9898 NC" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 583736154011, "submittedDateTime": 1667040961, "completedDateTime": 1667088000, "amount": 211.3, "memo": "SPI*DUKE-ENERGY 800-777-9898 NC" }}},</v>
       </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.2">
@@ -10596,15 +10608,15 @@
       <c r="E244">
         <v>-41</v>
       </c>
-      <c r="G244" s="3" cm="1">
+      <c r="G244" s="2" cm="1">
         <f t="array" aca="1" ref="G244" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>399061551780</v>
-      </c>
-      <c r="H244" s="2">
+        <v>663912409988</v>
+      </c>
+      <c r="H244">
         <f t="shared" ca="1" si="16"/>
-        <v>1667192827</v>
-      </c>
-      <c r="I244" s="2">
+        <v>1667194399</v>
+      </c>
+      <c r="I244">
         <f t="shared" si="17"/>
         <v>1667260800</v>
       </c>
@@ -10618,7 +10630,7 @@
       </c>
       <c r="L244" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 399061551780, "submittedDateTime": 1667192827, "completedDateTime": 1667260800, "amount": -41, "memo": "ONLINE PAYMENT, THANK YOU" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 663912409988, "submittedDateTime": 1667194399, "completedDateTime": 1667260800, "amount": -41, "memo": "ONLINE PAYMENT, THANK YOU" }}},</v>
       </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.2">
@@ -10634,15 +10646,15 @@
       <c r="D245">
         <v>65.91</v>
       </c>
-      <c r="G245" s="3" cm="1">
+      <c r="G245" s="2" cm="1">
         <f t="array" aca="1" ref="G245" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>598917005925</v>
-      </c>
-      <c r="H245" s="2">
+        <v>513319807340</v>
+      </c>
+      <c r="H245">
         <f t="shared" ca="1" si="16"/>
-        <v>1667530129</v>
-      </c>
-      <c r="I245" s="2">
+        <v>1667598976</v>
+      </c>
+      <c r="I245">
         <f t="shared" si="17"/>
         <v>1667606400</v>
       </c>
@@ -10656,7 +10668,7 @@
       </c>
       <c r="L245" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 598917005925, "submittedDateTime": 1667530129, "completedDateTime": 1667606400, "amount": 65.91, "memo": "ALTAFIBER CINBELL EPAY 513-5652210 OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 513319807340, "submittedDateTime": 1667598976, "completedDateTime": 1667606400, "amount": 65.91, "memo": "ALTAFIBER CINBELL EPAY 513-5652210 OH" }}},</v>
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.2">
@@ -10672,15 +10684,15 @@
       <c r="D246">
         <v>11.25</v>
       </c>
-      <c r="G246" s="3" cm="1">
+      <c r="G246" s="2" cm="1">
         <f t="array" aca="1" ref="G246" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>749596570472</v>
-      </c>
-      <c r="H246" s="2">
+        <v>602716875113</v>
+      </c>
+      <c r="H246">
         <f t="shared" ca="1" si="16"/>
-        <v>1667606199</v>
-      </c>
-      <c r="I246" s="2">
+        <v>1667552378</v>
+      </c>
+      <c r="I246">
         <f t="shared" si="17"/>
         <v>1667606400</v>
       </c>
@@ -10694,7 +10706,7 @@
       </c>
       <c r="L246" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 749596570472, "submittedDateTime": 1667606199, "completedDateTime": 1667606400, "amount": 11.25, "memo": "DD DOORDASH JERSEYMIK 8559731040 CA null XXXXXXXXXXXX5584" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 602716875113, "submittedDateTime": 1667552378, "completedDateTime": 1667606400, "amount": 11.25, "memo": "DD DOORDASH JERSEYMIK 8559731040 CA null XXXXXXXXXXXX5584" }}},</v>
       </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.2">
@@ -10710,15 +10722,15 @@
       <c r="D247">
         <v>12.93</v>
       </c>
-      <c r="G247" s="3" cm="1">
+      <c r="G247" s="2" cm="1">
         <f t="array" aca="1" ref="G247" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>749596570472</v>
-      </c>
-      <c r="H247" s="2">
+        <v>334321869864</v>
+      </c>
+      <c r="H247">
         <f t="shared" ca="1" si="16"/>
-        <v>1667637222</v>
-      </c>
-      <c r="I247" s="2">
+        <v>1667655889</v>
+      </c>
+      <c r="I247">
         <f t="shared" si="17"/>
         <v>1667692800</v>
       </c>
@@ -10732,7 +10744,7 @@
       </c>
       <c r="L247" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 749596570472, "submittedDateTime": 1667637222, "completedDateTime": 1667692800, "amount": 12.93, "memo": "GOOGLE *YouTubePremium 650-253-0000 CA" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 334321869864, "submittedDateTime": 1667655889, "completedDateTime": 1667692800, "amount": 12.93, "memo": "GOOGLE *YouTubePremium 650-253-0000 CA" }}},</v>
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.2">
@@ -10748,15 +10760,15 @@
       <c r="D248">
         <v>67.05</v>
       </c>
-      <c r="G248" s="3" cm="1">
+      <c r="G248" s="2" cm="1">
         <f t="array" aca="1" ref="G248" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>402123746805</v>
-      </c>
-      <c r="H248" s="2">
+        <v>513319807340</v>
+      </c>
+      <c r="H248">
         <f t="shared" ca="1" si="16"/>
-        <v>1667694496</v>
-      </c>
-      <c r="I248" s="2">
+        <v>1667759681</v>
+      </c>
+      <c r="I248">
         <f t="shared" si="17"/>
         <v>1667779200</v>
       </c>
@@ -10770,7 +10782,7 @@
       </c>
       <c r="L248" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 402123746805, "submittedDateTime": 1667694496, "completedDateTime": 1667779200, "amount": 67.05, "memo": "WAL-MART #2250 CINCINNATI OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 513319807340, "submittedDateTime": 1667759681, "completedDateTime": 1667779200, "amount": 67.05, "memo": "WAL-MART #2250 CINCINNATI OH" }}},</v>
       </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.2">
@@ -10786,15 +10798,15 @@
       <c r="D249">
         <v>17.75</v>
       </c>
-      <c r="G249" s="3" cm="1">
+      <c r="G249" s="2" cm="1">
         <f t="array" aca="1" ref="G249" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>402123746805</v>
-      </c>
-      <c r="H249" s="2">
+        <v>195664351857</v>
+      </c>
+      <c r="H249">
         <f t="shared" ca="1" si="16"/>
-        <v>1667778887</v>
-      </c>
-      <c r="I249" s="2">
+        <v>1667738506</v>
+      </c>
+      <c r="I249">
         <f t="shared" si="17"/>
         <v>1667779200</v>
       </c>
@@ -10808,7 +10820,7 @@
       </c>
       <c r="L249" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 402123746805, "submittedDateTime": 1667778887, "completedDateTime": 1667779200, "amount": 17.75, "memo": "CANCUN MEXICAN BAR AND NORWOOD OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 195664351857, "submittedDateTime": 1667738506, "completedDateTime": 1667779200, "amount": 17.75, "memo": "CANCUN MEXICAN BAR AND NORWOOD OH" }}},</v>
       </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.2">
@@ -10824,15 +10836,15 @@
       <c r="D250">
         <v>50</v>
       </c>
-      <c r="G250" s="3" cm="1">
+      <c r="G250" s="2" cm="1">
         <f t="array" aca="1" ref="G250" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>304160714309</v>
-      </c>
-      <c r="H250" s="2">
+        <v>583736154011</v>
+      </c>
+      <c r="H250">
         <f t="shared" ca="1" si="16"/>
-        <v>1667910976</v>
-      </c>
-      <c r="I250" s="2">
+        <v>1667887943</v>
+      </c>
+      <c r="I250">
         <f t="shared" si="17"/>
         <v>1667952000</v>
       </c>
@@ -10846,7 +10858,7 @@
       </c>
       <c r="L250" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 304160714309, "submittedDateTime": 1667910976, "completedDateTime": 1667952000, "amount": 50, "memo": "VISIBLE 8663313527 CO" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 583736154011, "submittedDateTime": 1667887943, "completedDateTime": 1667952000, "amount": 50, "memo": "VISIBLE 8663313527 CO" }}},</v>
       </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.2">
@@ -10862,15 +10874,15 @@
       <c r="D251">
         <v>4.99</v>
       </c>
-      <c r="G251" s="3" cm="1">
+      <c r="G251" s="2" cm="1">
         <f t="array" aca="1" ref="G251" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>669914345717</v>
-      </c>
-      <c r="H251" s="2">
+        <v>663912409988</v>
+      </c>
+      <c r="H251">
         <f t="shared" ca="1" si="16"/>
-        <v>1667941055</v>
-      </c>
-      <c r="I251" s="2">
+        <v>1667902775</v>
+      </c>
+      <c r="I251">
         <f t="shared" si="17"/>
         <v>1667952000</v>
       </c>
@@ -10884,7 +10896,7 @@
       </c>
       <c r="L251" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 669914345717, "submittedDateTime": 1667941055, "completedDateTime": 1667952000, "amount": 4.99, "memo": "HELLOFRESH 646-846-3663 NY" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 663912409988, "submittedDateTime": 1667902775, "completedDateTime": 1667952000, "amount": 4.99, "memo": "HELLOFRESH 646-846-3663 NY" }}},</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.2">
@@ -10900,15 +10912,15 @@
       <c r="D252">
         <v>96.89</v>
       </c>
-      <c r="G252" s="3" cm="1">
+      <c r="G252" s="2" cm="1">
         <f t="array" aca="1" ref="G252" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>498511217783</v>
-      </c>
-      <c r="H252" s="2">
+        <v>583736154011</v>
+      </c>
+      <c r="H252">
         <f t="shared" ca="1" si="16"/>
-        <v>1667877370</v>
-      </c>
-      <c r="I252" s="2">
+        <v>1667930877</v>
+      </c>
+      <c r="I252">
         <f t="shared" si="17"/>
         <v>1667952000</v>
       </c>
@@ -10922,7 +10934,7 @@
       </c>
       <c r="L252" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 498511217783, "submittedDateTime": 1667877370, "completedDateTime": 1667952000, "amount": 96.89, "memo": "HELLOFRESH 646-846-3663 NY" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 583736154011, "submittedDateTime": 1667930877, "completedDateTime": 1667952000, "amount": 96.89, "memo": "HELLOFRESH 646-846-3663 NY" }}},</v>
       </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.2">
@@ -10938,15 +10950,15 @@
       <c r="D253">
         <v>11.5</v>
       </c>
-      <c r="G253" s="3" cm="1">
+      <c r="G253" s="2" cm="1">
         <f t="array" aca="1" ref="G253" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>598917005925</v>
-      </c>
-      <c r="H253" s="2">
+        <v>129025537739</v>
+      </c>
+      <c r="H253">
         <f t="shared" ca="1" si="16"/>
-        <v>1667957131</v>
-      </c>
-      <c r="I253" s="2">
+        <v>1668018863</v>
+      </c>
+      <c r="I253">
         <f t="shared" si="17"/>
         <v>1668038400</v>
       </c>
@@ -10960,7 +10972,7 @@
       </c>
       <c r="L253" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 598917005925, "submittedDateTime": 1667957131, "completedDateTime": 1668038400, "amount": 11.5, "memo": "SQ *WILD SIDE EXPERIEN Burlington KY" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 129025537739, "submittedDateTime": 1668018863, "completedDateTime": 1668038400, "amount": 11.5, "memo": "SQ *WILD SIDE EXPERIEN Burlington KY" }}},</v>
       </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.2">
@@ -10976,15 +10988,15 @@
       <c r="E254">
         <v>-1237.8900000000001</v>
       </c>
-      <c r="G254" s="3" cm="1">
+      <c r="G254" s="2" cm="1">
         <f t="array" aca="1" ref="G254" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>732504662515</v>
-      </c>
-      <c r="H254" s="2">
+        <v>663912409988</v>
+      </c>
+      <c r="H254">
         <f t="shared" ca="1" si="16"/>
-        <v>1668084275</v>
-      </c>
-      <c r="I254" s="2">
+        <v>1668118440</v>
+      </c>
+      <c r="I254">
         <f t="shared" si="17"/>
         <v>1668124800</v>
       </c>
@@ -10998,7 +11010,7 @@
       </c>
       <c r="L254" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 732504662515, "submittedDateTime": 1668084275, "completedDateTime": 1668124800, "amount": -1237.89, "memo": "ONLINE PAYMENT, THANK YOU" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 663912409988, "submittedDateTime": 1668118440, "completedDateTime": 1668124800, "amount": -1237.89, "memo": "ONLINE PAYMENT, THANK YOU" }}},</v>
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.2">
@@ -11014,15 +11026,15 @@
       <c r="D255">
         <v>21.6</v>
       </c>
-      <c r="G255" s="3" cm="1">
+      <c r="G255" s="2" cm="1">
         <f t="array" aca="1" ref="G255" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>732504662515</v>
-      </c>
-      <c r="H255" s="2">
+        <v>513319807340</v>
+      </c>
+      <c r="H255">
         <f t="shared" ca="1" si="16"/>
-        <v>1668057116</v>
-      </c>
-      <c r="I255" s="2">
+        <v>1668113171</v>
+      </c>
+      <c r="I255">
         <f t="shared" si="17"/>
         <v>1668124800</v>
       </c>
@@ -11036,7 +11048,7 @@
       </c>
       <c r="L255" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 732504662515, "submittedDateTime": 1668057116, "completedDateTime": 1668124800, "amount": 21.6, "memo": "CHUY'S 039 FLORENCE KY" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 513319807340, "submittedDateTime": 1668113171, "completedDateTime": 1668124800, "amount": 21.6, "memo": "CHUY'S 039 FLORENCE KY" }}},</v>
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.2">
@@ -11052,15 +11064,15 @@
       <c r="D256">
         <v>75.44</v>
       </c>
-      <c r="G256" s="3" cm="1">
+      <c r="G256" s="2" cm="1">
         <f t="array" aca="1" ref="G256" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>498511217783</v>
-      </c>
-      <c r="H256" s="2">
+        <v>422657850099</v>
+      </c>
+      <c r="H256">
         <f t="shared" ca="1" si="16"/>
-        <v>1668138830</v>
-      </c>
-      <c r="I256" s="2">
+        <v>1668206600</v>
+      </c>
+      <c r="I256">
         <f t="shared" si="17"/>
         <v>1668211200</v>
       </c>
@@ -11074,7 +11086,7 @@
       </c>
       <c r="L256" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 498511217783, "submittedDateTime": 1668138830, "completedDateTime": 1668211200, "amount": 75.44, "memo": "PLAYSTATION NETWORK 800-345-7669 CA" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 422657850099, "submittedDateTime": 1668206600, "completedDateTime": 1668211200, "amount": 75.44, "memo": "PLAYSTATION NETWORK 800-345-7669 CA" }}},</v>
       </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.2">
@@ -11090,15 +11102,15 @@
       <c r="D257">
         <v>66.67</v>
       </c>
-      <c r="G257" s="3" cm="1">
+      <c r="G257" s="2" cm="1">
         <f t="array" aca="1" ref="G257" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>826711618850</v>
-      </c>
-      <c r="H257" s="2">
+        <v>513319807340</v>
+      </c>
+      <c r="H257">
         <f t="shared" ca="1" si="16"/>
-        <v>1668304118</v>
-      </c>
-      <c r="I257" s="2">
+        <v>1668327478</v>
+      </c>
+      <c r="I257">
         <f t="shared" si="17"/>
         <v>1668384000</v>
       </c>
@@ -11112,7 +11124,7 @@
       </c>
       <c r="L257" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 826711618850, "submittedDateTime": 1668304118, "completedDateTime": 1668384000, "amount": 66.67, "memo": "Tesla Insurance Servic Fremont CA null XXXXXXXXXXXX3777" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 513319807340, "submittedDateTime": 1668327478, "completedDateTime": 1668384000, "amount": 66.67, "memo": "Tesla Insurance Servic Fremont CA null XXXXXXXXXXXX3777" }}},</v>
       </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.2">
@@ -11128,15 +11140,15 @@
       <c r="D258">
         <v>94.87</v>
       </c>
-      <c r="G258" s="3" cm="1">
+      <c r="G258" s="2" cm="1">
         <f t="array" aca="1" ref="G258" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>304160714309</v>
-      </c>
-      <c r="H258" s="2">
+        <v>140032156448</v>
+      </c>
+      <c r="H258">
         <f t="shared" ca="1" si="16"/>
-        <v>1668508826</v>
-      </c>
-      <c r="I258" s="2">
+        <v>1668489204</v>
+      </c>
+      <c r="I258">
         <f t="shared" si="17"/>
         <v>1668556800</v>
       </c>
@@ -11150,7 +11162,7 @@
       </c>
       <c r="L258" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 304160714309, "submittedDateTime": 1668508826, "completedDateTime": 1668556800, "amount": 94.87, "memo": "HELLOFRESH 646-846-3663 NY" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 140032156448, "submittedDateTime": 1668489204, "completedDateTime": 1668556800, "amount": 94.87, "memo": "HELLOFRESH 646-846-3663 NY" }}},</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.2">
@@ -11166,15 +11178,15 @@
       <c r="D259">
         <v>5.63</v>
       </c>
-      <c r="G259" s="3" cm="1">
+      <c r="G259" s="2" cm="1">
         <f t="array" aca="1" ref="G259" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>359991678203</v>
-      </c>
-      <c r="H259" s="2">
+        <v>422657850099</v>
+      </c>
+      <c r="H259">
         <f t="shared" ref="H259:H281" ca="1" si="21">_xlfn.FLOOR.MATH((B259-DATE(1970,1,1)+RAND())*86400)</f>
-        <v>1668490155</v>
-      </c>
-      <c r="I259" s="2">
+        <v>1668478437</v>
+      </c>
+      <c r="I259">
         <f t="shared" ref="I259:I281" si="22">_xlfn.FLOOR.MATH((B259-DATE(1970,1,1)+1)*86400)</f>
         <v>1668556800</v>
       </c>
@@ -11188,7 +11200,7 @@
       </c>
       <c r="L259" t="str">
         <f t="shared" ref="L259:L281" ca="1" si="25">"{ "&amp;CHAR(34)&amp; "PutRequest"&amp;CHAR(34)&amp;": { "&amp;CHAR(34)&amp;"Item"&amp;CHAR(34)&amp;": { "&amp;CHAR(34) &amp;G$1&amp;CHAR(34) &amp;": "&amp;G259&amp; ", "&amp;CHAR(34) &amp;H$1&amp;CHAR(34) &amp;": "&amp;H259&amp; ", "&amp;CHAR(34) &amp;I$1&amp;CHAR(34) &amp;": "&amp;I259&amp; ", "&amp;CHAR(34) &amp;J$1&amp;CHAR(34) &amp;": "&amp;J259&amp; ", "&amp;CHAR(34) &amp;K$1&amp;CHAR(34) &amp;": "&amp;CHAR(34)&amp;K259&amp;CHAR(34) &amp;" }}},"</f>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 359991678203, "submittedDateTime": 1668490155, "completedDateTime": 1668556800, "amount": 5.63, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 422657850099, "submittedDateTime": 1668478437, "completedDateTime": 1668556800, "amount": 5.63, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" }}},</v>
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.2">
@@ -11204,15 +11216,15 @@
       <c r="D260">
         <v>25.79</v>
       </c>
-      <c r="G260" s="3" cm="1">
+      <c r="G260" s="2" cm="1">
         <f t="array" aca="1" ref="G260" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>399061551780</v>
-      </c>
-      <c r="H260" s="2">
+        <v>140032156448</v>
+      </c>
+      <c r="H260">
         <f t="shared" ca="1" si="21"/>
-        <v>1668497317</v>
-      </c>
-      <c r="I260" s="2">
+        <v>1668504796</v>
+      </c>
+      <c r="I260">
         <f t="shared" si="22"/>
         <v>1668556800</v>
       </c>
@@ -11226,7 +11238,7 @@
       </c>
       <c r="L260" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 399061551780, "submittedDateTime": 1668497317, "completedDateTime": 1668556800, "amount": 25.79, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 140032156448, "submittedDateTime": 1668504796, "completedDateTime": 1668556800, "amount": 25.79, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" }}},</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.2">
@@ -11242,15 +11254,15 @@
       <c r="D261">
         <v>13</v>
       </c>
-      <c r="G261" s="3" cm="1">
+      <c r="G261" s="2" cm="1">
         <f t="array" aca="1" ref="G261" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>732504662515</v>
-      </c>
-      <c r="H261" s="2">
+        <v>195664351857</v>
+      </c>
+      <c r="H261">
         <f t="shared" ca="1" si="21"/>
-        <v>1669389905</v>
-      </c>
-      <c r="I261" s="2">
+        <v>1669350704</v>
+      </c>
+      <c r="I261">
         <f t="shared" si="22"/>
         <v>1669420800</v>
       </c>
@@ -11264,7 +11276,7 @@
       </c>
       <c r="L261" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 732504662515, "submittedDateTime": 1669389905, "completedDateTime": 1669420800, "amount": 13, "memo": "CINCINNATI ZOO ONLINE 5132814700 OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 195664351857, "submittedDateTime": 1669350704, "completedDateTime": 1669420800, "amount": 13, "memo": "CINCINNATI ZOO ONLINE 5132814700 OH" }}},</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.2">
@@ -11280,15 +11292,15 @@
       <c r="D262">
         <v>50.58</v>
       </c>
-      <c r="G262" s="3" cm="1">
+      <c r="G262" s="2" cm="1">
         <f t="array" aca="1" ref="G262" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>402123746805</v>
-      </c>
-      <c r="H262" s="2">
+        <v>583736154011</v>
+      </c>
+      <c r="H262">
         <f t="shared" ca="1" si="21"/>
-        <v>1669376587</v>
-      </c>
-      <c r="I262" s="2">
+        <v>1669374048</v>
+      </c>
+      <c r="I262">
         <f t="shared" si="22"/>
         <v>1669420800</v>
       </c>
@@ -11302,7 +11314,7 @@
       </c>
       <c r="L262" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 402123746805, "submittedDateTime": 1669376587, "completedDateTime": 1669420800, "amount": 50.58, "memo": "THE PUB AT ROOKWOOD CINCINNATI OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 583736154011, "submittedDateTime": 1669374048, "completedDateTime": 1669420800, "amount": 50.58, "memo": "THE PUB AT ROOKWOOD CINCINNATI OH" }}},</v>
       </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.2">
@@ -11318,15 +11330,15 @@
       <c r="D263">
         <v>12.99</v>
       </c>
-      <c r="G263" s="3" cm="1">
+      <c r="G263" s="2" cm="1">
         <f t="array" aca="1" ref="G263" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>399061551780</v>
-      </c>
-      <c r="H263" s="2">
+        <v>513319807340</v>
+      </c>
+      <c r="H263">
         <f t="shared" ca="1" si="21"/>
-        <v>1669482082</v>
-      </c>
-      <c r="I263" s="2">
+        <v>1669438906</v>
+      </c>
+      <c r="I263">
         <f t="shared" si="22"/>
         <v>1669507200</v>
       </c>
@@ -11340,7 +11352,7 @@
       </c>
       <c r="L263" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 399061551780, "submittedDateTime": 1669482082, "completedDateTime": 1669507200, "amount": 12.99, "memo": "PENN STATION 10 CINCINNATI OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 513319807340, "submittedDateTime": 1669438906, "completedDateTime": 1669507200, "amount": 12.99, "memo": "PENN STATION 10 CINCINNATI OH" }}},</v>
       </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.2">
@@ -11356,15 +11368,15 @@
       <c r="D264">
         <v>9</v>
       </c>
-      <c r="G264" s="3" cm="1">
+      <c r="G264" s="2" cm="1">
         <f t="array" aca="1" ref="G264" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>304160714309</v>
-      </c>
-      <c r="H264" s="2">
+        <v>602716875113</v>
+      </c>
+      <c r="H264">
         <f t="shared" ca="1" si="21"/>
-        <v>1669703407</v>
-      </c>
-      <c r="I264" s="2">
+        <v>1669719443</v>
+      </c>
+      <c r="I264">
         <f t="shared" si="22"/>
         <v>1669766400</v>
       </c>
@@ -11378,7 +11390,7 @@
       </c>
       <c r="L264" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 304160714309, "submittedDateTime": 1669703407, "completedDateTime": 1669766400, "amount": 9, "memo": "SQ *BAM BAM'S Erlanger KY" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 602716875113, "submittedDateTime": 1669719443, "completedDateTime": 1669766400, "amount": 9, "memo": "SQ *BAM BAM'S Erlanger KY" }}},</v>
       </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.2">
@@ -11394,15 +11406,15 @@
       <c r="D265">
         <v>11</v>
       </c>
-      <c r="G265" s="3" cm="1">
+      <c r="G265" s="2" cm="1">
         <f t="array" aca="1" ref="G265" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>732504662515</v>
-      </c>
-      <c r="H265" s="2">
+        <v>422657850099</v>
+      </c>
+      <c r="H265">
         <f t="shared" ca="1" si="21"/>
-        <v>1669718946</v>
-      </c>
-      <c r="I265" s="2">
+        <v>1669763942</v>
+      </c>
+      <c r="I265">
         <f t="shared" si="22"/>
         <v>1669766400</v>
       </c>
@@ -11416,7 +11428,7 @@
       </c>
       <c r="L265" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 732504662515, "submittedDateTime": 1669718946, "completedDateTime": 1669766400, "amount": 11, "memo": "SQ *BAM BAM'S Erlanger KY" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 422657850099, "submittedDateTime": 1669763942, "completedDateTime": 1669766400, "amount": 11, "memo": "SQ *BAM BAM'S Erlanger KY" }}},</v>
       </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.2">
@@ -11432,15 +11444,15 @@
       <c r="D266">
         <v>112.87</v>
       </c>
-      <c r="G266" s="3" cm="1">
+      <c r="G266" s="2" cm="1">
         <f t="array" aca="1" ref="G266" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>304160714309</v>
-      </c>
-      <c r="H266" s="2">
+        <v>663912409988</v>
+      </c>
+      <c r="H266">
         <f t="shared" ca="1" si="21"/>
-        <v>1669746571</v>
-      </c>
-      <c r="I266" s="2">
+        <v>1669764062</v>
+      </c>
+      <c r="I266">
         <f t="shared" si="22"/>
         <v>1669766400</v>
       </c>
@@ -11454,7 +11466,7 @@
       </c>
       <c r="L266" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 304160714309, "submittedDateTime": 1669746571, "completedDateTime": 1669766400, "amount": 112.87, "memo": "HELLOFRESH 646-846-3663 NY" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 663912409988, "submittedDateTime": 1669764062, "completedDateTime": 1669766400, "amount": 112.87, "memo": "HELLOFRESH 646-846-3663 NY" }}},</v>
       </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.2">
@@ -11470,15 +11482,15 @@
       <c r="D267">
         <v>5.51</v>
       </c>
-      <c r="G267" s="3" cm="1">
+      <c r="G267" s="2" cm="1">
         <f t="array" aca="1" ref="G267" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>304160714309</v>
-      </c>
-      <c r="H267" s="2">
+        <v>663912409988</v>
+      </c>
+      <c r="H267">
         <f t="shared" ca="1" si="21"/>
-        <v>1669827850</v>
-      </c>
-      <c r="I267" s="2">
+        <v>1669788169</v>
+      </c>
+      <c r="I267">
         <f t="shared" si="22"/>
         <v>1669852800</v>
       </c>
@@ -11492,7 +11504,7 @@
       </c>
       <c r="L267" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 304160714309, "submittedDateTime": 1669827850, "completedDateTime": 1669852800, "amount": 5.51, "memo": "ICI*FEECITY OF NORWOOD 866-342-9266 MA" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 663912409988, "submittedDateTime": 1669788169, "completedDateTime": 1669852800, "amount": 5.51, "memo": "ICI*FEECITY OF NORWOOD 866-342-9266 MA" }}},</v>
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.2">
@@ -11508,15 +11520,15 @@
       <c r="D268">
         <v>220.48</v>
       </c>
-      <c r="G268" s="3" cm="1">
+      <c r="G268" s="2" cm="1">
         <f t="array" aca="1" ref="G268" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>861239476106</v>
-      </c>
-      <c r="H268" s="2">
+        <v>602716875113</v>
+      </c>
+      <c r="H268">
         <f t="shared" ca="1" si="21"/>
-        <v>1669799984</v>
-      </c>
-      <c r="I268" s="2">
+        <v>1669784799</v>
+      </c>
+      <c r="I268">
         <f t="shared" si="22"/>
         <v>1669852800</v>
       </c>
@@ -11530,7 +11542,7 @@
       </c>
       <c r="L268" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 861239476106, "submittedDateTime": 1669799984, "completedDateTime": 1669852800, "amount": 220.48, "memo": "CITY OF NORWOOD 513-458-4500 OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 602716875113, "submittedDateTime": 1669784799, "completedDateTime": 1669852800, "amount": 220.48, "memo": "CITY OF NORWOOD 513-458-4500 OH" }}},</v>
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.2">
@@ -11546,15 +11558,15 @@
       <c r="D269">
         <v>300.27999999999997</v>
       </c>
-      <c r="G269" s="3" cm="1">
+      <c r="G269" s="2" cm="1">
         <f t="array" aca="1" ref="G269" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>749596570472</v>
-      </c>
-      <c r="H269" s="2">
+        <v>422657850099</v>
+      </c>
+      <c r="H269">
         <f t="shared" ca="1" si="21"/>
-        <v>1669810644</v>
-      </c>
-      <c r="I269" s="2">
+        <v>1669807893</v>
+      </c>
+      <c r="I269">
         <f t="shared" si="22"/>
         <v>1669852800</v>
       </c>
@@ -11568,7 +11580,7 @@
       </c>
       <c r="L269" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 749596570472, "submittedDateTime": 1669810644, "completedDateTime": 1669852800, "amount": 300.28, "memo": "SPI*DUKE-ENERGY 800-777-9898 NC" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 422657850099, "submittedDateTime": 1669807893, "completedDateTime": 1669852800, "amount": 300.28, "memo": "SPI*DUKE-ENERGY 800-777-9898 NC" }}},</v>
       </c>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.2">
@@ -11584,15 +11596,15 @@
       <c r="D270">
         <v>21.56</v>
       </c>
-      <c r="G270" s="3" cm="1">
+      <c r="G270" s="2" cm="1">
         <f t="array" aca="1" ref="G270" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>598917005925</v>
-      </c>
-      <c r="H270" s="2">
+        <v>422657850099</v>
+      </c>
+      <c r="H270">
         <f t="shared" ca="1" si="21"/>
-        <v>1670135974</v>
-      </c>
-      <c r="I270" s="2">
+        <v>1670190989</v>
+      </c>
+      <c r="I270">
         <f t="shared" si="22"/>
         <v>1670198400</v>
       </c>
@@ -11606,7 +11618,7 @@
       </c>
       <c r="L270" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 598917005925, "submittedDateTime": 1670135974, "completedDateTime": 1670198400, "amount": 21.56, "memo": "SQ *QUEEN CITY NOVELTY Cincinnati OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 422657850099, "submittedDateTime": 1670190989, "completedDateTime": 1670198400, "amount": 21.56, "memo": "SQ *QUEEN CITY NOVELTY Cincinnati OH" }}},</v>
       </c>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.2">
@@ -11622,15 +11634,15 @@
       <c r="D271">
         <v>18.149999999999999</v>
       </c>
-      <c r="G271" s="3" cm="1">
+      <c r="G271" s="2" cm="1">
         <f t="array" aca="1" ref="G271" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>861239476106</v>
-      </c>
-      <c r="H271" s="2">
+        <v>583736154011</v>
+      </c>
+      <c r="H271">
         <f t="shared" ca="1" si="21"/>
-        <v>1670187407</v>
-      </c>
-      <c r="I271" s="2">
+        <v>1670161934</v>
+      </c>
+      <c r="I271">
         <f t="shared" si="22"/>
         <v>1670198400</v>
       </c>
@@ -11644,7 +11656,7 @@
       </c>
       <c r="L271" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 861239476106, "submittedDateTime": 1670187407, "completedDateTime": 1670198400, "amount": 18.15, "memo": "CANCUN MEXICAN BAR AND NORWOOD OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 583736154011, "submittedDateTime": 1670161934, "completedDateTime": 1670198400, "amount": 18.15, "memo": "CANCUN MEXICAN BAR AND NORWOOD OH" }}},</v>
       </c>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.2">
@@ -11660,15 +11672,15 @@
       <c r="D272">
         <v>59.26</v>
       </c>
-      <c r="G272" s="3" cm="1">
+      <c r="G272" s="2" cm="1">
         <f t="array" aca="1" ref="G272" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>861239476106</v>
-      </c>
-      <c r="H272" s="2">
+        <v>422657850099</v>
+      </c>
+      <c r="H272">
         <f t="shared" ca="1" si="21"/>
-        <v>1670114863</v>
-      </c>
-      <c r="I272" s="2">
+        <v>1670123063</v>
+      </c>
+      <c r="I272">
         <f t="shared" si="22"/>
         <v>1670198400</v>
       </c>
@@ -11682,7 +11694,7 @@
       </c>
       <c r="L272" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 861239476106, "submittedDateTime": 1670114863, "completedDateTime": 1670198400, "amount": 59.26, "memo": "SQ *DJC CONCESSIONS LL Cincinnati OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 422657850099, "submittedDateTime": 1670123063, "completedDateTime": 1670198400, "amount": 59.26, "memo": "SQ *DJC CONCESSIONS LL Cincinnati OH" }}},</v>
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.2">
@@ -11698,15 +11710,15 @@
       <c r="D273">
         <v>10.25</v>
       </c>
-      <c r="G273" s="3" cm="1">
+      <c r="G273" s="2" cm="1">
         <f t="array" aca="1" ref="G273" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>359991678203</v>
-      </c>
-      <c r="H273" s="2">
+        <v>140032156448</v>
+      </c>
+      <c r="H273">
         <f t="shared" ca="1" si="21"/>
-        <v>1670227884</v>
-      </c>
-      <c r="I273" s="2">
+        <v>1670277480</v>
+      </c>
+      <c r="I273">
         <f t="shared" si="22"/>
         <v>1670284800</v>
       </c>
@@ -11720,7 +11732,7 @@
       </c>
       <c r="L273" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 359991678203, "submittedDateTime": 1670227884, "completedDateTime": 1670284800, "amount": 10.25, "memo": "DD DOORDASH JERSEYMIK 8559731040 CA null XXXXXXXXXXXX5584" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 140032156448, "submittedDateTime": 1670277480, "completedDateTime": 1670284800, "amount": 10.25, "memo": "DD DOORDASH JERSEYMIK 8559731040 CA null XXXXXXXXXXXX5584" }}},</v>
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.2">
@@ -11736,15 +11748,15 @@
       <c r="D274">
         <v>12.93</v>
       </c>
-      <c r="G274" s="3" cm="1">
+      <c r="G274" s="2" cm="1">
         <f t="array" aca="1" ref="G274" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>598917005925</v>
-      </c>
-      <c r="H274" s="2">
+        <v>513319807340</v>
+      </c>
+      <c r="H274">
         <f t="shared" ca="1" si="21"/>
-        <v>1670232159</v>
-      </c>
-      <c r="I274" s="2">
+        <v>1670278037</v>
+      </c>
+      <c r="I274">
         <f t="shared" si="22"/>
         <v>1670284800</v>
       </c>
@@ -11758,7 +11770,7 @@
       </c>
       <c r="L274" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 598917005925, "submittedDateTime": 1670232159, "completedDateTime": 1670284800, "amount": 12.93, "memo": "GOOGLE *YouTubePremium 650-253-0000 CA" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 513319807340, "submittedDateTime": 1670278037, "completedDateTime": 1670284800, "amount": 12.93, "memo": "GOOGLE *YouTubePremium 650-253-0000 CA" }}},</v>
       </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.2">
@@ -11774,15 +11786,15 @@
       <c r="D275">
         <v>112.87</v>
       </c>
-      <c r="G275" s="3" cm="1">
+      <c r="G275" s="2" cm="1">
         <f t="array" aca="1" ref="G275" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>732504662515</v>
-      </c>
-      <c r="H275" s="2">
+        <v>422657850099</v>
+      </c>
+      <c r="H275">
         <f t="shared" ca="1" si="21"/>
-        <v>1670342931</v>
-      </c>
-      <c r="I275" s="2">
+        <v>1670298973</v>
+      </c>
+      <c r="I275">
         <f t="shared" si="22"/>
         <v>1670371200</v>
       </c>
@@ -11796,7 +11808,7 @@
       </c>
       <c r="L275" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 732504662515, "submittedDateTime": 1670342931, "completedDateTime": 1670371200, "amount": 112.87, "memo": "HELLOFRESH 646-846-3663 NY" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 422657850099, "submittedDateTime": 1670298973, "completedDateTime": 1670371200, "amount": 112.87, "memo": "HELLOFRESH 646-846-3663 NY" }}},</v>
       </c>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.2">
@@ -11812,15 +11824,15 @@
       <c r="D276">
         <v>50</v>
       </c>
-      <c r="G276" s="3" cm="1">
+      <c r="G276" s="2" cm="1">
         <f t="array" aca="1" ref="G276" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>749596570472</v>
-      </c>
-      <c r="H276" s="2">
+        <v>663912409988</v>
+      </c>
+      <c r="H276">
         <f t="shared" ca="1" si="21"/>
-        <v>1670538486</v>
-      </c>
-      <c r="I276" s="2">
+        <v>1670524339</v>
+      </c>
+      <c r="I276">
         <f t="shared" si="22"/>
         <v>1670544000</v>
       </c>
@@ -11834,7 +11846,7 @@
       </c>
       <c r="L276" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 749596570472, "submittedDateTime": 1670538486, "completedDateTime": 1670544000, "amount": 50, "memo": "VISIBLE 8663313527 CO" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 663912409988, "submittedDateTime": 1670524339, "completedDateTime": 1670544000, "amount": 50, "memo": "VISIBLE 8663313527 CO" }}},</v>
       </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.2">
@@ -11850,15 +11862,15 @@
       <c r="E277">
         <v>-912.5</v>
       </c>
-      <c r="G277" s="3" cm="1">
+      <c r="G277" s="2" cm="1">
         <f t="array" aca="1" ref="G277" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>826711618850</v>
-      </c>
-      <c r="H277" s="2">
+        <v>663912409988</v>
+      </c>
+      <c r="H277">
         <f t="shared" ca="1" si="21"/>
-        <v>1670611144</v>
-      </c>
-      <c r="I277" s="2">
+        <v>1670567870</v>
+      </c>
+      <c r="I277">
         <f t="shared" si="22"/>
         <v>1670630400</v>
       </c>
@@ -11872,7 +11884,7 @@
       </c>
       <c r="L277" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 826711618850, "submittedDateTime": 1670611144, "completedDateTime": 1670630400, "amount": -912.5, "memo": "ONLINE PAYMENT, THANK YOU" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 663912409988, "submittedDateTime": 1670567870, "completedDateTime": 1670630400, "amount": -912.5, "memo": "ONLINE PAYMENT, THANK YOU" }}},</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.2">
@@ -11888,15 +11900,15 @@
       <c r="D278">
         <v>11.98</v>
       </c>
-      <c r="G278" s="3" cm="1">
+      <c r="G278" s="2" cm="1">
         <f t="array" aca="1" ref="G278" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>359991678203</v>
-      </c>
-      <c r="H278" s="2">
+        <v>140032156448</v>
+      </c>
+      <c r="H278">
         <f t="shared" ca="1" si="21"/>
-        <v>1670772873</v>
-      </c>
-      <c r="I278" s="2">
+        <v>1670737015</v>
+      </c>
+      <c r="I278">
         <f t="shared" si="22"/>
         <v>1670803200</v>
       </c>
@@ -11910,7 +11922,7 @@
       </c>
       <c r="L278" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 359991678203, "submittedDateTime": 1670772873, "completedDateTime": 1670803200, "amount": 11.98, "memo": "TACO BELL 32033 CINCINNATI OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 140032156448, "submittedDateTime": 1670737015, "completedDateTime": 1670803200, "amount": 11.98, "memo": "TACO BELL 32033 CINCINNATI OH" }}},</v>
       </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.2">
@@ -11926,15 +11938,15 @@
       <c r="D279">
         <v>36.78</v>
       </c>
-      <c r="G279" s="3" cm="1">
+      <c r="G279" s="2" cm="1">
         <f t="array" aca="1" ref="G279" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>669914345717</v>
-      </c>
-      <c r="H279" s="2">
+        <v>513319807340</v>
+      </c>
+      <c r="H279">
         <f t="shared" ca="1" si="21"/>
-        <v>1670751530</v>
-      </c>
-      <c r="I279" s="2">
+        <v>1670769555</v>
+      </c>
+      <c r="I279">
         <f t="shared" si="22"/>
         <v>1670803200</v>
       </c>
@@ -11948,7 +11960,7 @@
       </c>
       <c r="L279" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 669914345717, "submittedDateTime": 1670751530, "completedDateTime": 1670803200, "amount": 36.78, "memo": "CANCUN MEXICAN BAR AND NORWOOD OH" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 513319807340, "submittedDateTime": 1670769555, "completedDateTime": 1670803200, "amount": 36.78, "memo": "CANCUN MEXICAN BAR AND NORWOOD OH" }}},</v>
       </c>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.2">
@@ -11964,15 +11976,15 @@
       <c r="D280">
         <v>72.510000000000005</v>
       </c>
-      <c r="G280" s="3" cm="1">
+      <c r="G280" s="2" cm="1">
         <f t="array" aca="1" ref="G280" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>399061551780</v>
-      </c>
-      <c r="H280" s="2">
+        <v>583736154011</v>
+      </c>
+      <c r="H280">
         <f t="shared" ca="1" si="21"/>
-        <v>1670920659</v>
-      </c>
-      <c r="I280" s="2">
+        <v>1670952667</v>
+      </c>
+      <c r="I280">
         <f t="shared" si="22"/>
         <v>1670976000</v>
       </c>
@@ -11986,7 +11998,7 @@
       </c>
       <c r="L280" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 399061551780, "submittedDateTime": 1670920659, "completedDateTime": 1670976000, "amount": 72.51, "memo": "Tesla Insurance Servic Fremont CA null XXXXXXXXXXXX3777" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 583736154011, "submittedDateTime": 1670952667, "completedDateTime": 1670976000, "amount": 72.51, "memo": "Tesla Insurance Servic Fremont CA null XXXXXXXXXXXX3777" }}},</v>
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.2">
@@ -12002,15 +12014,15 @@
       <c r="D281">
         <v>112.87</v>
       </c>
-      <c r="G281" s="3" cm="1">
+      <c r="G281" s="2" cm="1">
         <f t="array" aca="1" ref="G281" ca="1">INDEX(N:N,   _xlfn.CEILING.MATH(RAND()*COUNT(N:N)))</f>
-        <v>732504662515</v>
-      </c>
-      <c r="H281" s="2">
+        <v>129025537739</v>
+      </c>
+      <c r="H281">
         <f t="shared" ca="1" si="21"/>
-        <v>1670973517</v>
-      </c>
-      <c r="I281" s="2">
+        <v>1670948035</v>
+      </c>
+      <c r="I281">
         <f t="shared" si="22"/>
         <v>1670976000</v>
       </c>
@@ -12024,7 +12036,7 @@
       </c>
       <c r="L281" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>{ "PutRequest": { "Item": { "accountNumber": 732504662515, "submittedDateTime": 1670973517, "completedDateTime": 1670976000, "amount": 112.87, "memo": "HELLOFRESH 646-846-3663 NY" }}},</v>
+        <v>{ "PutRequest": { "Item": { "accountNumber": 129025537739, "submittedDateTime": 1670948035, "completedDateTime": 1670976000, "amount": 112.87, "memo": "HELLOFRESH 646-846-3663 NY" }}},</v>
       </c>
     </row>
   </sheetData>
